--- a/TUAN/HOSO2024-BPKT.xlsx
+++ b/TUAN/HOSO2024-BPKT.xlsx
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4105" uniqueCount="1510">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4105" uniqueCount="1511">
   <si>
     <t>Ngày</t>
   </si>
@@ -4584,6 +4584,9 @@
   </si>
   <si>
     <t>3hs</t>
+  </si>
+  <si>
+    <t>Trả hồ sơ.</t>
   </si>
 </sst>
 </file>
@@ -5835,7 +5838,7 @@
   <dimension ref="A1:Q2009"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A214" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I246" sqref="I246"/>
+      <selection activeCell="I225" sqref="I225"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -15321,7 +15324,7 @@
       <c r="N226" s="71"/>
       <c r="O226" s="71"/>
       <c r="P226" s="110" t="s">
-        <v>846</v>
+        <v>1510</v>
       </c>
     </row>
     <row r="227" spans="1:17" s="146" customFormat="1" x14ac:dyDescent="0.25">

--- a/TUAN/HOSO2024-BPKT.xlsx
+++ b/TUAN/HOSO2024-BPKT.xlsx
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4105" uniqueCount="1511">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4109" uniqueCount="1510">
   <si>
     <t>Ngày</t>
   </si>
@@ -4584,9 +4584,6 @@
   </si>
   <si>
     <t>3hs</t>
-  </si>
-  <si>
-    <t>Trả hồ sơ.</t>
   </si>
 </sst>
 </file>
@@ -5837,8 +5834,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:Q2009"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A214" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I225" sqref="I225"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="K205" sqref="K205"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -14756,119 +14753,128 @@
         <v>846</v>
       </c>
     </row>
-    <row r="213" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A213" s="81">
+    <row r="213" spans="1:17" s="146" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A213" s="104">
         <v>212</v>
       </c>
-      <c r="B213" s="13">
+      <c r="B213" s="105">
         <v>22</v>
       </c>
-      <c r="C213" s="13">
+      <c r="C213" s="105">
         <v>2</v>
       </c>
-      <c r="D213" s="13">
+      <c r="D213" s="105">
         <v>2024</v>
       </c>
-      <c r="E213" s="2" t="s">
+      <c r="E213" s="106" t="s">
         <v>1205</v>
       </c>
-      <c r="F213" s="21" t="s">
+      <c r="F213" s="109" t="s">
         <v>444</v>
       </c>
-      <c r="G213" s="154"/>
-      <c r="H213" s="140"/>
-      <c r="I213" s="13" t="s">
+      <c r="G213" s="155"/>
+      <c r="H213" s="141"/>
+      <c r="I213" s="105" t="s">
         <v>996</v>
       </c>
-      <c r="J213" s="14" t="s">
+      <c r="J213" s="108" t="s">
         <v>1002</v>
       </c>
       <c r="K213" s="118">
         <v>45378</v>
       </c>
-      <c r="L213" s="69" t="s">
+      <c r="L213" s="107" t="s">
         <v>1296</v>
       </c>
-      <c r="M213" s="120"/>
-      <c r="N213" s="71"/>
-      <c r="O213" s="71"/>
-      <c r="P213" s="71"/>
-    </row>
-    <row r="214" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A214" s="81">
+      <c r="M213" s="119"/>
+      <c r="N213" s="110"/>
+      <c r="O213" s="110"/>
+      <c r="P213" s="110" t="s">
+        <v>846</v>
+      </c>
+      <c r="Q213" s="145"/>
+    </row>
+    <row r="214" spans="1:17" s="146" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A214" s="104">
         <v>213</v>
       </c>
-      <c r="B214" s="13">
+      <c r="B214" s="105">
         <v>22</v>
       </c>
-      <c r="C214" s="13">
+      <c r="C214" s="105">
         <v>2</v>
       </c>
-      <c r="D214" s="13">
+      <c r="D214" s="105">
         <v>2024</v>
       </c>
-      <c r="E214" s="2" t="s">
+      <c r="E214" s="106" t="s">
         <v>1206</v>
       </c>
-      <c r="F214" s="21" t="s">
+      <c r="F214" s="109" t="s">
         <v>444</v>
       </c>
-      <c r="G214" s="154"/>
-      <c r="H214" s="140"/>
-      <c r="I214" s="13" t="s">
+      <c r="G214" s="155"/>
+      <c r="H214" s="141"/>
+      <c r="I214" s="105" t="s">
         <v>996</v>
       </c>
-      <c r="J214" s="14" t="s">
+      <c r="J214" s="108" t="s">
         <v>1002</v>
       </c>
       <c r="K214" s="118">
         <v>45378</v>
       </c>
-      <c r="L214" s="69" t="s">
+      <c r="L214" s="107" t="s">
         <v>1296</v>
       </c>
-      <c r="M214" s="120"/>
-      <c r="N214" s="71"/>
-      <c r="O214" s="71"/>
-      <c r="P214" s="71"/>
-    </row>
-    <row r="215" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A215" s="81">
+      <c r="M214" s="119"/>
+      <c r="N214" s="110"/>
+      <c r="O214" s="110"/>
+      <c r="P214" s="110" t="s">
+        <v>846</v>
+      </c>
+      <c r="Q214" s="145"/>
+    </row>
+    <row r="215" spans="1:17" s="146" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A215" s="104">
         <v>214</v>
       </c>
-      <c r="B215" s="13">
+      <c r="B215" s="105">
         <v>22</v>
       </c>
-      <c r="C215" s="13">
+      <c r="C215" s="105">
         <v>2</v>
       </c>
-      <c r="D215" s="13">
+      <c r="D215" s="105">
         <v>2024</v>
       </c>
-      <c r="E215" s="2" t="s">
+      <c r="E215" s="106" t="s">
         <v>1207</v>
       </c>
-      <c r="F215" s="21" t="s">
+      <c r="F215" s="109" t="s">
         <v>444</v>
       </c>
-      <c r="G215" s="154"/>
-      <c r="H215" s="140"/>
-      <c r="I215" s="13" t="s">
+      <c r="G215" s="155"/>
+      <c r="H215" s="141"/>
+      <c r="I215" s="105" t="s">
         <v>996</v>
       </c>
-      <c r="J215" s="14" t="s">
+      <c r="J215" s="108" t="s">
         <v>1002</v>
       </c>
       <c r="K215" s="118">
         <v>45378</v>
       </c>
-      <c r="L215" s="69" t="s">
+      <c r="L215" s="107" t="s">
         <v>1296</v>
       </c>
-      <c r="M215" s="120"/>
-      <c r="N215" s="71"/>
-      <c r="O215" s="71"/>
-      <c r="P215" s="71"/>
+      <c r="M215" s="119"/>
+      <c r="N215" s="110"/>
+      <c r="O215" s="110"/>
+      <c r="P215" s="110" t="s">
+        <v>846</v>
+      </c>
+      <c r="Q215" s="145"/>
     </row>
     <row r="216" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A216" s="81">
@@ -15324,7 +15330,7 @@
       <c r="N226" s="71"/>
       <c r="O226" s="71"/>
       <c r="P226" s="110" t="s">
-        <v>1510</v>
+        <v>846</v>
       </c>
     </row>
     <row r="227" spans="1:17" s="146" customFormat="1" x14ac:dyDescent="0.25">
@@ -17028,43 +17034,46 @@
       </c>
       <c r="Q269" s="145"/>
     </row>
-    <row r="270" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A270" s="81">
+    <row r="270" spans="1:17" s="146" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A270" s="104">
         <v>269</v>
       </c>
-      <c r="B270" s="13">
+      <c r="B270" s="105">
         <v>5</v>
       </c>
-      <c r="C270" s="13">
+      <c r="C270" s="105">
         <v>3</v>
       </c>
-      <c r="D270" s="13">
+      <c r="D270" s="105">
         <v>2024</v>
       </c>
-      <c r="E270" s="2" t="s">
+      <c r="E270" s="106" t="s">
         <v>1310</v>
       </c>
-      <c r="F270" s="21" t="s">
+      <c r="F270" s="109" t="s">
         <v>444</v>
       </c>
-      <c r="G270" s="154"/>
-      <c r="H270" s="140"/>
-      <c r="I270" s="13" t="s">
+      <c r="G270" s="155"/>
+      <c r="H270" s="141"/>
+      <c r="I270" s="105" t="s">
         <v>5</v>
       </c>
-      <c r="J270" s="14" t="s">
+      <c r="J270" s="108" t="s">
         <v>1360</v>
       </c>
       <c r="K270" s="109">
         <v>45390</v>
       </c>
-      <c r="L270" s="69" t="s">
+      <c r="L270" s="107" t="s">
         <v>1296</v>
       </c>
-      <c r="M270" s="120"/>
-      <c r="N270" s="71"/>
-      <c r="O270" s="71"/>
-      <c r="P270" s="71"/>
+      <c r="M270" s="119"/>
+      <c r="N270" s="110"/>
+      <c r="O270" s="110"/>
+      <c r="P270" s="110" t="s">
+        <v>846</v>
+      </c>
+      <c r="Q270" s="145"/>
     </row>
     <row r="271" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A271" s="81">

--- a/TUAN/HOSO2024-BPKT.xlsx
+++ b/TUAN/HOSO2024-BPKT.xlsx
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4111" uniqueCount="1512">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4113" uniqueCount="1513">
   <si>
     <t>Ngày</t>
   </si>
@@ -4590,6 +4590,9 @@
   </si>
   <si>
     <t>Trả hồ sơ (Cấp đổi dự án)</t>
+  </si>
+  <si>
+    <t>359 (1023;1024;1025;1026;1027)</t>
   </si>
 </sst>
 </file>
@@ -5815,8 +5818,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:Q2009"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A199" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="P261" sqref="P261"/>
+    <sheetView tabSelected="1" topLeftCell="A205" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="O418" sqref="O418"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5828,7 +5831,7 @@
     <col min="5" max="5" width="40.28515625" style="94" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="14.140625" style="101" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="10.140625" style="142" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="24.140625" style="100" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="28.85546875" style="100" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="14" style="100" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="22.85546875" style="101" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="21.140625" style="112" bestFit="1" customWidth="1"/>
@@ -16058,8 +16061,12 @@
       <c r="F245" s="21" t="s">
         <v>14</v>
       </c>
-      <c r="G245" s="147"/>
-      <c r="H245" s="147"/>
+      <c r="G245" s="147">
+        <v>7</v>
+      </c>
+      <c r="H245" s="147" t="s">
+        <v>1512</v>
+      </c>
       <c r="I245" s="13" t="s">
         <v>5</v>
       </c>
@@ -16072,9 +16079,15 @@
       <c r="L245" s="69" t="s">
         <v>1297</v>
       </c>
-      <c r="M245" s="114"/>
-      <c r="N245" s="71"/>
-      <c r="O245" s="71"/>
+      <c r="M245" s="114">
+        <v>45379</v>
+      </c>
+      <c r="N245" s="71">
+        <v>4</v>
+      </c>
+      <c r="O245" s="71">
+        <v>5</v>
+      </c>
       <c r="P245" s="71"/>
     </row>
     <row r="246" spans="1:17" x14ac:dyDescent="0.25">
@@ -22069,14 +22082,26 @@
       <c r="D413" s="73"/>
       <c r="E413" s="74"/>
       <c r="F413" s="81"/>
-      <c r="G413" s="71"/>
-      <c r="H413" s="69"/>
+      <c r="G413" s="71">
+        <v>32</v>
+      </c>
+      <c r="H413" s="69">
+        <v>16</v>
+      </c>
       <c r="I413" s="69"/>
       <c r="J413" s="76"/>
-      <c r="L413" s="69"/>
-      <c r="M413" s="114"/>
-      <c r="N413" s="71"/>
-      <c r="O413" s="71"/>
+      <c r="L413" s="69" t="s">
+        <v>1295</v>
+      </c>
+      <c r="M413" s="114">
+        <v>45379</v>
+      </c>
+      <c r="N413" s="71">
+        <v>4</v>
+      </c>
+      <c r="O413" s="71">
+        <v>1</v>
+      </c>
       <c r="P413" s="69"/>
     </row>
     <row r="414" spans="1:16" x14ac:dyDescent="0.25">

--- a/TUAN/HOSO2024-BPKT.xlsx
+++ b/TUAN/HOSO2024-BPKT.xlsx
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4113" uniqueCount="1513">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4426" uniqueCount="1595">
   <si>
     <t>Ngày</t>
   </si>
@@ -4593,6 +4593,252 @@
   </si>
   <si>
     <t>359 (1023;1024;1025;1026;1027)</t>
+  </si>
+  <si>
+    <t>Nguyễn Hữu Thiều</t>
+  </si>
+  <si>
+    <t>Lê Văn Hải</t>
+  </si>
+  <si>
+    <t>Nguyễn Thị Kiều My</t>
+  </si>
+  <si>
+    <t>lê Thanh Bình</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Trương Văn Ba </t>
+  </si>
+  <si>
+    <t>Đinh Thị Thơi</t>
+  </si>
+  <si>
+    <t>Lê Trọng Tài</t>
+  </si>
+  <si>
+    <t>Trương Văn Cường</t>
+  </si>
+  <si>
+    <t>Nguyễn Thị Trang</t>
+  </si>
+  <si>
+    <t>Hồ Văn Họp</t>
+  </si>
+  <si>
+    <t>Võ Thị Diệu Hà</t>
+  </si>
+  <si>
+    <t>Hồ Quốc Sỹ</t>
+  </si>
+  <si>
+    <t>Nguyễn Thị Hồng Sen</t>
+  </si>
+  <si>
+    <t>Nguyễn Hoài Nam</t>
+  </si>
+  <si>
+    <t>Nguyễn Văn Đức</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nguyễn Thanh Minh Cường </t>
+  </si>
+  <si>
+    <t>Hồ Viết Lộc</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Trần Minh Hoản </t>
+  </si>
+  <si>
+    <t>Nguyễn Văn Hải</t>
+  </si>
+  <si>
+    <t>Y Thiên</t>
+  </si>
+  <si>
+    <t>Trần Thị Cảnh</t>
+  </si>
+  <si>
+    <t>Đỗ Minh Hai</t>
+  </si>
+  <si>
+    <t>Nguyễn Thái Học</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Trần Văn Đảng </t>
+  </si>
+  <si>
+    <t>Nguyễn Thượng Thông</t>
+  </si>
+  <si>
+    <t>Nguyễn Thị Hoàng Yến</t>
+  </si>
+  <si>
+    <t>Lê Văn Chung</t>
+  </si>
+  <si>
+    <t>Nguyễn Thị Bê</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lê Gia Cường </t>
+  </si>
+  <si>
+    <t>Trần Hữu Điệp</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hồ Sỹ Hiển </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lê Hồng Chiến </t>
+  </si>
+  <si>
+    <t>Nguyễn Sữu</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nguyễn Quang Thắng </t>
+  </si>
+  <si>
+    <t>Hồ Công Thủy</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Trần Thái </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Đậu Văn Hùng </t>
+  </si>
+  <si>
+    <t>Nguyễn Ngọc Phước</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Phan Thị Kiểm </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nguyễn Thị Ngà </t>
+  </si>
+  <si>
+    <t>Trần Xuân Truyền</t>
+  </si>
+  <si>
+    <t>Trần Văn Thắng</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lê Quang Long </t>
+  </si>
+  <si>
+    <t xml:space="preserve">cắm mốc </t>
+  </si>
+  <si>
+    <t>0376889560</t>
+  </si>
+  <si>
+    <t>0984476333</t>
+  </si>
+  <si>
+    <t>0373395625</t>
+  </si>
+  <si>
+    <t>0335508357</t>
+  </si>
+  <si>
+    <t>0974447500</t>
+  </si>
+  <si>
+    <t>0917565111</t>
+  </si>
+  <si>
+    <t>0905877126</t>
+  </si>
+  <si>
+    <t>0984178555</t>
+  </si>
+  <si>
+    <t>0915191612</t>
+  </si>
+  <si>
+    <t>0376410423-0827406218</t>
+  </si>
+  <si>
+    <t>0767477555</t>
+  </si>
+  <si>
+    <t>0847387528</t>
+  </si>
+  <si>
+    <t>0949670444</t>
+  </si>
+  <si>
+    <t>0914918567</t>
+  </si>
+  <si>
+    <t>0983397502</t>
+  </si>
+  <si>
+    <t>0702527369</t>
+  </si>
+  <si>
+    <t>0702330542</t>
+  </si>
+  <si>
+    <t>0354830125</t>
+  </si>
+  <si>
+    <t>0368355275</t>
+  </si>
+  <si>
+    <t>0353724427</t>
+  </si>
+  <si>
+    <t>0965424555</t>
+  </si>
+  <si>
+    <t>0914737252</t>
+  </si>
+  <si>
+    <t>0349437513</t>
+  </si>
+  <si>
+    <t>0357481205</t>
+  </si>
+  <si>
+    <t>0913454964</t>
+  </si>
+  <si>
+    <t>0911787567</t>
+  </si>
+  <si>
+    <t>0971450625</t>
+  </si>
+  <si>
+    <t>0345113590</t>
+  </si>
+  <si>
+    <t>0368473394</t>
+  </si>
+  <si>
+    <t>0375419810</t>
+  </si>
+  <si>
+    <t>0915853772</t>
+  </si>
+  <si>
+    <t>0818787378</t>
+  </si>
+  <si>
+    <t>0366227652</t>
+  </si>
+  <si>
+    <t>0332848101</t>
+  </si>
+  <si>
+    <t>0345721245</t>
+  </si>
+  <si>
+    <t>0942458446</t>
+  </si>
+  <si>
+    <t>0938391477</t>
+  </si>
+  <si>
+    <t>0946036555</t>
   </si>
 </sst>
 </file>
@@ -4602,7 +4848,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="dd/mm/yyyy;@"/>
   </numFmts>
-  <fonts count="22" x14ac:knownFonts="1">
+  <fonts count="23" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -4740,6 +4986,12 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF081C36"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
     </font>
   </fonts>
   <fills count="4">
@@ -4926,7 +5178,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="196">
+  <cellXfs count="197">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -5455,6 +5707,7 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -5818,8 +6071,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:Q2009"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A205" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="O418" sqref="O418"/>
+    <sheetView tabSelected="1" topLeftCell="A199" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="L405" sqref="L405"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -14177,43 +14430,46 @@
         <v>846</v>
       </c>
     </row>
-    <row r="199" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A199" s="81">
+    <row r="199" spans="1:17" s="139" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A199" s="104">
         <v>198</v>
       </c>
-      <c r="B199" s="13">
+      <c r="B199" s="105">
         <v>19</v>
       </c>
-      <c r="C199" s="13">
+      <c r="C199" s="105">
         <v>2</v>
       </c>
-      <c r="D199" s="13">
+      <c r="D199" s="105">
         <v>2024</v>
       </c>
-      <c r="E199" s="2" t="s">
+      <c r="E199" s="106" t="s">
         <v>1192</v>
       </c>
-      <c r="F199" s="21" t="s">
+      <c r="F199" s="109" t="s">
         <v>14</v>
       </c>
-      <c r="G199" s="147"/>
-      <c r="H199" s="133"/>
-      <c r="I199" s="13" t="s">
+      <c r="G199" s="148"/>
+      <c r="H199" s="134"/>
+      <c r="I199" s="105" t="s">
         <v>5</v>
       </c>
-      <c r="J199" s="14" t="s">
+      <c r="J199" s="108" t="s">
         <v>1245</v>
       </c>
       <c r="K199" s="112">
         <v>45380</v>
       </c>
-      <c r="L199" s="69" t="s">
+      <c r="L199" s="107" t="s">
         <v>1297</v>
       </c>
-      <c r="M199" s="114"/>
-      <c r="N199" s="71"/>
-      <c r="O199" s="71"/>
-      <c r="P199" s="71"/>
+      <c r="M199" s="113"/>
+      <c r="N199" s="110"/>
+      <c r="O199" s="110"/>
+      <c r="P199" s="110" t="s">
+        <v>846</v>
+      </c>
+      <c r="Q199" s="138"/>
     </row>
     <row r="200" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A200" s="104">
@@ -14255,43 +14511,46 @@
         <v>846</v>
       </c>
     </row>
-    <row r="201" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A201" s="81">
+    <row r="201" spans="1:17" s="139" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A201" s="104">
         <v>200</v>
       </c>
-      <c r="B201" s="13">
+      <c r="B201" s="105">
         <v>19</v>
       </c>
-      <c r="C201" s="13">
+      <c r="C201" s="105">
         <v>2</v>
       </c>
-      <c r="D201" s="13">
+      <c r="D201" s="105">
         <v>2024</v>
       </c>
-      <c r="E201" s="2" t="s">
+      <c r="E201" s="106" t="s">
         <v>266</v>
       </c>
-      <c r="F201" s="21" t="s">
+      <c r="F201" s="109" t="s">
         <v>444</v>
       </c>
-      <c r="G201" s="147"/>
-      <c r="H201" s="133"/>
-      <c r="I201" s="13" t="s">
+      <c r="G201" s="148"/>
+      <c r="H201" s="134"/>
+      <c r="I201" s="105" t="s">
         <v>10</v>
       </c>
-      <c r="J201" s="14" t="s">
+      <c r="J201" s="108" t="s">
         <v>1247</v>
       </c>
       <c r="K201" s="112">
         <v>45373</v>
       </c>
-      <c r="L201" s="69" t="s">
+      <c r="L201" s="107" t="s">
         <v>1298</v>
       </c>
-      <c r="M201" s="114"/>
-      <c r="N201" s="71"/>
-      <c r="O201" s="71"/>
-      <c r="P201" s="71"/>
+      <c r="M201" s="113"/>
+      <c r="N201" s="110"/>
+      <c r="O201" s="110"/>
+      <c r="P201" s="110" t="s">
+        <v>846</v>
+      </c>
+      <c r="Q201" s="138"/>
     </row>
     <row r="202" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A202" s="81">
@@ -15272,9 +15531,15 @@
       <c r="L225" s="69" t="s">
         <v>1297</v>
       </c>
-      <c r="M225" s="114"/>
-      <c r="N225" s="71"/>
-      <c r="O225" s="71"/>
+      <c r="M225" s="114">
+        <v>45380</v>
+      </c>
+      <c r="N225" s="71">
+        <v>4</v>
+      </c>
+      <c r="O225" s="71">
+        <v>1</v>
+      </c>
       <c r="P225" s="71"/>
     </row>
     <row r="226" spans="1:17" x14ac:dyDescent="0.25">
@@ -15358,43 +15623,46 @@
       </c>
       <c r="Q227" s="138"/>
     </row>
-    <row r="228" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A228" s="81">
+    <row r="228" spans="1:17" s="139" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A228" s="104">
         <v>227</v>
       </c>
-      <c r="B228" s="13">
+      <c r="B228" s="105">
         <v>26</v>
       </c>
-      <c r="C228" s="13">
+      <c r="C228" s="105">
         <v>2</v>
       </c>
-      <c r="D228" s="13">
+      <c r="D228" s="105">
         <v>2024</v>
       </c>
-      <c r="E228" s="2" t="s">
+      <c r="E228" s="106" t="s">
         <v>1215</v>
       </c>
-      <c r="F228" s="21" t="s">
+      <c r="F228" s="109" t="s">
         <v>444</v>
       </c>
-      <c r="G228" s="147"/>
-      <c r="H228" s="133"/>
-      <c r="I228" s="13" t="s">
+      <c r="G228" s="148"/>
+      <c r="H228" s="134"/>
+      <c r="I228" s="105" t="s">
         <v>996</v>
       </c>
-      <c r="J228" s="14" t="s">
+      <c r="J228" s="108" t="s">
         <v>1266</v>
       </c>
       <c r="K228" s="112">
         <v>45380</v>
       </c>
-      <c r="L228" s="69" t="s">
+      <c r="L228" s="107" t="s">
         <v>1296</v>
       </c>
-      <c r="M228" s="114"/>
-      <c r="N228" s="71"/>
-      <c r="O228" s="71"/>
-      <c r="P228" s="71"/>
+      <c r="M228" s="113"/>
+      <c r="N228" s="110"/>
+      <c r="O228" s="110"/>
+      <c r="P228" s="110" t="s">
+        <v>846</v>
+      </c>
+      <c r="Q228" s="138"/>
     </row>
     <row r="229" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A229" s="81">
@@ -15596,43 +15864,46 @@
       <c r="O233" s="71"/>
       <c r="P233" s="71"/>
     </row>
-    <row r="234" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A234" s="81">
+    <row r="234" spans="1:17" s="139" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A234" s="104">
         <v>233</v>
       </c>
-      <c r="B234" s="13">
+      <c r="B234" s="105">
         <v>26</v>
       </c>
-      <c r="C234" s="13">
+      <c r="C234" s="105">
         <v>2</v>
       </c>
-      <c r="D234" s="13">
+      <c r="D234" s="105">
         <v>2024</v>
       </c>
-      <c r="E234" s="2" t="s">
+      <c r="E234" s="106" t="s">
         <v>1220</v>
       </c>
-      <c r="F234" s="21" t="s">
+      <c r="F234" s="109" t="s">
         <v>444</v>
       </c>
-      <c r="G234" s="147"/>
-      <c r="H234" s="133"/>
-      <c r="I234" s="13" t="s">
+      <c r="G234" s="148"/>
+      <c r="H234" s="134"/>
+      <c r="I234" s="105" t="s">
         <v>998</v>
       </c>
-      <c r="J234" s="14" t="s">
+      <c r="J234" s="108" t="s">
         <v>1272</v>
       </c>
       <c r="K234" s="112">
         <v>45380</v>
       </c>
-      <c r="L234" s="69" t="s">
+      <c r="L234" s="107" t="s">
         <v>1295</v>
       </c>
-      <c r="M234" s="114"/>
-      <c r="N234" s="71"/>
-      <c r="O234" s="71"/>
-      <c r="P234" s="71"/>
+      <c r="M234" s="113"/>
+      <c r="N234" s="110"/>
+      <c r="O234" s="110"/>
+      <c r="P234" s="110" t="s">
+        <v>846</v>
+      </c>
+      <c r="Q234" s="138"/>
     </row>
     <row r="235" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A235" s="81">
@@ -16722,43 +16993,46 @@
         <v>1299</v>
       </c>
     </row>
-    <row r="262" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A262" s="81">
+    <row r="262" spans="1:17" s="139" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A262" s="104">
         <v>261</v>
       </c>
-      <c r="B262" s="13">
+      <c r="B262" s="105">
         <v>4</v>
       </c>
-      <c r="C262" s="13">
+      <c r="C262" s="105">
         <v>3</v>
       </c>
-      <c r="D262" s="13">
+      <c r="D262" s="105">
         <v>2024</v>
       </c>
-      <c r="E262" s="2" t="s">
+      <c r="E262" s="106" t="s">
         <v>1302</v>
       </c>
-      <c r="F262" s="21" t="s">
+      <c r="F262" s="109" t="s">
         <v>444</v>
       </c>
-      <c r="G262" s="147"/>
-      <c r="H262" s="147"/>
-      <c r="I262" s="13" t="s">
+      <c r="G262" s="148"/>
+      <c r="H262" s="148"/>
+      <c r="I262" s="105" t="s">
         <v>1348</v>
       </c>
-      <c r="J262" s="14" t="s">
+      <c r="J262" s="108" t="s">
         <v>1353</v>
       </c>
       <c r="K262" s="109">
         <v>45387</v>
       </c>
-      <c r="L262" s="69" t="s">
+      <c r="L262" s="107" t="s">
         <v>1295</v>
       </c>
-      <c r="M262" s="114"/>
-      <c r="N262" s="71"/>
-      <c r="O262" s="71"/>
-      <c r="P262" s="71"/>
+      <c r="M262" s="113"/>
+      <c r="N262" s="110"/>
+      <c r="O262" s="110"/>
+      <c r="P262" s="110" t="s">
+        <v>1511</v>
+      </c>
+      <c r="Q262" s="138"/>
     </row>
     <row r="263" spans="1:17" s="124" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A263" s="104">
@@ -17588,43 +17862,46 @@
       </c>
       <c r="Q283" s="138"/>
     </row>
-    <row r="284" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A284" s="81">
+    <row r="284" spans="1:17" s="139" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A284" s="104">
         <v>283</v>
       </c>
-      <c r="B284" s="13">
+      <c r="B284" s="105">
         <v>8</v>
       </c>
-      <c r="C284" s="13">
+      <c r="C284" s="105">
         <v>3</v>
       </c>
-      <c r="D284" s="13">
+      <c r="D284" s="105">
         <v>2024</v>
       </c>
-      <c r="E284" s="2" t="s">
+      <c r="E284" s="106" t="s">
         <v>1322</v>
       </c>
-      <c r="F284" s="21" t="s">
+      <c r="F284" s="109" t="s">
         <v>444</v>
       </c>
-      <c r="G284" s="147"/>
-      <c r="H284" s="133"/>
-      <c r="I284" s="13" t="s">
+      <c r="G284" s="148"/>
+      <c r="H284" s="134"/>
+      <c r="I284" s="105" t="s">
         <v>4</v>
       </c>
-      <c r="J284" s="14" t="s">
+      <c r="J284" s="108" t="s">
         <v>1367</v>
       </c>
       <c r="K284" s="109">
         <v>45393</v>
       </c>
-      <c r="L284" s="69" t="s">
+      <c r="L284" s="107" t="s">
         <v>1298</v>
       </c>
-      <c r="M284" s="114"/>
-      <c r="N284" s="71"/>
-      <c r="O284" s="71"/>
-      <c r="P284" s="71"/>
+      <c r="M284" s="113"/>
+      <c r="N284" s="110"/>
+      <c r="O284" s="110"/>
+      <c r="P284" s="110" t="s">
+        <v>846</v>
+      </c>
+      <c r="Q284" s="138"/>
     </row>
     <row r="285" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A285" s="81">
@@ -18861,119 +19138,128 @@
       </c>
       <c r="P316" s="71"/>
     </row>
-    <row r="317" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A317" s="81">
+    <row r="317" spans="1:17" s="139" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A317" s="104">
         <v>316</v>
       </c>
-      <c r="B317" s="13">
+      <c r="B317" s="105">
         <v>13</v>
       </c>
-      <c r="C317" s="13">
+      <c r="C317" s="105">
         <v>3</v>
       </c>
-      <c r="D317" s="13">
+      <c r="D317" s="105">
         <v>2024</v>
       </c>
-      <c r="E317" s="2" t="s">
+      <c r="E317" s="106" t="s">
         <v>1344</v>
       </c>
-      <c r="F317" s="21" t="s">
+      <c r="F317" s="109" t="s">
         <v>14</v>
       </c>
-      <c r="G317" s="147"/>
-      <c r="H317" s="133"/>
-      <c r="I317" s="13" t="s">
+      <c r="G317" s="148"/>
+      <c r="H317" s="134"/>
+      <c r="I317" s="105" t="s">
         <v>11</v>
       </c>
-      <c r="J317" s="14" t="s">
+      <c r="J317" s="108" t="s">
         <v>1385</v>
       </c>
       <c r="K317" s="109">
         <v>45405</v>
       </c>
-      <c r="L317" s="69" t="s">
+      <c r="L317" s="107" t="s">
         <v>1297</v>
       </c>
-      <c r="M317" s="114"/>
-      <c r="N317" s="71"/>
-      <c r="O317" s="71"/>
-      <c r="P317" s="71"/>
-    </row>
-    <row r="318" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A318" s="81">
+      <c r="M317" s="113"/>
+      <c r="N317" s="110"/>
+      <c r="O317" s="110"/>
+      <c r="P317" s="110" t="s">
+        <v>846</v>
+      </c>
+      <c r="Q317" s="138"/>
+    </row>
+    <row r="318" spans="1:17" s="139" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A318" s="104">
         <v>317</v>
       </c>
-      <c r="B318" s="13">
+      <c r="B318" s="105">
         <v>13</v>
       </c>
-      <c r="C318" s="13">
+      <c r="C318" s="105">
         <v>3</v>
       </c>
-      <c r="D318" s="13">
+      <c r="D318" s="105">
         <v>2024</v>
       </c>
-      <c r="E318" s="2" t="s">
+      <c r="E318" s="106" t="s">
         <v>1344</v>
       </c>
-      <c r="F318" s="21" t="s">
+      <c r="F318" s="109" t="s">
         <v>14</v>
       </c>
-      <c r="G318" s="147"/>
-      <c r="H318" s="133"/>
-      <c r="I318" s="13" t="s">
+      <c r="G318" s="148"/>
+      <c r="H318" s="134"/>
+      <c r="I318" s="105" t="s">
         <v>11</v>
       </c>
-      <c r="J318" s="14" t="s">
+      <c r="J318" s="108" t="s">
         <v>1385</v>
       </c>
       <c r="K318" s="109">
         <v>45405</v>
       </c>
-      <c r="L318" s="69" t="s">
+      <c r="L318" s="107" t="s">
         <v>1297</v>
       </c>
-      <c r="M318" s="114"/>
-      <c r="N318" s="71"/>
-      <c r="O318" s="71"/>
-      <c r="P318" s="71"/>
-    </row>
-    <row r="319" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A319" s="81">
+      <c r="M318" s="113"/>
+      <c r="N318" s="110"/>
+      <c r="O318" s="110"/>
+      <c r="P318" s="110" t="s">
+        <v>846</v>
+      </c>
+      <c r="Q318" s="138"/>
+    </row>
+    <row r="319" spans="1:17" s="139" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A319" s="104">
         <v>318</v>
       </c>
-      <c r="B319" s="13">
+      <c r="B319" s="105">
         <v>13</v>
       </c>
-      <c r="C319" s="13">
+      <c r="C319" s="105">
         <v>3</v>
       </c>
-      <c r="D319" s="13">
+      <c r="D319" s="105">
         <v>2024</v>
       </c>
-      <c r="E319" s="2" t="s">
+      <c r="E319" s="106" t="s">
         <v>1344</v>
       </c>
-      <c r="F319" s="21" t="s">
+      <c r="F319" s="109" t="s">
         <v>14</v>
       </c>
-      <c r="G319" s="147"/>
-      <c r="H319" s="133"/>
-      <c r="I319" s="13" t="s">
+      <c r="G319" s="148"/>
+      <c r="H319" s="134"/>
+      <c r="I319" s="105" t="s">
         <v>11</v>
       </c>
-      <c r="J319" s="14" t="s">
+      <c r="J319" s="108" t="s">
         <v>1385</v>
       </c>
       <c r="K319" s="109">
         <v>45405</v>
       </c>
-      <c r="L319" s="69" t="s">
-        <v>1298</v>
-      </c>
-      <c r="M319" s="114"/>
-      <c r="N319" s="71"/>
-      <c r="O319" s="71"/>
-      <c r="P319" s="71"/>
+      <c r="L319" s="107" t="s">
+        <v>1297</v>
+      </c>
+      <c r="M319" s="113"/>
+      <c r="N319" s="110"/>
+      <c r="O319" s="110"/>
+      <c r="P319" s="110" t="s">
+        <v>846</v>
+      </c>
+      <c r="Q319" s="138"/>
     </row>
     <row r="320" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A320" s="81">
@@ -21488,16 +21774,35 @@
       <c r="A382" s="81">
         <v>381</v>
       </c>
-      <c r="B382" s="73"/>
-      <c r="C382" s="73"/>
-      <c r="D382" s="73"/>
-      <c r="E382" s="74"/>
-      <c r="F382" s="81"/>
+      <c r="B382" s="13">
+        <v>25</v>
+      </c>
+      <c r="C382" s="13">
+        <v>3</v>
+      </c>
+      <c r="D382" s="13">
+        <v>2024</v>
+      </c>
+      <c r="E382" s="2" t="s">
+        <v>1513</v>
+      </c>
+      <c r="F382" s="163" t="s">
+        <v>444</v>
+      </c>
       <c r="G382" s="71"/>
       <c r="H382" s="69"/>
-      <c r="I382" s="69"/>
-      <c r="J382" s="76"/>
-      <c r="L382" s="69"/>
+      <c r="I382" s="13" t="s">
+        <v>1034</v>
+      </c>
+      <c r="J382" s="14" t="s">
+        <v>1557</v>
+      </c>
+      <c r="K382" s="163">
+        <v>45408</v>
+      </c>
+      <c r="L382" s="91" t="s">
+        <v>1295</v>
+      </c>
       <c r="M382" s="114"/>
       <c r="N382" s="71"/>
       <c r="O382" s="71"/>
@@ -21507,16 +21812,35 @@
       <c r="A383" s="81">
         <v>382</v>
       </c>
-      <c r="B383" s="73"/>
-      <c r="C383" s="73"/>
-      <c r="D383" s="73"/>
-      <c r="E383" s="74"/>
-      <c r="F383" s="81"/>
+      <c r="B383" s="13">
+        <v>25</v>
+      </c>
+      <c r="C383" s="13">
+        <v>3</v>
+      </c>
+      <c r="D383" s="13">
+        <v>2024</v>
+      </c>
+      <c r="E383" s="2" t="s">
+        <v>1514</v>
+      </c>
+      <c r="F383" s="163" t="s">
+        <v>444</v>
+      </c>
       <c r="G383" s="71"/>
       <c r="H383" s="69"/>
-      <c r="I383" s="69"/>
-      <c r="J383" s="76"/>
-      <c r="L383" s="69"/>
+      <c r="I383" s="13" t="s">
+        <v>996</v>
+      </c>
+      <c r="J383" s="14" t="s">
+        <v>1558</v>
+      </c>
+      <c r="K383" s="163">
+        <v>45408</v>
+      </c>
+      <c r="L383" s="91" t="s">
+        <v>1295</v>
+      </c>
       <c r="M383" s="114"/>
       <c r="N383" s="71"/>
       <c r="O383" s="71"/>
@@ -21526,16 +21850,35 @@
       <c r="A384" s="81">
         <v>383</v>
       </c>
-      <c r="B384" s="73"/>
-      <c r="C384" s="73"/>
-      <c r="D384" s="73"/>
-      <c r="E384" s="74"/>
-      <c r="F384" s="81"/>
+      <c r="B384" s="13">
+        <v>25</v>
+      </c>
+      <c r="C384" s="13">
+        <v>3</v>
+      </c>
+      <c r="D384" s="13">
+        <v>2024</v>
+      </c>
+      <c r="E384" s="2" t="s">
+        <v>1515</v>
+      </c>
+      <c r="F384" s="163" t="s">
+        <v>444</v>
+      </c>
       <c r="G384" s="71"/>
       <c r="H384" s="69"/>
-      <c r="I384" s="69"/>
-      <c r="J384" s="76"/>
-      <c r="L384" s="69"/>
+      <c r="I384" s="13" t="s">
+        <v>996</v>
+      </c>
+      <c r="J384" s="14" t="s">
+        <v>1559</v>
+      </c>
+      <c r="K384" s="163">
+        <v>45408</v>
+      </c>
+      <c r="L384" s="91" t="s">
+        <v>1295</v>
+      </c>
       <c r="M384" s="114"/>
       <c r="N384" s="71"/>
       <c r="O384" s="71"/>
@@ -21545,16 +21888,35 @@
       <c r="A385" s="81">
         <v>384</v>
       </c>
-      <c r="B385" s="73"/>
-      <c r="C385" s="73"/>
-      <c r="D385" s="73"/>
-      <c r="E385" s="74"/>
-      <c r="F385" s="81"/>
+      <c r="B385" s="13">
+        <v>25</v>
+      </c>
+      <c r="C385" s="13">
+        <v>3</v>
+      </c>
+      <c r="D385" s="13">
+        <v>2024</v>
+      </c>
+      <c r="E385" s="2" t="s">
+        <v>1516</v>
+      </c>
+      <c r="F385" s="163" t="s">
+        <v>444</v>
+      </c>
       <c r="G385" s="71"/>
       <c r="H385" s="69"/>
-      <c r="I385" s="69"/>
-      <c r="J385" s="76"/>
-      <c r="L385" s="69"/>
+      <c r="I385" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="J385" s="14" t="s">
+        <v>1560</v>
+      </c>
+      <c r="K385" s="163">
+        <v>45408</v>
+      </c>
+      <c r="L385" s="91" t="s">
+        <v>1295</v>
+      </c>
       <c r="M385" s="114"/>
       <c r="N385" s="71"/>
       <c r="O385" s="71"/>
@@ -21564,16 +21926,35 @@
       <c r="A386" s="81">
         <v>385</v>
       </c>
-      <c r="B386" s="73"/>
-      <c r="C386" s="73"/>
-      <c r="D386" s="73"/>
-      <c r="E386" s="74"/>
-      <c r="F386" s="81"/>
+      <c r="B386" s="13">
+        <v>25</v>
+      </c>
+      <c r="C386" s="13">
+        <v>3</v>
+      </c>
+      <c r="D386" s="13">
+        <v>2024</v>
+      </c>
+      <c r="E386" s="2" t="s">
+        <v>1517</v>
+      </c>
+      <c r="F386" s="163" t="s">
+        <v>444</v>
+      </c>
       <c r="G386" s="71"/>
       <c r="H386" s="69"/>
-      <c r="I386" s="69"/>
-      <c r="J386" s="76"/>
-      <c r="L386" s="69"/>
+      <c r="I386" s="13" t="s">
+        <v>996</v>
+      </c>
+      <c r="J386" s="14" t="s">
+        <v>1561</v>
+      </c>
+      <c r="K386" s="163">
+        <v>45408</v>
+      </c>
+      <c r="L386" s="91" t="s">
+        <v>1295</v>
+      </c>
       <c r="M386" s="114"/>
       <c r="N386" s="71"/>
       <c r="O386" s="71"/>
@@ -21583,16 +21964,35 @@
       <c r="A387" s="81">
         <v>386</v>
       </c>
-      <c r="B387" s="73"/>
-      <c r="C387" s="73"/>
-      <c r="D387" s="73"/>
-      <c r="E387" s="74"/>
-      <c r="F387" s="81"/>
+      <c r="B387" s="13">
+        <v>25</v>
+      </c>
+      <c r="C387" s="13">
+        <v>3</v>
+      </c>
+      <c r="D387" s="13">
+        <v>2024</v>
+      </c>
+      <c r="E387" s="103" t="s">
+        <v>1518</v>
+      </c>
+      <c r="F387" s="163" t="s">
+        <v>444</v>
+      </c>
       <c r="G387" s="71"/>
       <c r="H387" s="69"/>
-      <c r="I387" s="69"/>
-      <c r="J387" s="76"/>
-      <c r="L387" s="69"/>
+      <c r="I387" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="J387" s="14" t="s">
+        <v>1562</v>
+      </c>
+      <c r="K387" s="163">
+        <v>45408</v>
+      </c>
+      <c r="L387" s="91" t="s">
+        <v>1295</v>
+      </c>
       <c r="M387" s="114"/>
       <c r="N387" s="71"/>
       <c r="O387" s="71"/>
@@ -21602,16 +22002,35 @@
       <c r="A388" s="81">
         <v>387</v>
       </c>
-      <c r="B388" s="73"/>
-      <c r="C388" s="73"/>
-      <c r="D388" s="73"/>
-      <c r="E388" s="74"/>
-      <c r="F388" s="81"/>
+      <c r="B388" s="13">
+        <v>26</v>
+      </c>
+      <c r="C388" s="13">
+        <v>3</v>
+      </c>
+      <c r="D388" s="13">
+        <v>2024</v>
+      </c>
+      <c r="E388" s="103" t="s">
+        <v>1519</v>
+      </c>
+      <c r="F388" s="163" t="s">
+        <v>444</v>
+      </c>
       <c r="G388" s="71"/>
       <c r="H388" s="69"/>
-      <c r="I388" s="69"/>
-      <c r="J388" s="76"/>
-      <c r="L388" s="69"/>
+      <c r="I388" s="13" t="s">
+        <v>996</v>
+      </c>
+      <c r="J388" s="14" t="s">
+        <v>1563</v>
+      </c>
+      <c r="K388" s="163">
+        <v>45411</v>
+      </c>
+      <c r="L388" s="69" t="s">
+        <v>1297</v>
+      </c>
       <c r="M388" s="114"/>
       <c r="N388" s="71"/>
       <c r="O388" s="71"/>
@@ -21621,16 +22040,35 @@
       <c r="A389" s="81">
         <v>388</v>
       </c>
-      <c r="B389" s="73"/>
-      <c r="C389" s="73"/>
-      <c r="D389" s="73"/>
-      <c r="E389" s="74"/>
-      <c r="F389" s="81"/>
+      <c r="B389" s="13">
+        <v>26</v>
+      </c>
+      <c r="C389" s="13">
+        <v>3</v>
+      </c>
+      <c r="D389" s="13">
+        <v>2024</v>
+      </c>
+      <c r="E389" s="2" t="s">
+        <v>1520</v>
+      </c>
+      <c r="F389" s="163" t="s">
+        <v>444</v>
+      </c>
       <c r="G389" s="71"/>
       <c r="H389" s="69"/>
-      <c r="I389" s="69"/>
-      <c r="J389" s="76"/>
-      <c r="L389" s="69"/>
+      <c r="I389" s="13" t="s">
+        <v>996</v>
+      </c>
+      <c r="J389" s="14" t="s">
+        <v>1564</v>
+      </c>
+      <c r="K389" s="163">
+        <v>45411</v>
+      </c>
+      <c r="L389" s="69" t="s">
+        <v>1297</v>
+      </c>
       <c r="M389" s="114"/>
       <c r="N389" s="71"/>
       <c r="O389" s="71"/>
@@ -21640,16 +22078,35 @@
       <c r="A390" s="81">
         <v>389</v>
       </c>
-      <c r="B390" s="73"/>
-      <c r="C390" s="73"/>
-      <c r="D390" s="73"/>
-      <c r="E390" s="74"/>
-      <c r="F390" s="81"/>
+      <c r="B390" s="13">
+        <v>26</v>
+      </c>
+      <c r="C390" s="13">
+        <v>3</v>
+      </c>
+      <c r="D390" s="13">
+        <v>2024</v>
+      </c>
+      <c r="E390" s="2" t="s">
+        <v>1521</v>
+      </c>
+      <c r="F390" s="163" t="s">
+        <v>444</v>
+      </c>
       <c r="G390" s="71"/>
       <c r="H390" s="69"/>
-      <c r="I390" s="69"/>
-      <c r="J390" s="76"/>
-      <c r="L390" s="69"/>
+      <c r="I390" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="J390" s="14" t="s">
+        <v>1565</v>
+      </c>
+      <c r="K390" s="163">
+        <v>45411</v>
+      </c>
+      <c r="L390" s="91" t="s">
+        <v>1295</v>
+      </c>
       <c r="M390" s="114"/>
       <c r="N390" s="71"/>
       <c r="O390" s="71"/>
@@ -21659,16 +22116,35 @@
       <c r="A391" s="81">
         <v>390</v>
       </c>
-      <c r="B391" s="73"/>
-      <c r="C391" s="73"/>
-      <c r="D391" s="73"/>
-      <c r="E391" s="74"/>
-      <c r="F391" s="81"/>
+      <c r="B391" s="13">
+        <v>26</v>
+      </c>
+      <c r="C391" s="13">
+        <v>3</v>
+      </c>
+      <c r="D391" s="13">
+        <v>2024</v>
+      </c>
+      <c r="E391" s="2" t="s">
+        <v>1522</v>
+      </c>
+      <c r="F391" s="163" t="s">
+        <v>444</v>
+      </c>
       <c r="G391" s="71"/>
       <c r="H391" s="69"/>
-      <c r="I391" s="69"/>
-      <c r="J391" s="76"/>
-      <c r="L391" s="69"/>
+      <c r="I391" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="J391" s="14" t="s">
+        <v>1566</v>
+      </c>
+      <c r="K391" s="163">
+        <v>45411</v>
+      </c>
+      <c r="L391" s="69" t="s">
+        <v>1296</v>
+      </c>
       <c r="M391" s="114"/>
       <c r="N391" s="71"/>
       <c r="O391" s="71"/>
@@ -21678,16 +22154,35 @@
       <c r="A392" s="81">
         <v>391</v>
       </c>
-      <c r="B392" s="73"/>
-      <c r="C392" s="73"/>
-      <c r="D392" s="73"/>
-      <c r="E392" s="74"/>
-      <c r="F392" s="81"/>
+      <c r="B392" s="13">
+        <v>26</v>
+      </c>
+      <c r="C392" s="13">
+        <v>3</v>
+      </c>
+      <c r="D392" s="13">
+        <v>2024</v>
+      </c>
+      <c r="E392" s="2" t="s">
+        <v>1523</v>
+      </c>
+      <c r="F392" s="163" t="s">
+        <v>444</v>
+      </c>
       <c r="G392" s="71"/>
       <c r="H392" s="69"/>
-      <c r="I392" s="69"/>
-      <c r="J392" s="76"/>
-      <c r="L392" s="69"/>
+      <c r="I392" s="13" t="s">
+        <v>1034</v>
+      </c>
+      <c r="J392" s="14" t="s">
+        <v>1567</v>
+      </c>
+      <c r="K392" s="163">
+        <v>45411</v>
+      </c>
+      <c r="L392" s="69" t="s">
+        <v>1296</v>
+      </c>
       <c r="M392" s="114"/>
       <c r="N392" s="71"/>
       <c r="O392" s="71"/>
@@ -21697,16 +22192,35 @@
       <c r="A393" s="81">
         <v>392</v>
       </c>
-      <c r="B393" s="73"/>
-      <c r="C393" s="73"/>
-      <c r="D393" s="73"/>
-      <c r="E393" s="74"/>
-      <c r="F393" s="81"/>
+      <c r="B393" s="13">
+        <v>26</v>
+      </c>
+      <c r="C393" s="13">
+        <v>3</v>
+      </c>
+      <c r="D393" s="13">
+        <v>2024</v>
+      </c>
+      <c r="E393" s="2" t="s">
+        <v>1523</v>
+      </c>
+      <c r="F393" s="163" t="s">
+        <v>444</v>
+      </c>
       <c r="G393" s="71"/>
       <c r="H393" s="69"/>
-      <c r="I393" s="69"/>
-      <c r="J393" s="76"/>
-      <c r="L393" s="69"/>
+      <c r="I393" s="13" t="s">
+        <v>1034</v>
+      </c>
+      <c r="J393" s="14" t="s">
+        <v>1567</v>
+      </c>
+      <c r="K393" s="163">
+        <v>45411</v>
+      </c>
+      <c r="L393" s="69" t="s">
+        <v>1296</v>
+      </c>
       <c r="M393" s="114"/>
       <c r="N393" s="71"/>
       <c r="O393" s="71"/>
@@ -21716,16 +22230,35 @@
       <c r="A394" s="81">
         <v>393</v>
       </c>
-      <c r="B394" s="73"/>
-      <c r="C394" s="73"/>
-      <c r="D394" s="73"/>
-      <c r="E394" s="74"/>
-      <c r="F394" s="81"/>
+      <c r="B394" s="13">
+        <v>26</v>
+      </c>
+      <c r="C394" s="13">
+        <v>3</v>
+      </c>
+      <c r="D394" s="13">
+        <v>2024</v>
+      </c>
+      <c r="E394" s="2" t="s">
+        <v>1523</v>
+      </c>
+      <c r="F394" s="163" t="s">
+        <v>444</v>
+      </c>
       <c r="G394" s="71"/>
       <c r="H394" s="69"/>
-      <c r="I394" s="69"/>
-      <c r="J394" s="76"/>
-      <c r="L394" s="69"/>
+      <c r="I394" s="13" t="s">
+        <v>1034</v>
+      </c>
+      <c r="J394" s="14" t="s">
+        <v>1567</v>
+      </c>
+      <c r="K394" s="163">
+        <v>45411</v>
+      </c>
+      <c r="L394" s="69" t="s">
+        <v>1296</v>
+      </c>
       <c r="M394" s="114"/>
       <c r="N394" s="71"/>
       <c r="O394" s="71"/>
@@ -21735,16 +22268,35 @@
       <c r="A395" s="81">
         <v>394</v>
       </c>
-      <c r="B395" s="73"/>
-      <c r="C395" s="73"/>
-      <c r="D395" s="73"/>
-      <c r="E395" s="74"/>
-      <c r="F395" s="81"/>
+      <c r="B395" s="13">
+        <v>26</v>
+      </c>
+      <c r="C395" s="13">
+        <v>3</v>
+      </c>
+      <c r="D395" s="13">
+        <v>2024</v>
+      </c>
+      <c r="E395" s="2" t="s">
+        <v>1524</v>
+      </c>
+      <c r="F395" s="163" t="s">
+        <v>444</v>
+      </c>
       <c r="G395" s="71"/>
       <c r="H395" s="69"/>
-      <c r="I395" s="69"/>
-      <c r="J395" s="76"/>
-      <c r="L395" s="69"/>
+      <c r="I395" s="13" t="s">
+        <v>996</v>
+      </c>
+      <c r="J395" s="14" t="s">
+        <v>1093</v>
+      </c>
+      <c r="K395" s="163">
+        <v>45411</v>
+      </c>
+      <c r="L395" s="69" t="s">
+        <v>1296</v>
+      </c>
       <c r="M395" s="114"/>
       <c r="N395" s="71"/>
       <c r="O395" s="71"/>
@@ -21754,16 +22306,35 @@
       <c r="A396" s="81">
         <v>395</v>
       </c>
-      <c r="B396" s="73"/>
-      <c r="C396" s="73"/>
-      <c r="D396" s="73"/>
-      <c r="E396" s="74"/>
-      <c r="F396" s="81"/>
+      <c r="B396" s="13">
+        <v>26</v>
+      </c>
+      <c r="C396" s="13">
+        <v>3</v>
+      </c>
+      <c r="D396" s="13">
+        <v>2024</v>
+      </c>
+      <c r="E396" s="2" t="s">
+        <v>1525</v>
+      </c>
+      <c r="F396" s="163" t="s">
+        <v>444</v>
+      </c>
       <c r="G396" s="71"/>
       <c r="H396" s="69"/>
-      <c r="I396" s="69"/>
-      <c r="J396" s="76"/>
-      <c r="L396" s="69"/>
+      <c r="I396" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="J396" s="14" t="s">
+        <v>1568</v>
+      </c>
+      <c r="K396" s="163">
+        <v>45411</v>
+      </c>
+      <c r="L396" s="69" t="s">
+        <v>1296</v>
+      </c>
       <c r="M396" s="114"/>
       <c r="N396" s="71"/>
       <c r="O396" s="71"/>
@@ -21773,16 +22344,35 @@
       <c r="A397" s="81">
         <v>396</v>
       </c>
-      <c r="B397" s="73"/>
-      <c r="C397" s="73"/>
-      <c r="D397" s="73"/>
-      <c r="E397" s="74"/>
-      <c r="F397" s="81"/>
+      <c r="B397" s="13">
+        <v>26</v>
+      </c>
+      <c r="C397" s="13">
+        <v>3</v>
+      </c>
+      <c r="D397" s="13">
+        <v>2024</v>
+      </c>
+      <c r="E397" s="2" t="s">
+        <v>400</v>
+      </c>
+      <c r="F397" s="163" t="s">
+        <v>444</v>
+      </c>
       <c r="G397" s="71"/>
       <c r="H397" s="69"/>
-      <c r="I397" s="69"/>
-      <c r="J397" s="76"/>
-      <c r="L397" s="69"/>
+      <c r="I397" s="13" t="s">
+        <v>352</v>
+      </c>
+      <c r="J397" s="14" t="s">
+        <v>401</v>
+      </c>
+      <c r="K397" s="163">
+        <v>45411</v>
+      </c>
+      <c r="L397" s="69" t="s">
+        <v>1296</v>
+      </c>
       <c r="M397" s="114"/>
       <c r="N397" s="71"/>
       <c r="O397" s="71"/>
@@ -21792,16 +22382,35 @@
       <c r="A398" s="81">
         <v>397</v>
       </c>
-      <c r="B398" s="73"/>
-      <c r="C398" s="73"/>
-      <c r="D398" s="73"/>
-      <c r="E398" s="74"/>
-      <c r="F398" s="81"/>
+      <c r="B398" s="13">
+        <v>26</v>
+      </c>
+      <c r="C398" s="13">
+        <v>3</v>
+      </c>
+      <c r="D398" s="13">
+        <v>2024</v>
+      </c>
+      <c r="E398" s="2" t="s">
+        <v>267</v>
+      </c>
+      <c r="F398" s="163" t="s">
+        <v>444</v>
+      </c>
       <c r="G398" s="71"/>
       <c r="H398" s="69"/>
-      <c r="I398" s="69"/>
-      <c r="J398" s="76"/>
-      <c r="L398" s="69"/>
+      <c r="I398" s="13" t="s">
+        <v>996</v>
+      </c>
+      <c r="J398" s="14" t="s">
+        <v>1569</v>
+      </c>
+      <c r="K398" s="163">
+        <v>45411</v>
+      </c>
+      <c r="L398" s="69" t="s">
+        <v>1298</v>
+      </c>
       <c r="M398" s="114"/>
       <c r="N398" s="71"/>
       <c r="O398" s="71"/>
@@ -21811,16 +22420,35 @@
       <c r="A399" s="81">
         <v>398</v>
       </c>
-      <c r="B399" s="73"/>
-      <c r="C399" s="73"/>
-      <c r="D399" s="73"/>
-      <c r="E399" s="74"/>
-      <c r="F399" s="81"/>
+      <c r="B399" s="13">
+        <v>26</v>
+      </c>
+      <c r="C399" s="13">
+        <v>3</v>
+      </c>
+      <c r="D399" s="13">
+        <v>2024</v>
+      </c>
+      <c r="E399" s="2" t="s">
+        <v>1526</v>
+      </c>
+      <c r="F399" s="163" t="s">
+        <v>444</v>
+      </c>
       <c r="G399" s="71"/>
       <c r="H399" s="69"/>
-      <c r="I399" s="69"/>
-      <c r="J399" s="76"/>
-      <c r="L399" s="69"/>
+      <c r="I399" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="J399" s="14" t="s">
+        <v>1570</v>
+      </c>
+      <c r="K399" s="163">
+        <v>45411</v>
+      </c>
+      <c r="L399" s="69" t="s">
+        <v>1298</v>
+      </c>
       <c r="M399" s="114"/>
       <c r="N399" s="71"/>
       <c r="O399" s="71"/>
@@ -21830,16 +22458,35 @@
       <c r="A400" s="81">
         <v>399</v>
       </c>
-      <c r="B400" s="73"/>
-      <c r="C400" s="73"/>
-      <c r="D400" s="73"/>
-      <c r="E400" s="74"/>
-      <c r="F400" s="81"/>
+      <c r="B400" s="13">
+        <v>26</v>
+      </c>
+      <c r="C400" s="13">
+        <v>3</v>
+      </c>
+      <c r="D400" s="13">
+        <v>2024</v>
+      </c>
+      <c r="E400" s="2" t="s">
+        <v>336</v>
+      </c>
+      <c r="F400" s="163" t="s">
+        <v>444</v>
+      </c>
       <c r="G400" s="71"/>
       <c r="H400" s="69"/>
-      <c r="I400" s="69"/>
-      <c r="J400" s="76"/>
-      <c r="L400" s="69"/>
+      <c r="I400" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="J400" s="14" t="s">
+        <v>114</v>
+      </c>
+      <c r="K400" s="163">
+        <v>45411</v>
+      </c>
+      <c r="L400" s="69" t="s">
+        <v>1298</v>
+      </c>
       <c r="M400" s="114"/>
       <c r="N400" s="71"/>
       <c r="O400" s="71"/>
@@ -21849,16 +22496,35 @@
       <c r="A401" s="81">
         <v>400</v>
       </c>
-      <c r="B401" s="73"/>
-      <c r="C401" s="73"/>
-      <c r="D401" s="73"/>
-      <c r="E401" s="74"/>
-      <c r="F401" s="81"/>
+      <c r="B401" s="13">
+        <v>26</v>
+      </c>
+      <c r="C401" s="13">
+        <v>3</v>
+      </c>
+      <c r="D401" s="13">
+        <v>2024</v>
+      </c>
+      <c r="E401" s="2" t="s">
+        <v>1527</v>
+      </c>
+      <c r="F401" s="163" t="s">
+        <v>444</v>
+      </c>
       <c r="G401" s="71"/>
       <c r="H401" s="69"/>
-      <c r="I401" s="69"/>
-      <c r="J401" s="76"/>
-      <c r="L401" s="69"/>
+      <c r="I401" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="J401" s="14" t="s">
+        <v>1426</v>
+      </c>
+      <c r="K401" s="163">
+        <v>45411</v>
+      </c>
+      <c r="L401" s="69" t="s">
+        <v>1298</v>
+      </c>
       <c r="M401" s="114"/>
       <c r="N401" s="71"/>
       <c r="O401" s="71"/>
@@ -21868,16 +22534,35 @@
       <c r="A402" s="81">
         <v>401</v>
       </c>
-      <c r="B402" s="73"/>
-      <c r="C402" s="73"/>
-      <c r="D402" s="73"/>
-      <c r="E402" s="74"/>
-      <c r="F402" s="81"/>
+      <c r="B402" s="13">
+        <v>26</v>
+      </c>
+      <c r="C402" s="13">
+        <v>3</v>
+      </c>
+      <c r="D402" s="13">
+        <v>2024</v>
+      </c>
+      <c r="E402" s="103" t="s">
+        <v>1528</v>
+      </c>
+      <c r="F402" s="163" t="s">
+        <v>444</v>
+      </c>
       <c r="G402" s="71"/>
       <c r="H402" s="69"/>
-      <c r="I402" s="69"/>
-      <c r="J402" s="76"/>
-      <c r="L402" s="69"/>
+      <c r="I402" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="J402" s="14" t="s">
+        <v>1571</v>
+      </c>
+      <c r="K402" s="163">
+        <v>45411</v>
+      </c>
+      <c r="L402" s="69" t="s">
+        <v>1298</v>
+      </c>
       <c r="M402" s="114"/>
       <c r="N402" s="71"/>
       <c r="O402" s="71"/>
@@ -21887,16 +22572,35 @@
       <c r="A403" s="81">
         <v>402</v>
       </c>
-      <c r="B403" s="73"/>
-      <c r="C403" s="73"/>
-      <c r="D403" s="73"/>
-      <c r="E403" s="74"/>
-      <c r="F403" s="81"/>
+      <c r="B403" s="13">
+        <v>26</v>
+      </c>
+      <c r="C403" s="13">
+        <v>3</v>
+      </c>
+      <c r="D403" s="13">
+        <v>2024</v>
+      </c>
+      <c r="E403" s="103" t="s">
+        <v>1529</v>
+      </c>
+      <c r="F403" s="163" t="s">
+        <v>444</v>
+      </c>
       <c r="G403" s="71"/>
       <c r="H403" s="69"/>
-      <c r="I403" s="69"/>
-      <c r="J403" s="76"/>
-      <c r="L403" s="69"/>
+      <c r="I403" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="J403" s="14" t="s">
+        <v>1572</v>
+      </c>
+      <c r="K403" s="163">
+        <v>45411</v>
+      </c>
+      <c r="L403" s="69" t="s">
+        <v>1298</v>
+      </c>
       <c r="M403" s="114"/>
       <c r="N403" s="71"/>
       <c r="O403" s="71"/>
@@ -21906,16 +22610,35 @@
       <c r="A404" s="81">
         <v>403</v>
       </c>
-      <c r="B404" s="73"/>
-      <c r="C404" s="73"/>
-      <c r="D404" s="73"/>
-      <c r="E404" s="74"/>
-      <c r="F404" s="81"/>
+      <c r="B404" s="13">
+        <v>26</v>
+      </c>
+      <c r="C404" s="13">
+        <v>3</v>
+      </c>
+      <c r="D404" s="13">
+        <v>2024</v>
+      </c>
+      <c r="E404" s="103" t="s">
+        <v>173</v>
+      </c>
+      <c r="F404" s="163" t="s">
+        <v>444</v>
+      </c>
       <c r="G404" s="71"/>
       <c r="H404" s="69"/>
-      <c r="I404" s="69"/>
-      <c r="J404" s="76"/>
-      <c r="L404" s="69"/>
+      <c r="I404" s="13" t="s">
+        <v>73</v>
+      </c>
+      <c r="J404" s="14" t="s">
+        <v>1573</v>
+      </c>
+      <c r="K404" s="163">
+        <v>45411</v>
+      </c>
+      <c r="L404" s="69" t="s">
+        <v>1298</v>
+      </c>
       <c r="M404" s="114"/>
       <c r="N404" s="71"/>
       <c r="O404" s="71"/>
@@ -21925,16 +22648,35 @@
       <c r="A405" s="81">
         <v>404</v>
       </c>
-      <c r="B405" s="73"/>
-      <c r="C405" s="73"/>
-      <c r="D405" s="73"/>
-      <c r="E405" s="74"/>
-      <c r="F405" s="81"/>
+      <c r="B405" s="13">
+        <v>26</v>
+      </c>
+      <c r="C405" s="13">
+        <v>3</v>
+      </c>
+      <c r="D405" s="13">
+        <v>2024</v>
+      </c>
+      <c r="E405" s="2" t="s">
+        <v>1530</v>
+      </c>
+      <c r="F405" s="163" t="s">
+        <v>444</v>
+      </c>
       <c r="G405" s="71"/>
       <c r="H405" s="69"/>
-      <c r="I405" s="69"/>
-      <c r="J405" s="76"/>
-      <c r="L405" s="69"/>
+      <c r="I405" s="13" t="s">
+        <v>996</v>
+      </c>
+      <c r="J405" s="14" t="s">
+        <v>1002</v>
+      </c>
+      <c r="K405" s="163">
+        <v>45411</v>
+      </c>
+      <c r="L405" s="69" t="s">
+        <v>1298</v>
+      </c>
       <c r="M405" s="114"/>
       <c r="N405" s="71"/>
       <c r="O405" s="71"/>
@@ -21944,16 +22686,35 @@
       <c r="A406" s="81">
         <v>405</v>
       </c>
-      <c r="B406" s="73"/>
-      <c r="C406" s="73"/>
-      <c r="D406" s="73"/>
-      <c r="E406" s="74"/>
-      <c r="F406" s="81"/>
+      <c r="B406" s="13">
+        <v>26</v>
+      </c>
+      <c r="C406" s="13">
+        <v>3</v>
+      </c>
+      <c r="D406" s="13">
+        <v>2024</v>
+      </c>
+      <c r="E406" s="103" t="s">
+        <v>1531</v>
+      </c>
+      <c r="F406" s="163" t="s">
+        <v>14</v>
+      </c>
       <c r="G406" s="71"/>
       <c r="H406" s="69"/>
-      <c r="I406" s="69"/>
-      <c r="J406" s="76"/>
-      <c r="L406" s="69"/>
+      <c r="I406" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="J406" s="14" t="s">
+        <v>1574</v>
+      </c>
+      <c r="K406" s="163">
+        <v>45415</v>
+      </c>
+      <c r="L406" s="69" t="s">
+        <v>1298</v>
+      </c>
       <c r="M406" s="114"/>
       <c r="N406" s="71"/>
       <c r="O406" s="71"/>
@@ -21963,16 +22724,35 @@
       <c r="A407" s="81">
         <v>406</v>
       </c>
-      <c r="B407" s="73"/>
-      <c r="C407" s="73"/>
-      <c r="D407" s="73"/>
-      <c r="E407" s="74"/>
-      <c r="F407" s="81"/>
+      <c r="B407" s="13">
+        <v>26</v>
+      </c>
+      <c r="C407" s="13">
+        <v>3</v>
+      </c>
+      <c r="D407" s="13">
+        <v>2024</v>
+      </c>
+      <c r="E407" s="2" t="s">
+        <v>476</v>
+      </c>
+      <c r="F407" s="163" t="s">
+        <v>14</v>
+      </c>
       <c r="G407" s="71"/>
       <c r="H407" s="69"/>
-      <c r="I407" s="69"/>
-      <c r="J407" s="76"/>
-      <c r="L407" s="69"/>
+      <c r="I407" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="J407" s="14" t="s">
+        <v>525</v>
+      </c>
+      <c r="K407" s="163">
+        <v>45415</v>
+      </c>
+      <c r="L407" s="69" t="s">
+        <v>1298</v>
+      </c>
       <c r="M407" s="114"/>
       <c r="N407" s="71"/>
       <c r="O407" s="71"/>
@@ -21982,16 +22762,35 @@
       <c r="A408" s="81">
         <v>407</v>
       </c>
-      <c r="B408" s="73"/>
-      <c r="C408" s="73"/>
-      <c r="D408" s="73"/>
-      <c r="E408" s="74"/>
-      <c r="F408" s="81"/>
+      <c r="B408" s="13">
+        <v>26</v>
+      </c>
+      <c r="C408" s="13">
+        <v>3</v>
+      </c>
+      <c r="D408" s="13">
+        <v>2024</v>
+      </c>
+      <c r="E408" s="2" t="s">
+        <v>925</v>
+      </c>
+      <c r="F408" s="163" t="s">
+        <v>14</v>
+      </c>
       <c r="G408" s="71"/>
       <c r="H408" s="69"/>
-      <c r="I408" s="69"/>
-      <c r="J408" s="76"/>
-      <c r="L408" s="69"/>
+      <c r="I408" s="13" t="s">
+        <v>77</v>
+      </c>
+      <c r="J408" s="14" t="s">
+        <v>1077</v>
+      </c>
+      <c r="K408" s="163">
+        <v>45415</v>
+      </c>
+      <c r="L408" s="69" t="s">
+        <v>1298</v>
+      </c>
       <c r="M408" s="114"/>
       <c r="N408" s="71"/>
       <c r="O408" s="71"/>
@@ -22001,16 +22800,35 @@
       <c r="A409" s="81">
         <v>408</v>
       </c>
-      <c r="B409" s="73"/>
-      <c r="C409" s="73"/>
-      <c r="D409" s="73"/>
-      <c r="E409" s="74"/>
-      <c r="F409" s="81"/>
+      <c r="B409" s="13">
+        <v>26</v>
+      </c>
+      <c r="C409" s="13">
+        <v>3</v>
+      </c>
+      <c r="D409" s="13">
+        <v>2024</v>
+      </c>
+      <c r="E409" s="2" t="s">
+        <v>1532</v>
+      </c>
+      <c r="F409" s="163" t="s">
+        <v>444</v>
+      </c>
       <c r="G409" s="71"/>
       <c r="H409" s="69"/>
-      <c r="I409" s="69"/>
-      <c r="J409" s="76"/>
-      <c r="L409" s="69"/>
+      <c r="I409" s="13" t="s">
+        <v>72</v>
+      </c>
+      <c r="J409" s="14" t="s">
+        <v>1575</v>
+      </c>
+      <c r="K409" s="163">
+        <v>45411</v>
+      </c>
+      <c r="L409" s="69" t="s">
+        <v>1297</v>
+      </c>
       <c r="M409" s="114"/>
       <c r="N409" s="71"/>
       <c r="O409" s="71"/>
@@ -22020,16 +22838,35 @@
       <c r="A410" s="81">
         <v>409</v>
       </c>
-      <c r="B410" s="73"/>
-      <c r="C410" s="73"/>
-      <c r="D410" s="73"/>
-      <c r="E410" s="74"/>
-      <c r="F410" s="81"/>
+      <c r="B410" s="13">
+        <v>26</v>
+      </c>
+      <c r="C410" s="13">
+        <v>3</v>
+      </c>
+      <c r="D410" s="13">
+        <v>2024</v>
+      </c>
+      <c r="E410" s="2" t="s">
+        <v>1533</v>
+      </c>
+      <c r="F410" s="163" t="s">
+        <v>14</v>
+      </c>
       <c r="G410" s="71"/>
       <c r="H410" s="69"/>
-      <c r="I410" s="69"/>
-      <c r="J410" s="76"/>
-      <c r="L410" s="69"/>
+      <c r="I410" s="13" t="s">
+        <v>993</v>
+      </c>
+      <c r="J410" s="14" t="s">
+        <v>1576</v>
+      </c>
+      <c r="K410" s="163">
+        <v>45415</v>
+      </c>
+      <c r="L410" s="69" t="s">
+        <v>1297</v>
+      </c>
       <c r="M410" s="114"/>
       <c r="N410" s="71"/>
       <c r="O410" s="71"/>
@@ -22039,16 +22876,35 @@
       <c r="A411" s="81">
         <v>410</v>
       </c>
-      <c r="B411" s="73"/>
-      <c r="C411" s="73"/>
-      <c r="D411" s="73"/>
-      <c r="E411" s="74"/>
-      <c r="F411" s="81"/>
+      <c r="B411" s="13">
+        <v>26</v>
+      </c>
+      <c r="C411" s="13">
+        <v>3</v>
+      </c>
+      <c r="D411" s="13">
+        <v>2024</v>
+      </c>
+      <c r="E411" s="2" t="s">
+        <v>1441</v>
+      </c>
+      <c r="F411" s="163" t="s">
+        <v>444</v>
+      </c>
       <c r="G411" s="71"/>
       <c r="H411" s="69"/>
-      <c r="I411" s="69"/>
-      <c r="J411" s="76"/>
-      <c r="L411" s="69"/>
+      <c r="I411" s="13" t="s">
+        <v>993</v>
+      </c>
+      <c r="J411" s="14" t="s">
+        <v>1462</v>
+      </c>
+      <c r="K411" s="163">
+        <v>45411</v>
+      </c>
+      <c r="L411" s="69" t="s">
+        <v>1297</v>
+      </c>
       <c r="M411" s="114"/>
       <c r="N411" s="71"/>
       <c r="O411" s="71"/>
@@ -22058,16 +22914,35 @@
       <c r="A412" s="81">
         <v>411</v>
       </c>
-      <c r="B412" s="73"/>
-      <c r="C412" s="73"/>
-      <c r="D412" s="73"/>
-      <c r="E412" s="74"/>
-      <c r="F412" s="81"/>
+      <c r="B412" s="13">
+        <v>26</v>
+      </c>
+      <c r="C412" s="13">
+        <v>3</v>
+      </c>
+      <c r="D412" s="13">
+        <v>2024</v>
+      </c>
+      <c r="E412" s="2" t="s">
+        <v>1534</v>
+      </c>
+      <c r="F412" s="163" t="s">
+        <v>14</v>
+      </c>
       <c r="G412" s="71"/>
       <c r="H412" s="69"/>
-      <c r="I412" s="69"/>
-      <c r="J412" s="76"/>
-      <c r="L412" s="69"/>
+      <c r="I412" s="13" t="s">
+        <v>72</v>
+      </c>
+      <c r="J412" s="14" t="s">
+        <v>1577</v>
+      </c>
+      <c r="K412" s="163">
+        <v>45418</v>
+      </c>
+      <c r="L412" s="69" t="s">
+        <v>1297</v>
+      </c>
       <c r="M412" s="114"/>
       <c r="N412" s="71"/>
       <c r="O412" s="71"/>
@@ -22077,19 +22952,36 @@
       <c r="A413" s="81">
         <v>412</v>
       </c>
-      <c r="B413" s="73"/>
-      <c r="C413" s="73"/>
-      <c r="D413" s="73"/>
-      <c r="E413" s="74"/>
-      <c r="F413" s="81"/>
+      <c r="B413" s="13">
+        <v>27</v>
+      </c>
+      <c r="C413" s="13">
+        <v>3</v>
+      </c>
+      <c r="D413" s="13">
+        <v>2024</v>
+      </c>
+      <c r="E413" s="2" t="s">
+        <v>1535</v>
+      </c>
+      <c r="F413" s="163" t="s">
+        <v>444</v>
+      </c>
       <c r="G413" s="71">
         <v>32</v>
       </c>
       <c r="H413" s="69">
         <v>16</v>
       </c>
-      <c r="I413" s="69"/>
-      <c r="J413" s="76"/>
+      <c r="I413" s="13" t="s">
+        <v>996</v>
+      </c>
+      <c r="J413" s="14" t="s">
+        <v>1578</v>
+      </c>
+      <c r="K413" s="163">
+        <v>45414</v>
+      </c>
       <c r="L413" s="69" t="s">
         <v>1295</v>
       </c>
@@ -22108,16 +23000,35 @@
       <c r="A414" s="81">
         <v>413</v>
       </c>
-      <c r="B414" s="73"/>
-      <c r="C414" s="73"/>
-      <c r="D414" s="73"/>
-      <c r="E414" s="74"/>
-      <c r="F414" s="81"/>
+      <c r="B414" s="13">
+        <v>27</v>
+      </c>
+      <c r="C414" s="13">
+        <v>3</v>
+      </c>
+      <c r="D414" s="13">
+        <v>2024</v>
+      </c>
+      <c r="E414" s="2" t="s">
+        <v>1536</v>
+      </c>
+      <c r="F414" s="163" t="s">
+        <v>444</v>
+      </c>
       <c r="G414" s="71"/>
       <c r="H414" s="69"/>
-      <c r="I414" s="69"/>
-      <c r="J414" s="76"/>
-      <c r="L414" s="69"/>
+      <c r="I414" s="13" t="s">
+        <v>996</v>
+      </c>
+      <c r="J414" s="14" t="s">
+        <v>1579</v>
+      </c>
+      <c r="K414" s="163">
+        <v>45414</v>
+      </c>
+      <c r="L414" s="69" t="s">
+        <v>1294</v>
+      </c>
       <c r="M414" s="114"/>
       <c r="N414" s="71"/>
       <c r="O414" s="71"/>
@@ -22127,16 +23038,35 @@
       <c r="A415" s="81">
         <v>414</v>
       </c>
-      <c r="B415" s="73"/>
-      <c r="C415" s="73"/>
-      <c r="D415" s="73"/>
-      <c r="E415" s="74"/>
-      <c r="F415" s="81"/>
+      <c r="B415" s="13">
+        <v>27</v>
+      </c>
+      <c r="C415" s="13">
+        <v>3</v>
+      </c>
+      <c r="D415" s="13">
+        <v>2024</v>
+      </c>
+      <c r="E415" s="2" t="s">
+        <v>1537</v>
+      </c>
+      <c r="F415" s="163" t="s">
+        <v>444</v>
+      </c>
       <c r="G415" s="71"/>
       <c r="H415" s="69"/>
-      <c r="I415" s="69"/>
-      <c r="J415" s="76"/>
-      <c r="L415" s="69"/>
+      <c r="I415" s="13" t="s">
+        <v>72</v>
+      </c>
+      <c r="J415" s="14" t="s">
+        <v>1580</v>
+      </c>
+      <c r="K415" s="163">
+        <v>45414</v>
+      </c>
+      <c r="L415" s="69" t="s">
+        <v>1294</v>
+      </c>
       <c r="M415" s="114"/>
       <c r="N415" s="71"/>
       <c r="O415" s="71"/>
@@ -22146,16 +23076,35 @@
       <c r="A416" s="81">
         <v>415</v>
       </c>
-      <c r="B416" s="73"/>
-      <c r="C416" s="73"/>
-      <c r="D416" s="73"/>
-      <c r="E416" s="74"/>
-      <c r="F416" s="81"/>
+      <c r="B416" s="13">
+        <v>27</v>
+      </c>
+      <c r="C416" s="13">
+        <v>3</v>
+      </c>
+      <c r="D416" s="13">
+        <v>2024</v>
+      </c>
+      <c r="E416" s="2" t="s">
+        <v>1538</v>
+      </c>
+      <c r="F416" s="163" t="s">
+        <v>444</v>
+      </c>
       <c r="G416" s="71"/>
       <c r="H416" s="69"/>
-      <c r="I416" s="69"/>
-      <c r="J416" s="76"/>
-      <c r="L416" s="69"/>
+      <c r="I416" s="13" t="s">
+        <v>73</v>
+      </c>
+      <c r="J416" s="14" t="s">
+        <v>1002</v>
+      </c>
+      <c r="K416" s="163">
+        <v>45414</v>
+      </c>
+      <c r="L416" s="69" t="s">
+        <v>1294</v>
+      </c>
       <c r="M416" s="114"/>
       <c r="N416" s="71"/>
       <c r="O416" s="71"/>
@@ -22165,16 +23114,35 @@
       <c r="A417" s="81">
         <v>416</v>
       </c>
-      <c r="B417" s="73"/>
-      <c r="C417" s="73"/>
-      <c r="D417" s="73"/>
-      <c r="E417" s="74"/>
-      <c r="F417" s="81"/>
+      <c r="B417" s="13">
+        <v>27</v>
+      </c>
+      <c r="C417" s="13">
+        <v>3</v>
+      </c>
+      <c r="D417" s="13">
+        <v>2024</v>
+      </c>
+      <c r="E417" s="2" t="s">
+        <v>1538</v>
+      </c>
+      <c r="F417" s="163" t="s">
+        <v>444</v>
+      </c>
       <c r="G417" s="71"/>
       <c r="H417" s="69"/>
-      <c r="I417" s="69"/>
-      <c r="J417" s="76"/>
-      <c r="L417" s="69"/>
+      <c r="I417" s="13" t="s">
+        <v>996</v>
+      </c>
+      <c r="J417" s="14" t="s">
+        <v>1002</v>
+      </c>
+      <c r="K417" s="163">
+        <v>45414</v>
+      </c>
+      <c r="L417" s="69" t="s">
+        <v>1294</v>
+      </c>
       <c r="M417" s="114"/>
       <c r="N417" s="71"/>
       <c r="O417" s="71"/>
@@ -22184,16 +23152,35 @@
       <c r="A418" s="81">
         <v>417</v>
       </c>
-      <c r="B418" s="73"/>
-      <c r="C418" s="73"/>
-      <c r="D418" s="73"/>
-      <c r="E418" s="74"/>
-      <c r="F418" s="81"/>
+      <c r="B418" s="13">
+        <v>27</v>
+      </c>
+      <c r="C418" s="13">
+        <v>3</v>
+      </c>
+      <c r="D418" s="13">
+        <v>2024</v>
+      </c>
+      <c r="E418" s="2" t="s">
+        <v>1539</v>
+      </c>
+      <c r="F418" s="163" t="s">
+        <v>444</v>
+      </c>
       <c r="G418" s="71"/>
       <c r="H418" s="69"/>
-      <c r="I418" s="69"/>
-      <c r="J418" s="76"/>
-      <c r="L418" s="69"/>
+      <c r="I418" s="13" t="s">
+        <v>996</v>
+      </c>
+      <c r="J418" s="14" t="s">
+        <v>1002</v>
+      </c>
+      <c r="K418" s="163">
+        <v>45414</v>
+      </c>
+      <c r="L418" s="69" t="s">
+        <v>1294</v>
+      </c>
       <c r="M418" s="114"/>
       <c r="N418" s="71"/>
       <c r="O418" s="71"/>
@@ -22203,16 +23190,35 @@
       <c r="A419" s="81">
         <v>418</v>
       </c>
-      <c r="B419" s="73"/>
-      <c r="C419" s="73"/>
-      <c r="D419" s="73"/>
-      <c r="E419" s="74"/>
-      <c r="F419" s="81"/>
+      <c r="B419" s="13">
+        <v>27</v>
+      </c>
+      <c r="C419" s="13">
+        <v>3</v>
+      </c>
+      <c r="D419" s="13">
+        <v>2024</v>
+      </c>
+      <c r="E419" s="2" t="s">
+        <v>1540</v>
+      </c>
+      <c r="F419" s="163" t="s">
+        <v>444</v>
+      </c>
       <c r="G419" s="71"/>
       <c r="H419" s="69"/>
-      <c r="I419" s="69"/>
-      <c r="J419" s="76"/>
-      <c r="L419" s="69"/>
+      <c r="I419" s="13" t="s">
+        <v>996</v>
+      </c>
+      <c r="J419" s="14" t="s">
+        <v>1002</v>
+      </c>
+      <c r="K419" s="163">
+        <v>45414</v>
+      </c>
+      <c r="L419" s="69" t="s">
+        <v>1294</v>
+      </c>
       <c r="M419" s="114"/>
       <c r="N419" s="71"/>
       <c r="O419" s="71"/>
@@ -22222,16 +23228,35 @@
       <c r="A420" s="81">
         <v>419</v>
       </c>
-      <c r="B420" s="73"/>
-      <c r="C420" s="73"/>
-      <c r="D420" s="73"/>
-      <c r="E420" s="74"/>
-      <c r="F420" s="81"/>
+      <c r="B420" s="13">
+        <v>28</v>
+      </c>
+      <c r="C420" s="13">
+        <v>3</v>
+      </c>
+      <c r="D420" s="13">
+        <v>2024</v>
+      </c>
+      <c r="E420" s="103" t="s">
+        <v>875</v>
+      </c>
+      <c r="F420" s="163" t="s">
+        <v>444</v>
+      </c>
       <c r="G420" s="71"/>
       <c r="H420" s="69"/>
-      <c r="I420" s="69"/>
-      <c r="J420" s="76"/>
-      <c r="L420" s="69"/>
+      <c r="I420" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="J420" s="14" t="s">
+        <v>1027</v>
+      </c>
+      <c r="K420" s="163">
+        <v>45415</v>
+      </c>
+      <c r="L420" s="69" t="s">
+        <v>1294</v>
+      </c>
       <c r="M420" s="114"/>
       <c r="N420" s="71"/>
       <c r="O420" s="71"/>
@@ -22241,16 +23266,35 @@
       <c r="A421" s="81">
         <v>420</v>
       </c>
-      <c r="B421" s="73"/>
-      <c r="C421" s="73"/>
-      <c r="D421" s="73"/>
-      <c r="E421" s="74"/>
-      <c r="F421" s="81"/>
+      <c r="B421" s="13">
+        <v>28</v>
+      </c>
+      <c r="C421" s="13">
+        <v>3</v>
+      </c>
+      <c r="D421" s="13">
+        <v>2024</v>
+      </c>
+      <c r="E421" s="103" t="s">
+        <v>875</v>
+      </c>
+      <c r="F421" s="163" t="s">
+        <v>444</v>
+      </c>
       <c r="G421" s="71"/>
       <c r="H421" s="69"/>
-      <c r="I421" s="69"/>
-      <c r="J421" s="76"/>
-      <c r="L421" s="69"/>
+      <c r="I421" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="J421" s="14" t="s">
+        <v>1027</v>
+      </c>
+      <c r="K421" s="163">
+        <v>45415</v>
+      </c>
+      <c r="L421" s="69" t="s">
+        <v>1295</v>
+      </c>
       <c r="M421" s="114"/>
       <c r="N421" s="71"/>
       <c r="O421" s="71"/>
@@ -22260,16 +23304,35 @@
       <c r="A422" s="81">
         <v>421</v>
       </c>
-      <c r="B422" s="73"/>
-      <c r="C422" s="73"/>
-      <c r="D422" s="73"/>
-      <c r="E422" s="74"/>
-      <c r="F422" s="81"/>
+      <c r="B422" s="13">
+        <v>28</v>
+      </c>
+      <c r="C422" s="13">
+        <v>3</v>
+      </c>
+      <c r="D422" s="13">
+        <v>2024</v>
+      </c>
+      <c r="E422" s="2" t="s">
+        <v>1541</v>
+      </c>
+      <c r="F422" s="163" t="s">
+        <v>444</v>
+      </c>
       <c r="G422" s="71"/>
       <c r="H422" s="69"/>
-      <c r="I422" s="69"/>
-      <c r="J422" s="76"/>
-      <c r="L422" s="69"/>
+      <c r="I422" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="J422" s="14" t="s">
+        <v>1581</v>
+      </c>
+      <c r="K422" s="163">
+        <v>45415</v>
+      </c>
+      <c r="L422" s="69" t="s">
+        <v>1295</v>
+      </c>
       <c r="M422" s="114"/>
       <c r="N422" s="71"/>
       <c r="O422" s="71"/>
@@ -22279,16 +23342,35 @@
       <c r="A423" s="81">
         <v>422</v>
       </c>
-      <c r="B423" s="73"/>
-      <c r="C423" s="73"/>
-      <c r="D423" s="73"/>
-      <c r="E423" s="74"/>
-      <c r="F423" s="81"/>
+      <c r="B423" s="13">
+        <v>28</v>
+      </c>
+      <c r="C423" s="13">
+        <v>3</v>
+      </c>
+      <c r="D423" s="13">
+        <v>2024</v>
+      </c>
+      <c r="E423" s="2" t="s">
+        <v>1542</v>
+      </c>
+      <c r="F423" s="21" t="s">
+        <v>1556</v>
+      </c>
       <c r="G423" s="71"/>
       <c r="H423" s="69"/>
-      <c r="I423" s="69"/>
-      <c r="J423" s="76"/>
-      <c r="L423" s="69"/>
+      <c r="I423" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="J423" s="14" t="s">
+        <v>1582</v>
+      </c>
+      <c r="K423" s="21">
+        <v>45438</v>
+      </c>
+      <c r="L423" s="69" t="s">
+        <v>1295</v>
+      </c>
       <c r="M423" s="114"/>
       <c r="N423" s="71"/>
       <c r="O423" s="71"/>
@@ -22298,16 +23380,35 @@
       <c r="A424" s="81">
         <v>423</v>
       </c>
-      <c r="B424" s="73"/>
-      <c r="C424" s="73"/>
-      <c r="D424" s="73"/>
-      <c r="E424" s="74"/>
-      <c r="F424" s="81"/>
+      <c r="B424" s="13">
+        <v>28</v>
+      </c>
+      <c r="C424" s="13">
+        <v>3</v>
+      </c>
+      <c r="D424" s="13">
+        <v>2024</v>
+      </c>
+      <c r="E424" s="2" t="s">
+        <v>1543</v>
+      </c>
+      <c r="F424" s="163" t="s">
+        <v>444</v>
+      </c>
       <c r="G424" s="71"/>
       <c r="H424" s="69"/>
-      <c r="I424" s="69"/>
-      <c r="J424" s="76"/>
-      <c r="L424" s="69"/>
+      <c r="I424" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="J424" s="14" t="s">
+        <v>382</v>
+      </c>
+      <c r="K424" s="163">
+        <v>45415</v>
+      </c>
+      <c r="L424" s="69" t="s">
+        <v>1295</v>
+      </c>
       <c r="M424" s="114"/>
       <c r="N424" s="71"/>
       <c r="O424" s="71"/>
@@ -22317,16 +23418,35 @@
       <c r="A425" s="81">
         <v>424</v>
       </c>
-      <c r="B425" s="73"/>
-      <c r="C425" s="73"/>
-      <c r="D425" s="73"/>
-      <c r="E425" s="74"/>
-      <c r="F425" s="81"/>
+      <c r="B425" s="13">
+        <v>28</v>
+      </c>
+      <c r="C425" s="13">
+        <v>3</v>
+      </c>
+      <c r="D425" s="13">
+        <v>2024</v>
+      </c>
+      <c r="E425" s="2" t="s">
+        <v>1543</v>
+      </c>
+      <c r="F425" s="163" t="s">
+        <v>444</v>
+      </c>
       <c r="G425" s="71"/>
       <c r="H425" s="69"/>
-      <c r="I425" s="69"/>
-      <c r="J425" s="76"/>
-      <c r="L425" s="69"/>
+      <c r="I425" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="J425" s="14" t="s">
+        <v>382</v>
+      </c>
+      <c r="K425" s="163">
+        <v>45415</v>
+      </c>
+      <c r="L425" s="69" t="s">
+        <v>1295</v>
+      </c>
       <c r="M425" s="114"/>
       <c r="N425" s="71"/>
       <c r="O425" s="71"/>
@@ -22336,16 +23456,35 @@
       <c r="A426" s="81">
         <v>425</v>
       </c>
-      <c r="B426" s="73"/>
-      <c r="C426" s="73"/>
-      <c r="D426" s="73"/>
-      <c r="E426" s="74"/>
-      <c r="F426" s="81"/>
+      <c r="B426" s="13">
+        <v>28</v>
+      </c>
+      <c r="C426" s="13">
+        <v>3</v>
+      </c>
+      <c r="D426" s="13">
+        <v>2024</v>
+      </c>
+      <c r="E426" s="2" t="s">
+        <v>1543</v>
+      </c>
+      <c r="F426" s="163" t="s">
+        <v>444</v>
+      </c>
       <c r="G426" s="71"/>
       <c r="H426" s="69"/>
-      <c r="I426" s="69"/>
-      <c r="J426" s="76"/>
-      <c r="L426" s="69"/>
+      <c r="I426" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="J426" s="14" t="s">
+        <v>382</v>
+      </c>
+      <c r="K426" s="163">
+        <v>45415</v>
+      </c>
+      <c r="L426" s="69" t="s">
+        <v>1295</v>
+      </c>
       <c r="M426" s="114"/>
       <c r="N426" s="71"/>
       <c r="O426" s="71"/>
@@ -22355,16 +23494,35 @@
       <c r="A427" s="81">
         <v>426</v>
       </c>
-      <c r="B427" s="73"/>
-      <c r="C427" s="73"/>
-      <c r="D427" s="73"/>
-      <c r="E427" s="74"/>
-      <c r="F427" s="81"/>
+      <c r="B427" s="13">
+        <v>28</v>
+      </c>
+      <c r="C427" s="13">
+        <v>3</v>
+      </c>
+      <c r="D427" s="13">
+        <v>2024</v>
+      </c>
+      <c r="E427" s="2" t="s">
+        <v>1544</v>
+      </c>
+      <c r="F427" s="163" t="s">
+        <v>444</v>
+      </c>
       <c r="G427" s="71"/>
       <c r="H427" s="69"/>
-      <c r="I427" s="69"/>
-      <c r="J427" s="76"/>
-      <c r="L427" s="69"/>
+      <c r="I427" s="13" t="s">
+        <v>72</v>
+      </c>
+      <c r="J427" s="14" t="s">
+        <v>1583</v>
+      </c>
+      <c r="K427" s="163">
+        <v>45415</v>
+      </c>
+      <c r="L427" s="69" t="s">
+        <v>1295</v>
+      </c>
       <c r="M427" s="114"/>
       <c r="N427" s="71"/>
       <c r="O427" s="71"/>
@@ -22374,16 +23532,35 @@
       <c r="A428" s="81">
         <v>427</v>
       </c>
-      <c r="B428" s="73"/>
-      <c r="C428" s="73"/>
-      <c r="D428" s="73"/>
-      <c r="E428" s="74"/>
-      <c r="F428" s="81"/>
+      <c r="B428" s="13">
+        <v>28</v>
+      </c>
+      <c r="C428" s="13">
+        <v>3</v>
+      </c>
+      <c r="D428" s="13">
+        <v>2024</v>
+      </c>
+      <c r="E428" s="2" t="s">
+        <v>1545</v>
+      </c>
+      <c r="F428" s="163" t="s">
+        <v>14</v>
+      </c>
       <c r="G428" s="71"/>
       <c r="H428" s="69"/>
-      <c r="I428" s="69"/>
-      <c r="J428" s="76"/>
-      <c r="L428" s="69"/>
+      <c r="I428" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="J428" s="14" t="s">
+        <v>1584</v>
+      </c>
+      <c r="K428" s="163">
+        <v>45421</v>
+      </c>
+      <c r="L428" s="69" t="s">
+        <v>1297</v>
+      </c>
       <c r="M428" s="114"/>
       <c r="N428" s="71"/>
       <c r="O428" s="71"/>
@@ -22393,16 +23570,35 @@
       <c r="A429" s="81">
         <v>428</v>
       </c>
-      <c r="B429" s="73"/>
-      <c r="C429" s="73"/>
-      <c r="D429" s="73"/>
-      <c r="E429" s="74"/>
-      <c r="F429" s="81"/>
+      <c r="B429" s="13">
+        <v>28</v>
+      </c>
+      <c r="C429" s="13">
+        <v>3</v>
+      </c>
+      <c r="D429" s="13">
+        <v>2024</v>
+      </c>
+      <c r="E429" s="2" t="s">
+        <v>881</v>
+      </c>
+      <c r="F429" s="163" t="s">
+        <v>444</v>
+      </c>
       <c r="G429" s="71"/>
       <c r="H429" s="69"/>
-      <c r="I429" s="69"/>
-      <c r="J429" s="76"/>
-      <c r="L429" s="69"/>
+      <c r="I429" s="13" t="s">
+        <v>993</v>
+      </c>
+      <c r="J429" s="14" t="s">
+        <v>1036</v>
+      </c>
+      <c r="K429" s="163">
+        <v>45415</v>
+      </c>
+      <c r="L429" s="69" t="s">
+        <v>1297</v>
+      </c>
       <c r="M429" s="114"/>
       <c r="N429" s="71"/>
       <c r="O429" s="71"/>
@@ -22412,16 +23608,35 @@
       <c r="A430" s="81">
         <v>429</v>
       </c>
-      <c r="B430" s="73"/>
-      <c r="C430" s="73"/>
-      <c r="D430" s="73"/>
-      <c r="E430" s="74"/>
-      <c r="F430" s="81"/>
+      <c r="B430" s="13">
+        <v>29</v>
+      </c>
+      <c r="C430" s="13">
+        <v>3</v>
+      </c>
+      <c r="D430" s="13">
+        <v>2024</v>
+      </c>
+      <c r="E430" s="2" t="s">
+        <v>1546</v>
+      </c>
+      <c r="F430" s="163" t="s">
+        <v>444</v>
+      </c>
       <c r="G430" s="71"/>
       <c r="H430" s="69"/>
-      <c r="I430" s="69"/>
-      <c r="J430" s="76"/>
-      <c r="L430" s="69"/>
+      <c r="I430" s="13" t="s">
+        <v>996</v>
+      </c>
+      <c r="J430" s="14" t="s">
+        <v>1051</v>
+      </c>
+      <c r="K430" s="163">
+        <v>45418</v>
+      </c>
+      <c r="L430" s="69" t="s">
+        <v>1297</v>
+      </c>
       <c r="M430" s="114"/>
       <c r="N430" s="71"/>
       <c r="O430" s="71"/>
@@ -22431,16 +23646,35 @@
       <c r="A431" s="81">
         <v>430</v>
       </c>
-      <c r="B431" s="73"/>
-      <c r="C431" s="73"/>
-      <c r="D431" s="73"/>
-      <c r="E431" s="74"/>
-      <c r="F431" s="81"/>
+      <c r="B431" s="13">
+        <v>29</v>
+      </c>
+      <c r="C431" s="13">
+        <v>3</v>
+      </c>
+      <c r="D431" s="13">
+        <v>2024</v>
+      </c>
+      <c r="E431" s="2" t="s">
+        <v>1547</v>
+      </c>
+      <c r="F431" s="163" t="s">
+        <v>444</v>
+      </c>
       <c r="G431" s="71"/>
       <c r="H431" s="69"/>
-      <c r="I431" s="69"/>
-      <c r="J431" s="76"/>
-      <c r="L431" s="69"/>
+      <c r="I431" s="13" t="s">
+        <v>1284</v>
+      </c>
+      <c r="J431" s="14" t="s">
+        <v>1051</v>
+      </c>
+      <c r="K431" s="163">
+        <v>45418</v>
+      </c>
+      <c r="L431" s="69" t="s">
+        <v>1297</v>
+      </c>
       <c r="M431" s="114"/>
       <c r="N431" s="71"/>
       <c r="O431" s="71"/>
@@ -22450,16 +23684,35 @@
       <c r="A432" s="81">
         <v>431</v>
       </c>
-      <c r="B432" s="73"/>
-      <c r="C432" s="73"/>
-      <c r="D432" s="73"/>
-      <c r="E432" s="74"/>
-      <c r="F432" s="81"/>
+      <c r="B432" s="13">
+        <v>29</v>
+      </c>
+      <c r="C432" s="13">
+        <v>3</v>
+      </c>
+      <c r="D432" s="13">
+        <v>2024</v>
+      </c>
+      <c r="E432" s="2" t="s">
+        <v>1548</v>
+      </c>
+      <c r="F432" s="163" t="s">
+        <v>444</v>
+      </c>
       <c r="G432" s="71"/>
       <c r="H432" s="69"/>
-      <c r="I432" s="69"/>
-      <c r="J432" s="76"/>
-      <c r="L432" s="69"/>
+      <c r="I432" s="13" t="s">
+        <v>1284</v>
+      </c>
+      <c r="J432" s="14" t="s">
+        <v>1585</v>
+      </c>
+      <c r="K432" s="163">
+        <v>45418</v>
+      </c>
+      <c r="L432" s="69" t="s">
+        <v>1297</v>
+      </c>
       <c r="M432" s="114"/>
       <c r="N432" s="71"/>
       <c r="O432" s="71"/>
@@ -22469,16 +23722,35 @@
       <c r="A433" s="81">
         <v>432</v>
       </c>
-      <c r="B433" s="73"/>
-      <c r="C433" s="73"/>
-      <c r="D433" s="73"/>
-      <c r="E433" s="74"/>
-      <c r="F433" s="81"/>
+      <c r="B433" s="13">
+        <v>29</v>
+      </c>
+      <c r="C433" s="13">
+        <v>3</v>
+      </c>
+      <c r="D433" s="13">
+        <v>2024</v>
+      </c>
+      <c r="E433" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="F433" s="163" t="s">
+        <v>444</v>
+      </c>
       <c r="G433" s="71"/>
       <c r="H433" s="69"/>
-      <c r="I433" s="69"/>
-      <c r="J433" s="76"/>
-      <c r="L433" s="69"/>
+      <c r="I433" s="13" t="s">
+        <v>1498</v>
+      </c>
+      <c r="J433" s="14" t="s">
+        <v>1586</v>
+      </c>
+      <c r="K433" s="163">
+        <v>45418</v>
+      </c>
+      <c r="L433" s="69" t="s">
+        <v>1297</v>
+      </c>
       <c r="M433" s="114"/>
       <c r="N433" s="71"/>
       <c r="O433" s="71"/>
@@ -22488,16 +23760,35 @@
       <c r="A434" s="81">
         <v>433</v>
       </c>
-      <c r="B434" s="73"/>
-      <c r="C434" s="73"/>
-      <c r="D434" s="73"/>
-      <c r="E434" s="74"/>
-      <c r="F434" s="81"/>
+      <c r="B434" s="13">
+        <v>29</v>
+      </c>
+      <c r="C434" s="13">
+        <v>3</v>
+      </c>
+      <c r="D434" s="13">
+        <v>2024</v>
+      </c>
+      <c r="E434" s="2" t="s">
+        <v>1549</v>
+      </c>
+      <c r="F434" s="163" t="s">
+        <v>444</v>
+      </c>
       <c r="G434" s="71"/>
       <c r="H434" s="69"/>
-      <c r="I434" s="69"/>
-      <c r="J434" s="76"/>
-      <c r="L434" s="69"/>
+      <c r="I434" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="J434" s="14" t="s">
+        <v>1587</v>
+      </c>
+      <c r="K434" s="163">
+        <v>45418</v>
+      </c>
+      <c r="L434" s="69" t="s">
+        <v>1297</v>
+      </c>
       <c r="M434" s="114"/>
       <c r="N434" s="71"/>
       <c r="O434" s="71"/>
@@ -22507,16 +23798,35 @@
       <c r="A435" s="81">
         <v>434</v>
       </c>
-      <c r="B435" s="73"/>
-      <c r="C435" s="73"/>
-      <c r="D435" s="73"/>
-      <c r="E435" s="74"/>
-      <c r="F435" s="81"/>
+      <c r="B435" s="13">
+        <v>29</v>
+      </c>
+      <c r="C435" s="13">
+        <v>3</v>
+      </c>
+      <c r="D435" s="13">
+        <v>2024</v>
+      </c>
+      <c r="E435" s="2" t="s">
+        <v>1550</v>
+      </c>
+      <c r="F435" s="163" t="s">
+        <v>14</v>
+      </c>
       <c r="G435" s="71"/>
       <c r="H435" s="69"/>
-      <c r="I435" s="69"/>
-      <c r="J435" s="76"/>
-      <c r="L435" s="69"/>
+      <c r="I435" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="J435" s="14" t="s">
+        <v>1588</v>
+      </c>
+      <c r="K435" s="163">
+        <v>45425</v>
+      </c>
+      <c r="L435" s="69" t="s">
+        <v>1296</v>
+      </c>
       <c r="M435" s="114"/>
       <c r="N435" s="71"/>
       <c r="O435" s="71"/>
@@ -22526,16 +23836,35 @@
       <c r="A436" s="81">
         <v>435</v>
       </c>
-      <c r="B436" s="73"/>
-      <c r="C436" s="73"/>
-      <c r="D436" s="73"/>
-      <c r="E436" s="74"/>
-      <c r="F436" s="81"/>
+      <c r="B436" s="13">
+        <v>29</v>
+      </c>
+      <c r="C436" s="13">
+        <v>3</v>
+      </c>
+      <c r="D436" s="13">
+        <v>2024</v>
+      </c>
+      <c r="E436" s="2" t="s">
+        <v>1543</v>
+      </c>
+      <c r="F436" s="163" t="s">
+        <v>444</v>
+      </c>
       <c r="G436" s="71"/>
       <c r="H436" s="69"/>
-      <c r="I436" s="69"/>
-      <c r="J436" s="76"/>
-      <c r="L436" s="69"/>
+      <c r="I436" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="J436" s="14" t="s">
+        <v>1589</v>
+      </c>
+      <c r="K436" s="163">
+        <v>45418</v>
+      </c>
+      <c r="L436" s="69" t="s">
+        <v>1296</v>
+      </c>
       <c r="M436" s="114"/>
       <c r="N436" s="71"/>
       <c r="O436" s="71"/>
@@ -22545,16 +23874,35 @@
       <c r="A437" s="81">
         <v>436</v>
       </c>
-      <c r="B437" s="73"/>
-      <c r="C437" s="73"/>
-      <c r="D437" s="73"/>
-      <c r="E437" s="74"/>
-      <c r="F437" s="81"/>
+      <c r="B437" s="13">
+        <v>29</v>
+      </c>
+      <c r="C437" s="13">
+        <v>3</v>
+      </c>
+      <c r="D437" s="13">
+        <v>2024</v>
+      </c>
+      <c r="E437" s="2" t="s">
+        <v>1551</v>
+      </c>
+      <c r="F437" s="163" t="s">
+        <v>444</v>
+      </c>
       <c r="G437" s="71"/>
       <c r="H437" s="69"/>
-      <c r="I437" s="69"/>
-      <c r="J437" s="76"/>
-      <c r="L437" s="69"/>
+      <c r="I437" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="J437" s="14" t="s">
+        <v>1590</v>
+      </c>
+      <c r="K437" s="163">
+        <v>45418</v>
+      </c>
+      <c r="L437" s="69" t="s">
+        <v>1296</v>
+      </c>
       <c r="M437" s="114"/>
       <c r="N437" s="71"/>
       <c r="O437" s="71"/>
@@ -22564,16 +23912,35 @@
       <c r="A438" s="81">
         <v>437</v>
       </c>
-      <c r="B438" s="73"/>
-      <c r="C438" s="73"/>
-      <c r="D438" s="73"/>
-      <c r="E438" s="74"/>
-      <c r="F438" s="81"/>
+      <c r="B438" s="13">
+        <v>29</v>
+      </c>
+      <c r="C438" s="13">
+        <v>3</v>
+      </c>
+      <c r="D438" s="13">
+        <v>2024</v>
+      </c>
+      <c r="E438" s="196" t="s">
+        <v>897</v>
+      </c>
+      <c r="F438" s="163" t="s">
+        <v>444</v>
+      </c>
       <c r="G438" s="71"/>
       <c r="H438" s="69"/>
-      <c r="I438" s="69"/>
-      <c r="J438" s="76"/>
-      <c r="L438" s="69"/>
+      <c r="I438" s="13" t="s">
+        <v>993</v>
+      </c>
+      <c r="J438" s="14" t="s">
+        <v>1051</v>
+      </c>
+      <c r="K438" s="163">
+        <v>45418</v>
+      </c>
+      <c r="L438" s="69" t="s">
+        <v>1296</v>
+      </c>
       <c r="M438" s="114"/>
       <c r="N438" s="71"/>
       <c r="O438" s="71"/>
@@ -22583,16 +23950,35 @@
       <c r="A439" s="81">
         <v>438</v>
       </c>
-      <c r="B439" s="73"/>
-      <c r="C439" s="73"/>
-      <c r="D439" s="73"/>
-      <c r="E439" s="74"/>
-      <c r="F439" s="81"/>
+      <c r="B439" s="13">
+        <v>29</v>
+      </c>
+      <c r="C439" s="13">
+        <v>3</v>
+      </c>
+      <c r="D439" s="13">
+        <v>2024</v>
+      </c>
+      <c r="E439" s="2" t="s">
+        <v>1552</v>
+      </c>
+      <c r="F439" s="163" t="s">
+        <v>444</v>
+      </c>
       <c r="G439" s="71"/>
       <c r="H439" s="69"/>
-      <c r="I439" s="69"/>
-      <c r="J439" s="76"/>
-      <c r="L439" s="69"/>
+      <c r="I439" s="13" t="s">
+        <v>993</v>
+      </c>
+      <c r="J439" s="14" t="s">
+        <v>1591</v>
+      </c>
+      <c r="K439" s="163">
+        <v>45418</v>
+      </c>
+      <c r="L439" s="69" t="s">
+        <v>1296</v>
+      </c>
       <c r="M439" s="114"/>
       <c r="N439" s="71"/>
       <c r="O439" s="71"/>
@@ -22602,16 +23988,35 @@
       <c r="A440" s="81">
         <v>439</v>
       </c>
-      <c r="B440" s="73"/>
-      <c r="C440" s="73"/>
-      <c r="D440" s="73"/>
-      <c r="E440" s="74"/>
-      <c r="F440" s="81"/>
+      <c r="B440" s="13">
+        <v>29</v>
+      </c>
+      <c r="C440" s="13">
+        <v>3</v>
+      </c>
+      <c r="D440" s="13">
+        <v>2024</v>
+      </c>
+      <c r="E440" s="103" t="s">
+        <v>1553</v>
+      </c>
+      <c r="F440" s="163" t="s">
+        <v>444</v>
+      </c>
       <c r="G440" s="71"/>
       <c r="H440" s="69"/>
-      <c r="I440" s="69"/>
-      <c r="J440" s="76"/>
-      <c r="L440" s="69"/>
+      <c r="I440" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="J440" s="14" t="s">
+        <v>1592</v>
+      </c>
+      <c r="K440" s="163">
+        <v>45418</v>
+      </c>
+      <c r="L440" s="69" t="s">
+        <v>1296</v>
+      </c>
       <c r="M440" s="114"/>
       <c r="N440" s="71"/>
       <c r="O440" s="71"/>
@@ -22621,16 +24026,35 @@
       <c r="A441" s="81">
         <v>440</v>
       </c>
-      <c r="B441" s="73"/>
-      <c r="C441" s="73"/>
-      <c r="D441" s="73"/>
-      <c r="E441" s="74"/>
-      <c r="F441" s="81"/>
+      <c r="B441" s="13">
+        <v>29</v>
+      </c>
+      <c r="C441" s="13">
+        <v>3</v>
+      </c>
+      <c r="D441" s="13">
+        <v>2024</v>
+      </c>
+      <c r="E441" s="2" t="s">
+        <v>1554</v>
+      </c>
+      <c r="F441" s="163" t="s">
+        <v>444</v>
+      </c>
       <c r="G441" s="71"/>
       <c r="H441" s="69"/>
-      <c r="I441" s="69"/>
-      <c r="J441" s="76"/>
-      <c r="L441" s="69"/>
+      <c r="I441" s="13" t="s">
+        <v>996</v>
+      </c>
+      <c r="J441" s="14" t="s">
+        <v>1593</v>
+      </c>
+      <c r="K441" s="163">
+        <v>45418</v>
+      </c>
+      <c r="L441" s="69" t="s">
+        <v>1296</v>
+      </c>
       <c r="M441" s="114"/>
       <c r="N441" s="71"/>
       <c r="O441" s="71"/>
@@ -22640,16 +24064,35 @@
       <c r="A442" s="81">
         <v>441</v>
       </c>
-      <c r="B442" s="73"/>
-      <c r="C442" s="73"/>
-      <c r="D442" s="73"/>
-      <c r="E442" s="74"/>
-      <c r="F442" s="81"/>
+      <c r="B442" s="13">
+        <v>1</v>
+      </c>
+      <c r="C442" s="13">
+        <v>4</v>
+      </c>
+      <c r="D442" s="13">
+        <v>2024</v>
+      </c>
+      <c r="E442" s="103" t="s">
+        <v>1555</v>
+      </c>
+      <c r="F442" s="163" t="s">
+        <v>444</v>
+      </c>
       <c r="G442" s="71"/>
       <c r="H442" s="69"/>
-      <c r="I442" s="69"/>
-      <c r="J442" s="76"/>
-      <c r="L442" s="69"/>
+      <c r="I442" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="J442" s="14" t="s">
+        <v>1594</v>
+      </c>
+      <c r="K442" s="163">
+        <v>45419</v>
+      </c>
+      <c r="L442" s="69" t="s">
+        <v>1296</v>
+      </c>
       <c r="M442" s="114"/>
       <c r="N442" s="71"/>
       <c r="O442" s="71"/>

--- a/TUAN/HOSO2024-BPKT.xlsx
+++ b/TUAN/HOSO2024-BPKT.xlsx
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4426" uniqueCount="1595">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4427" uniqueCount="1596">
   <si>
     <t>Ngày</t>
   </si>
@@ -4839,6 +4839,9 @@
   </si>
   <si>
     <t>0946036555</t>
+  </si>
+  <si>
+    <t>323 (957;958;959)</t>
   </si>
 </sst>
 </file>
@@ -6071,8 +6074,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:Q2009"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A199" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="L405" sqref="L405"/>
+    <sheetView tabSelected="1" topLeftCell="A364" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H384" sqref="H384"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -18834,8 +18837,12 @@
       <c r="F309" s="21" t="s">
         <v>444</v>
       </c>
-      <c r="G309" s="147"/>
-      <c r="H309" s="133"/>
+      <c r="G309" s="147">
+        <v>25</v>
+      </c>
+      <c r="H309" s="133">
+        <v>20</v>
+      </c>
       <c r="I309" s="13" t="s">
         <v>996</v>
       </c>
@@ -18848,9 +18855,15 @@
       <c r="L309" s="69" t="s">
         <v>1296</v>
       </c>
-      <c r="M309" s="114"/>
-      <c r="N309" s="71"/>
-      <c r="O309" s="71"/>
+      <c r="M309" s="114">
+        <v>45383</v>
+      </c>
+      <c r="N309" s="71">
+        <v>4</v>
+      </c>
+      <c r="O309" s="71">
+        <v>1</v>
+      </c>
       <c r="P309" s="71"/>
     </row>
     <row r="310" spans="1:17" x14ac:dyDescent="0.25">
@@ -21466,7 +21479,7 @@
       <c r="O373" s="71"/>
       <c r="P373" s="71"/>
     </row>
-    <row r="374" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="374" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A374" s="81">
         <v>373</v>
       </c>
@@ -21998,7 +22011,7 @@
       <c r="O387" s="71"/>
       <c r="P387" s="71"/>
     </row>
-    <row r="388" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="388" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A388" s="81">
         <v>387</v>
       </c>
@@ -22017,8 +22030,12 @@
       <c r="F388" s="163" t="s">
         <v>444</v>
       </c>
-      <c r="G388" s="71"/>
-      <c r="H388" s="69"/>
+      <c r="G388" s="71">
+        <v>31</v>
+      </c>
+      <c r="H388" s="69">
+        <v>451</v>
+      </c>
       <c r="I388" s="13" t="s">
         <v>996</v>
       </c>
@@ -22031,9 +22048,15 @@
       <c r="L388" s="69" t="s">
         <v>1297</v>
       </c>
-      <c r="M388" s="114"/>
-      <c r="N388" s="71"/>
-      <c r="O388" s="71"/>
+      <c r="M388" s="114">
+        <v>45383</v>
+      </c>
+      <c r="N388" s="71">
+        <v>4</v>
+      </c>
+      <c r="O388" s="71">
+        <v>1</v>
+      </c>
       <c r="P388" s="69"/>
     </row>
     <row r="389" spans="1:16" x14ac:dyDescent="0.25">
@@ -22055,8 +22078,12 @@
       <c r="F389" s="163" t="s">
         <v>444</v>
       </c>
-      <c r="G389" s="71"/>
-      <c r="H389" s="69"/>
+      <c r="G389" s="71">
+        <v>38</v>
+      </c>
+      <c r="H389" s="69">
+        <v>4</v>
+      </c>
       <c r="I389" s="13" t="s">
         <v>996</v>
       </c>
@@ -22069,9 +22096,15 @@
       <c r="L389" s="69" t="s">
         <v>1297</v>
       </c>
-      <c r="M389" s="114"/>
-      <c r="N389" s="71"/>
-      <c r="O389" s="71"/>
+      <c r="M389" s="114">
+        <v>45383</v>
+      </c>
+      <c r="N389" s="71">
+        <v>4</v>
+      </c>
+      <c r="O389" s="71">
+        <v>1</v>
+      </c>
       <c r="P389" s="71"/>
     </row>
     <row r="390" spans="1:16" x14ac:dyDescent="0.25">
@@ -22929,8 +22962,12 @@
       <c r="F412" s="163" t="s">
         <v>14</v>
       </c>
-      <c r="G412" s="71"/>
-      <c r="H412" s="69"/>
+      <c r="G412" s="71">
+        <v>10</v>
+      </c>
+      <c r="H412" s="69" t="s">
+        <v>1595</v>
+      </c>
       <c r="I412" s="13" t="s">
         <v>72</v>
       </c>
@@ -22943,9 +22980,15 @@
       <c r="L412" s="69" t="s">
         <v>1297</v>
       </c>
-      <c r="M412" s="114"/>
-      <c r="N412" s="71"/>
-      <c r="O412" s="71"/>
+      <c r="M412" s="114">
+        <v>45383</v>
+      </c>
+      <c r="N412" s="71">
+        <v>4</v>
+      </c>
+      <c r="O412" s="71">
+        <v>3</v>
+      </c>
       <c r="P412" s="69"/>
     </row>
     <row r="413" spans="1:16" x14ac:dyDescent="0.25">

--- a/TUAN/HOSO2024-BPKT.xlsx
+++ b/TUAN/HOSO2024-BPKT.xlsx
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4427" uniqueCount="1596">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4437" uniqueCount="1603">
   <si>
     <t>Ngày</t>
   </si>
@@ -4842,6 +4842,29 @@
   </si>
   <si>
     <t>323 (957;958;959)</t>
+  </si>
+  <si>
+    <t>xác định pháp lý (kg cấp đổi)</t>
+  </si>
+  <si>
+    <t>64 (409;410;411)</t>
+  </si>
+  <si>
+    <t>Trích lục</t>
+  </si>
+  <si>
+    <t>13
+13</t>
+  </si>
+  <si>
+    <t>57 (65;55)
+(52;65) 68</t>
+  </si>
+  <si>
+    <t>14 (96;97;98;99)</t>
+  </si>
+  <si>
+    <t>99;70 (101)</t>
   </si>
 </sst>
 </file>
@@ -5181,7 +5204,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="197">
+  <cellXfs count="198">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -5704,13 +5727,16 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="1" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -6074,8 +6100,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:Q2009"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A364" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H384" sqref="H384"/>
+    <sheetView tabSelected="1" topLeftCell="A343" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H365" sqref="H365"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -16011,10 +16037,14 @@
         <v>588</v>
       </c>
       <c r="F237" s="21" t="s">
-        <v>14</v>
-      </c>
-      <c r="G237" s="147"/>
-      <c r="H237" s="133"/>
+        <v>444</v>
+      </c>
+      <c r="G237" s="147">
+        <v>6</v>
+      </c>
+      <c r="H237" s="133">
+        <v>120</v>
+      </c>
       <c r="I237" s="13" t="s">
         <v>5</v>
       </c>
@@ -16027,48 +16057,57 @@
       <c r="L237" s="69" t="s">
         <v>1297</v>
       </c>
-      <c r="M237" s="114"/>
-      <c r="N237" s="71"/>
-      <c r="O237" s="71"/>
+      <c r="M237" s="114">
+        <v>45385</v>
+      </c>
+      <c r="N237" s="71">
+        <v>4</v>
+      </c>
+      <c r="O237" s="71">
+        <v>1</v>
+      </c>
       <c r="P237" s="71"/>
     </row>
-    <row r="238" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A238" s="81">
+    <row r="238" spans="1:17" s="139" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A238" s="104">
         <v>237</v>
       </c>
-      <c r="B238" s="13">
+      <c r="B238" s="105">
         <v>26</v>
       </c>
-      <c r="C238" s="13">
+      <c r="C238" s="105">
         <v>2</v>
       </c>
-      <c r="D238" s="13">
+      <c r="D238" s="105">
         <v>2024</v>
       </c>
-      <c r="E238" s="2" t="s">
+      <c r="E238" s="106" t="s">
         <v>1223</v>
       </c>
-      <c r="F238" s="21" t="s">
+      <c r="F238" s="109" t="s">
         <v>14</v>
       </c>
-      <c r="G238" s="147"/>
-      <c r="H238" s="133"/>
-      <c r="I238" s="13" t="s">
+      <c r="G238" s="148"/>
+      <c r="H238" s="134"/>
+      <c r="I238" s="105" t="s">
         <v>998</v>
       </c>
-      <c r="J238" s="14" t="s">
+      <c r="J238" s="108" t="s">
         <v>1276</v>
       </c>
       <c r="K238" s="112">
         <v>45387</v>
       </c>
-      <c r="L238" s="69" t="s">
+      <c r="L238" s="107" t="s">
         <v>1295</v>
       </c>
-      <c r="M238" s="114"/>
-      <c r="N238" s="71"/>
-      <c r="O238" s="71"/>
-      <c r="P238" s="71"/>
+      <c r="M238" s="113"/>
+      <c r="N238" s="110"/>
+      <c r="O238" s="110"/>
+      <c r="P238" s="110" t="s">
+        <v>846</v>
+      </c>
+      <c r="Q238" s="138"/>
     </row>
     <row r="239" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A239" s="81">
@@ -16278,43 +16317,54 @@
       </c>
       <c r="Q243" s="138"/>
     </row>
-    <row r="244" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:17" s="159" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A244" s="81">
         <v>243</v>
       </c>
-      <c r="B244" s="13">
+      <c r="B244" s="1">
         <v>27</v>
       </c>
-      <c r="C244" s="13">
+      <c r="C244" s="1">
         <v>2</v>
       </c>
-      <c r="D244" s="13">
+      <c r="D244" s="1">
         <v>2024</v>
       </c>
-      <c r="E244" s="2" t="s">
+      <c r="E244" s="52" t="s">
         <v>33</v>
       </c>
-      <c r="F244" s="21" t="s">
-        <v>14</v>
-      </c>
-      <c r="G244" s="147"/>
-      <c r="H244" s="147"/>
-      <c r="I244" s="13" t="s">
+      <c r="F244" s="155" t="s">
+        <v>1402</v>
+      </c>
+      <c r="G244" s="197" t="s">
+        <v>1599</v>
+      </c>
+      <c r="H244" s="197" t="s">
+        <v>1600</v>
+      </c>
+      <c r="I244" s="1" t="s">
         <v>996</v>
       </c>
-      <c r="J244" s="14" t="s">
+      <c r="J244" s="53" t="s">
         <v>144</v>
       </c>
-      <c r="K244" s="112">
+      <c r="K244" s="157">
         <v>45384</v>
       </c>
       <c r="L244" s="69" t="s">
-        <v>1297</v>
-      </c>
-      <c r="M244" s="114"/>
-      <c r="N244" s="71"/>
-      <c r="O244" s="71"/>
+        <v>1298</v>
+      </c>
+      <c r="M244" s="114">
+        <v>45384</v>
+      </c>
+      <c r="N244" s="71">
+        <v>4</v>
+      </c>
+      <c r="O244" s="71">
+        <v>5</v>
+      </c>
       <c r="P244" s="71"/>
+      <c r="Q244" s="158"/>
     </row>
     <row r="245" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A245" s="81">
@@ -18495,8 +18545,12 @@
       <c r="F300" s="21" t="s">
         <v>14</v>
       </c>
-      <c r="G300" s="147"/>
-      <c r="H300" s="133"/>
+      <c r="G300" s="147">
+        <v>10</v>
+      </c>
+      <c r="H300" s="133" t="s">
+        <v>1597</v>
+      </c>
       <c r="I300" s="13" t="s">
         <v>73</v>
       </c>
@@ -18507,11 +18561,17 @@
         <v>45404</v>
       </c>
       <c r="L300" s="69" t="s">
-        <v>1295</v>
-      </c>
-      <c r="M300" s="114"/>
-      <c r="N300" s="71"/>
-      <c r="O300" s="71"/>
+        <v>1297</v>
+      </c>
+      <c r="M300" s="114">
+        <v>45385</v>
+      </c>
+      <c r="N300" s="71">
+        <v>4</v>
+      </c>
+      <c r="O300" s="71">
+        <v>3</v>
+      </c>
       <c r="P300" s="71"/>
     </row>
     <row r="301" spans="1:16" x14ac:dyDescent="0.25">
@@ -20868,8 +20928,12 @@
       <c r="F358" s="163" t="s">
         <v>444</v>
       </c>
-      <c r="G358" s="71"/>
-      <c r="H358" s="69"/>
+      <c r="G358" s="71">
+        <v>9</v>
+      </c>
+      <c r="H358" s="69">
+        <v>141</v>
+      </c>
       <c r="I358" s="182" t="s">
         <v>6</v>
       </c>
@@ -20882,9 +20946,15 @@
       <c r="L358" s="69" t="s">
         <v>1297</v>
       </c>
-      <c r="M358" s="114"/>
-      <c r="N358" s="71"/>
-      <c r="O358" s="71"/>
+      <c r="M358" s="114">
+        <v>45385</v>
+      </c>
+      <c r="N358" s="71">
+        <v>4</v>
+      </c>
+      <c r="O358" s="71">
+        <v>1</v>
+      </c>
       <c r="P358" s="71"/>
     </row>
     <row r="359" spans="1:16" x14ac:dyDescent="0.25">
@@ -20906,8 +20976,12 @@
       <c r="F359" s="163" t="s">
         <v>444</v>
       </c>
-      <c r="G359" s="71"/>
-      <c r="H359" s="69"/>
+      <c r="G359" s="71">
+        <v>10</v>
+      </c>
+      <c r="H359" s="69">
+        <v>455</v>
+      </c>
       <c r="I359" s="182" t="s">
         <v>72</v>
       </c>
@@ -20920,9 +20994,15 @@
       <c r="L359" s="69" t="s">
         <v>1297</v>
       </c>
-      <c r="M359" s="114"/>
-      <c r="N359" s="71"/>
-      <c r="O359" s="71"/>
+      <c r="M359" s="114">
+        <v>45385</v>
+      </c>
+      <c r="N359" s="71">
+        <v>4</v>
+      </c>
+      <c r="O359" s="71">
+        <v>1</v>
+      </c>
       <c r="P359" s="71"/>
     </row>
     <row r="360" spans="1:16" x14ac:dyDescent="0.25">
@@ -23324,8 +23404,12 @@
       <c r="F421" s="163" t="s">
         <v>444</v>
       </c>
-      <c r="G421" s="71"/>
-      <c r="H421" s="69"/>
+      <c r="G421" s="71">
+        <v>74</v>
+      </c>
+      <c r="H421" s="69">
+        <v>294</v>
+      </c>
       <c r="I421" s="13" t="s">
         <v>4</v>
       </c>
@@ -23336,11 +23420,17 @@
         <v>45415</v>
       </c>
       <c r="L421" s="69" t="s">
-        <v>1295</v>
-      </c>
-      <c r="M421" s="114"/>
-      <c r="N421" s="71"/>
-      <c r="O421" s="71"/>
+        <v>1294</v>
+      </c>
+      <c r="M421" s="114">
+        <v>45385</v>
+      </c>
+      <c r="N421" s="71">
+        <v>4</v>
+      </c>
+      <c r="O421" s="71">
+        <v>1</v>
+      </c>
       <c r="P421" s="71"/>
     </row>
     <row r="422" spans="1:16" x14ac:dyDescent="0.25">
@@ -23666,8 +23756,12 @@
       <c r="F430" s="163" t="s">
         <v>444</v>
       </c>
-      <c r="G430" s="71"/>
-      <c r="H430" s="69"/>
+      <c r="G430" s="71">
+        <v>39</v>
+      </c>
+      <c r="H430" s="69">
+        <v>65</v>
+      </c>
       <c r="I430" s="13" t="s">
         <v>996</v>
       </c>
@@ -23678,11 +23772,17 @@
         <v>45418</v>
       </c>
       <c r="L430" s="69" t="s">
-        <v>1297</v>
-      </c>
-      <c r="M430" s="114"/>
-      <c r="N430" s="71"/>
-      <c r="O430" s="71"/>
+        <v>1295</v>
+      </c>
+      <c r="M430" s="114">
+        <v>45385</v>
+      </c>
+      <c r="N430" s="71">
+        <v>4</v>
+      </c>
+      <c r="O430" s="71">
+        <v>1</v>
+      </c>
       <c r="P430" s="69"/>
     </row>
     <row r="431" spans="1:16" x14ac:dyDescent="0.25">
@@ -23704,8 +23804,12 @@
       <c r="F431" s="163" t="s">
         <v>444</v>
       </c>
-      <c r="G431" s="71"/>
-      <c r="H431" s="69"/>
+      <c r="G431" s="71">
+        <v>47</v>
+      </c>
+      <c r="H431" s="69">
+        <v>191</v>
+      </c>
       <c r="I431" s="13" t="s">
         <v>1284</v>
       </c>
@@ -23716,11 +23820,17 @@
         <v>45418</v>
       </c>
       <c r="L431" s="69" t="s">
-        <v>1297</v>
-      </c>
-      <c r="M431" s="114"/>
-      <c r="N431" s="71"/>
-      <c r="O431" s="71"/>
+        <v>1295</v>
+      </c>
+      <c r="M431" s="114">
+        <v>45385</v>
+      </c>
+      <c r="N431" s="71">
+        <v>4</v>
+      </c>
+      <c r="O431" s="71">
+        <v>1</v>
+      </c>
       <c r="P431" s="71"/>
     </row>
     <row r="432" spans="1:16" x14ac:dyDescent="0.25">
@@ -23964,14 +24074,18 @@
       <c r="D438" s="13">
         <v>2024</v>
       </c>
-      <c r="E438" s="196" t="s">
+      <c r="E438" s="194" t="s">
         <v>897</v>
       </c>
       <c r="F438" s="163" t="s">
-        <v>444</v>
-      </c>
-      <c r="G438" s="71"/>
-      <c r="H438" s="69"/>
+        <v>14</v>
+      </c>
+      <c r="G438" s="71">
+        <v>6</v>
+      </c>
+      <c r="H438" s="69" t="s">
+        <v>1601</v>
+      </c>
       <c r="I438" s="13" t="s">
         <v>993</v>
       </c>
@@ -23982,11 +24096,17 @@
         <v>45418</v>
       </c>
       <c r="L438" s="69" t="s">
-        <v>1296</v>
-      </c>
-      <c r="M438" s="114"/>
-      <c r="N438" s="71"/>
-      <c r="O438" s="71"/>
+        <v>1295</v>
+      </c>
+      <c r="M438" s="114">
+        <v>45385</v>
+      </c>
+      <c r="N438" s="71">
+        <v>4</v>
+      </c>
+      <c r="O438" s="71">
+        <v>4</v>
+      </c>
       <c r="P438" s="71"/>
     </row>
     <row r="439" spans="1:16" x14ac:dyDescent="0.25">
@@ -24006,10 +24126,14 @@
         <v>1552</v>
       </c>
       <c r="F439" s="163" t="s">
-        <v>444</v>
-      </c>
-      <c r="G439" s="71"/>
-      <c r="H439" s="69"/>
+        <v>1136</v>
+      </c>
+      <c r="G439" s="71">
+        <v>6</v>
+      </c>
+      <c r="H439" s="69" t="s">
+        <v>1602</v>
+      </c>
       <c r="I439" s="13" t="s">
         <v>993</v>
       </c>
@@ -24020,11 +24144,17 @@
         <v>45418</v>
       </c>
       <c r="L439" s="69" t="s">
-        <v>1296</v>
-      </c>
-      <c r="M439" s="114"/>
-      <c r="N439" s="71"/>
-      <c r="O439" s="71"/>
+        <v>1295</v>
+      </c>
+      <c r="M439" s="114">
+        <v>45385</v>
+      </c>
+      <c r="N439" s="71">
+        <v>4</v>
+      </c>
+      <c r="O439" s="71">
+        <v>1</v>
+      </c>
       <c r="P439" s="71"/>
     </row>
     <row r="440" spans="1:16" x14ac:dyDescent="0.25">
@@ -24434,15 +24564,29 @@
       <c r="C458" s="73"/>
       <c r="D458" s="73"/>
       <c r="E458" s="74"/>
-      <c r="F458" s="81"/>
-      <c r="G458" s="71"/>
-      <c r="H458" s="69"/>
+      <c r="F458" s="81" t="s">
+        <v>1598</v>
+      </c>
+      <c r="G458" s="71">
+        <v>74</v>
+      </c>
+      <c r="H458" s="69">
+        <v>587</v>
+      </c>
       <c r="I458" s="69"/>
       <c r="J458" s="76"/>
-      <c r="L458" s="69"/>
-      <c r="M458" s="114"/>
-      <c r="N458" s="71"/>
-      <c r="O458" s="71"/>
+      <c r="L458" s="69" t="s">
+        <v>1297</v>
+      </c>
+      <c r="M458" s="114">
+        <v>45385</v>
+      </c>
+      <c r="N458" s="71">
+        <v>4</v>
+      </c>
+      <c r="O458" s="71">
+        <v>1</v>
+      </c>
       <c r="P458" s="71"/>
     </row>
     <row r="459" spans="1:16" x14ac:dyDescent="0.25">
@@ -24876,11 +25020,21 @@
       <c r="H481" s="69"/>
       <c r="I481" s="69"/>
       <c r="J481" s="76"/>
-      <c r="L481" s="69"/>
-      <c r="M481" s="114"/>
-      <c r="N481" s="71"/>
-      <c r="O481" s="71"/>
-      <c r="P481" s="69"/>
+      <c r="L481" s="69" t="s">
+        <v>1298</v>
+      </c>
+      <c r="M481" s="114">
+        <v>45385</v>
+      </c>
+      <c r="N481" s="71">
+        <v>4</v>
+      </c>
+      <c r="O481" s="71">
+        <v>1</v>
+      </c>
+      <c r="P481" s="69" t="s">
+        <v>1596</v>
+      </c>
     </row>
     <row r="482" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A482" s="81">
@@ -53615,13 +53769,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="194" t="s">
+      <c r="A1" s="195" t="s">
         <v>647</v>
       </c>
-      <c r="B1" s="194"/>
-      <c r="C1" s="194"/>
-      <c r="D1" s="194"/>
-      <c r="E1" s="194"/>
+      <c r="B1" s="195"/>
+      <c r="C1" s="195"/>
+      <c r="D1" s="195"/>
+      <c r="E1" s="195"/>
     </row>
     <row r="2" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="17" t="s">
@@ -56053,7 +56207,7 @@
       <c r="J13" s="35" t="s">
         <v>656</v>
       </c>
-      <c r="K13" s="195" t="s">
+      <c r="K13" s="196" t="s">
         <v>756</v>
       </c>
     </row>
@@ -56088,7 +56242,7 @@
       <c r="J14" s="35" t="s">
         <v>656</v>
       </c>
-      <c r="K14" s="195"/>
+      <c r="K14" s="196"/>
     </row>
     <row r="15" spans="1:11" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A15" s="31">
@@ -56121,7 +56275,7 @@
       <c r="J15" s="35" t="s">
         <v>656</v>
       </c>
-      <c r="K15" s="195"/>
+      <c r="K15" s="196"/>
     </row>
     <row r="16" spans="1:11" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A16" s="31">
@@ -56154,7 +56308,7 @@
       <c r="J16" s="35" t="s">
         <v>656</v>
       </c>
-      <c r="K16" s="195"/>
+      <c r="K16" s="196"/>
     </row>
     <row r="17" spans="1:11" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A17" s="31">
@@ -56187,7 +56341,7 @@
       <c r="J17" s="35" t="s">
         <v>656</v>
       </c>
-      <c r="K17" s="195"/>
+      <c r="K17" s="196"/>
     </row>
     <row r="18" spans="1:11" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A18" s="31">
@@ -56220,7 +56374,7 @@
       <c r="J18" s="35" t="s">
         <v>656</v>
       </c>
-      <c r="K18" s="195"/>
+      <c r="K18" s="196"/>
     </row>
     <row r="19" spans="1:11" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A19" s="31">
@@ -56253,7 +56407,7 @@
       <c r="J19" s="35" t="s">
         <v>656</v>
       </c>
-      <c r="K19" s="195"/>
+      <c r="K19" s="196"/>
     </row>
     <row r="20" spans="1:11" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A20" s="31">
@@ -56286,7 +56440,7 @@
       <c r="J20" s="35" t="s">
         <v>656</v>
       </c>
-      <c r="K20" s="195"/>
+      <c r="K20" s="196"/>
     </row>
     <row r="21" spans="1:11" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A21" s="31">
@@ -56319,7 +56473,7 @@
       <c r="J21" s="35" t="s">
         <v>656</v>
       </c>
-      <c r="K21" s="195"/>
+      <c r="K21" s="196"/>
     </row>
     <row r="22" spans="1:11" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A22" s="31">
@@ -56352,7 +56506,7 @@
       <c r="J22" s="35" t="s">
         <v>656</v>
       </c>
-      <c r="K22" s="195"/>
+      <c r="K22" s="196"/>
     </row>
     <row r="23" spans="1:11" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A23" s="31">
@@ -56385,7 +56539,7 @@
       <c r="J23" s="35" t="s">
         <v>656</v>
       </c>
-      <c r="K23" s="195"/>
+      <c r="K23" s="196"/>
     </row>
     <row r="24" spans="1:11" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A24" s="31">
@@ -56418,7 +56572,7 @@
       <c r="J24" s="35" t="s">
         <v>656</v>
       </c>
-      <c r="K24" s="195"/>
+      <c r="K24" s="196"/>
     </row>
     <row r="25" spans="1:11" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A25" s="31">
@@ -56451,7 +56605,7 @@
       <c r="J25" s="35" t="s">
         <v>656</v>
       </c>
-      <c r="K25" s="195"/>
+      <c r="K25" s="196"/>
     </row>
     <row r="26" spans="1:11" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A26" s="31">
@@ -56484,7 +56638,7 @@
       <c r="J26" s="35" t="s">
         <v>656</v>
       </c>
-      <c r="K26" s="195"/>
+      <c r="K26" s="196"/>
     </row>
     <row r="27" spans="1:11" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A27" s="31">
@@ -56517,7 +56671,7 @@
       <c r="J27" s="35" t="s">
         <v>656</v>
       </c>
-      <c r="K27" s="195"/>
+      <c r="K27" s="196"/>
     </row>
     <row r="28" spans="1:11" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A28" s="31">
@@ -56550,7 +56704,7 @@
       <c r="J28" s="35" t="s">
         <v>656</v>
       </c>
-      <c r="K28" s="195"/>
+      <c r="K28" s="196"/>
     </row>
     <row r="29" spans="1:11" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A29" s="31">
@@ -56583,7 +56737,7 @@
       <c r="J29" s="35" t="s">
         <v>656</v>
       </c>
-      <c r="K29" s="195"/>
+      <c r="K29" s="196"/>
     </row>
     <row r="30" spans="1:11" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A30" s="31">
@@ -56616,7 +56770,7 @@
       <c r="J30" s="35" t="s">
         <v>656</v>
       </c>
-      <c r="K30" s="195"/>
+      <c r="K30" s="196"/>
     </row>
     <row r="31" spans="1:11" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A31" s="31">
@@ -56649,7 +56803,7 @@
       <c r="J31" s="35" t="s">
         <v>656</v>
       </c>
-      <c r="K31" s="195"/>
+      <c r="K31" s="196"/>
     </row>
     <row r="32" spans="1:11" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A32" s="31">
@@ -56682,7 +56836,7 @@
       <c r="J32" s="35" t="s">
         <v>656</v>
       </c>
-      <c r="K32" s="195"/>
+      <c r="K32" s="196"/>
     </row>
     <row r="33" spans="1:11" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A33" s="31">
@@ -56715,7 +56869,7 @@
       <c r="J33" s="35" t="s">
         <v>656</v>
       </c>
-      <c r="K33" s="195"/>
+      <c r="K33" s="196"/>
     </row>
     <row r="34" spans="1:11" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A34" s="31">
@@ -56748,7 +56902,7 @@
       <c r="J34" s="35" t="s">
         <v>656</v>
       </c>
-      <c r="K34" s="195"/>
+      <c r="K34" s="196"/>
     </row>
     <row r="35" spans="1:11" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A35" s="31">
@@ -56781,7 +56935,7 @@
       <c r="J35" s="35" t="s">
         <v>656</v>
       </c>
-      <c r="K35" s="195"/>
+      <c r="K35" s="196"/>
     </row>
     <row r="36" spans="1:11" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A36" s="31">
@@ -56814,7 +56968,7 @@
       <c r="J36" s="35" t="s">
         <v>656</v>
       </c>
-      <c r="K36" s="195"/>
+      <c r="K36" s="196"/>
     </row>
     <row r="37" spans="1:11" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A37" s="31">
@@ -56847,7 +57001,7 @@
       <c r="J37" s="35" t="s">
         <v>656</v>
       </c>
-      <c r="K37" s="195"/>
+      <c r="K37" s="196"/>
     </row>
     <row r="38" spans="1:11" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A38" s="31">
@@ -56880,7 +57034,7 @@
       <c r="J38" s="35" t="s">
         <v>656</v>
       </c>
-      <c r="K38" s="195"/>
+      <c r="K38" s="196"/>
     </row>
     <row r="39" spans="1:11" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A39" s="31">
@@ -56913,7 +57067,7 @@
       <c r="J39" s="35" t="s">
         <v>656</v>
       </c>
-      <c r="K39" s="195"/>
+      <c r="K39" s="196"/>
     </row>
     <row r="40" spans="1:11" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A40" s="31">
@@ -56946,7 +57100,7 @@
       <c r="J40" s="35" t="s">
         <v>656</v>
       </c>
-      <c r="K40" s="195"/>
+      <c r="K40" s="196"/>
     </row>
     <row r="41" spans="1:11" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A41" s="31">
@@ -56979,7 +57133,7 @@
       <c r="J41" s="35" t="s">
         <v>656</v>
       </c>
-      <c r="K41" s="195"/>
+      <c r="K41" s="196"/>
     </row>
     <row r="42" spans="1:11" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A42" s="31">
@@ -57012,7 +57166,7 @@
       <c r="J42" s="35" t="s">
         <v>656</v>
       </c>
-      <c r="K42" s="195"/>
+      <c r="K42" s="196"/>
     </row>
     <row r="43" spans="1:11" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A43" s="31">
@@ -57045,7 +57199,7 @@
       <c r="J43" s="35" t="s">
         <v>656</v>
       </c>
-      <c r="K43" s="195"/>
+      <c r="K43" s="196"/>
     </row>
     <row r="44" spans="1:11" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A44" s="31">
@@ -57078,7 +57232,7 @@
       <c r="J44" s="35" t="s">
         <v>656</v>
       </c>
-      <c r="K44" s="195"/>
+      <c r="K44" s="196"/>
     </row>
     <row r="45" spans="1:11" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A45" s="31">
@@ -57111,7 +57265,7 @@
       <c r="J45" s="35" t="s">
         <v>656</v>
       </c>
-      <c r="K45" s="195"/>
+      <c r="K45" s="196"/>
     </row>
     <row r="46" spans="1:11" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A46" s="31">
@@ -57144,7 +57298,7 @@
       <c r="J46" s="35" t="s">
         <v>656</v>
       </c>
-      <c r="K46" s="195"/>
+      <c r="K46" s="196"/>
     </row>
     <row r="47" spans="1:11" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A47" s="31">
@@ -57177,7 +57331,7 @@
       <c r="J47" s="35" t="s">
         <v>656</v>
       </c>
-      <c r="K47" s="195"/>
+      <c r="K47" s="196"/>
     </row>
     <row r="48" spans="1:11" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A48" s="31">
@@ -57210,7 +57364,7 @@
       <c r="J48" s="35" t="s">
         <v>656</v>
       </c>
-      <c r="K48" s="195"/>
+      <c r="K48" s="196"/>
     </row>
     <row r="49" spans="1:11" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A49" s="31">
@@ -57243,7 +57397,7 @@
       <c r="J49" s="35" t="s">
         <v>656</v>
       </c>
-      <c r="K49" s="195"/>
+      <c r="K49" s="196"/>
     </row>
     <row r="50" spans="1:11" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A50" s="31">
@@ -57276,7 +57430,7 @@
       <c r="J50" s="35" t="s">
         <v>656</v>
       </c>
-      <c r="K50" s="195"/>
+      <c r="K50" s="196"/>
     </row>
     <row r="51" spans="1:11" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A51" s="31">
@@ -57309,7 +57463,7 @@
       <c r="J51" s="35" t="s">
         <v>656</v>
       </c>
-      <c r="K51" s="195"/>
+      <c r="K51" s="196"/>
     </row>
     <row r="52" spans="1:11" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A52" s="31">
@@ -57342,7 +57496,7 @@
       <c r="J52" s="35" t="s">
         <v>656</v>
       </c>
-      <c r="K52" s="195"/>
+      <c r="K52" s="196"/>
     </row>
     <row r="53" spans="1:11" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A53" s="31">
@@ -57375,7 +57529,7 @@
       <c r="J53" s="35" t="s">
         <v>656</v>
       </c>
-      <c r="K53" s="195"/>
+      <c r="K53" s="196"/>
     </row>
     <row r="54" spans="1:11" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A54" s="31">
@@ -57408,7 +57562,7 @@
       <c r="J54" s="35" t="s">
         <v>656</v>
       </c>
-      <c r="K54" s="195"/>
+      <c r="K54" s="196"/>
     </row>
     <row r="55" spans="1:11" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A55" s="31">
@@ -57441,7 +57595,7 @@
       <c r="J55" s="35" t="s">
         <v>656</v>
       </c>
-      <c r="K55" s="195"/>
+      <c r="K55" s="196"/>
     </row>
     <row r="56" spans="1:11" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A56" s="31">
@@ -57474,7 +57628,7 @@
       <c r="J56" s="35" t="s">
         <v>656</v>
       </c>
-      <c r="K56" s="195"/>
+      <c r="K56" s="196"/>
     </row>
     <row r="57" spans="1:11" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A57" s="31">
@@ -57507,7 +57661,7 @@
       <c r="J57" s="35" t="s">
         <v>656</v>
       </c>
-      <c r="K57" s="195"/>
+      <c r="K57" s="196"/>
     </row>
     <row r="58" spans="1:11" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A58" s="31">
@@ -57540,7 +57694,7 @@
       <c r="J58" s="35" t="s">
         <v>656</v>
       </c>
-      <c r="K58" s="195"/>
+      <c r="K58" s="196"/>
     </row>
     <row r="59" spans="1:11" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A59" s="31">
@@ -57573,7 +57727,7 @@
       <c r="J59" s="35" t="s">
         <v>656</v>
       </c>
-      <c r="K59" s="195"/>
+      <c r="K59" s="196"/>
     </row>
     <row r="60" spans="1:11" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A60" s="31">
@@ -57606,7 +57760,7 @@
       <c r="J60" s="35" t="s">
         <v>656</v>
       </c>
-      <c r="K60" s="195"/>
+      <c r="K60" s="196"/>
     </row>
     <row r="61" spans="1:11" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A61" s="31">
@@ -57639,7 +57793,7 @@
       <c r="J61" s="35" t="s">
         <v>656</v>
       </c>
-      <c r="K61" s="195"/>
+      <c r="K61" s="196"/>
     </row>
     <row r="62" spans="1:11" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A62" s="31">
@@ -57672,7 +57826,7 @@
       <c r="J62" s="35" t="s">
         <v>656</v>
       </c>
-      <c r="K62" s="195"/>
+      <c r="K62" s="196"/>
     </row>
     <row r="63" spans="1:11" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A63" s="31">
@@ -57705,7 +57859,7 @@
       <c r="J63" s="35" t="s">
         <v>656</v>
       </c>
-      <c r="K63" s="195"/>
+      <c r="K63" s="196"/>
     </row>
     <row r="64" spans="1:11" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A64" s="31">
@@ -57738,7 +57892,7 @@
       <c r="J64" s="35" t="s">
         <v>656</v>
       </c>
-      <c r="K64" s="195"/>
+      <c r="K64" s="196"/>
     </row>
     <row r="65" spans="1:11" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A65" s="31">
@@ -57771,7 +57925,7 @@
       <c r="J65" s="35" t="s">
         <v>656</v>
       </c>
-      <c r="K65" s="195"/>
+      <c r="K65" s="196"/>
     </row>
     <row r="66" spans="1:11" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A66" s="31">
@@ -57804,7 +57958,7 @@
       <c r="J66" s="35" t="s">
         <v>656</v>
       </c>
-      <c r="K66" s="195"/>
+      <c r="K66" s="196"/>
     </row>
     <row r="67" spans="1:11" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A67" s="25">
@@ -58231,7 +58385,7 @@
       <c r="J79" s="35" t="s">
         <v>656</v>
       </c>
-      <c r="K79" s="195" t="s">
+      <c r="K79" s="196" t="s">
         <v>756</v>
       </c>
     </row>
@@ -58266,7 +58420,7 @@
       <c r="J80" s="35" t="s">
         <v>656</v>
       </c>
-      <c r="K80" s="195"/>
+      <c r="K80" s="196"/>
     </row>
     <row r="81" spans="1:11" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A81" s="31">
@@ -58299,7 +58453,7 @@
       <c r="J81" s="35" t="s">
         <v>656</v>
       </c>
-      <c r="K81" s="195"/>
+      <c r="K81" s="196"/>
     </row>
     <row r="82" spans="1:11" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A82" s="31">
@@ -58332,7 +58486,7 @@
       <c r="J82" s="35" t="s">
         <v>656</v>
       </c>
-      <c r="K82" s="195"/>
+      <c r="K82" s="196"/>
     </row>
     <row r="83" spans="1:11" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A83" s="31">
@@ -58365,7 +58519,7 @@
       <c r="J83" s="35" t="s">
         <v>656</v>
       </c>
-      <c r="K83" s="195"/>
+      <c r="K83" s="196"/>
     </row>
     <row r="84" spans="1:11" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A84" s="31">
@@ -58398,7 +58552,7 @@
       <c r="J84" s="35" t="s">
         <v>656</v>
       </c>
-      <c r="K84" s="195"/>
+      <c r="K84" s="196"/>
     </row>
     <row r="85" spans="1:11" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A85" s="1">
@@ -58431,7 +58585,7 @@
       <c r="J85" s="22" t="s">
         <v>777</v>
       </c>
-      <c r="K85" s="195"/>
+      <c r="K85" s="196"/>
     </row>
     <row r="86" spans="1:11" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A86" s="31">

--- a/TUAN/HOSO2024-BPKT.xlsx
+++ b/TUAN/HOSO2024-BPKT.xlsx
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4437" uniqueCount="1603">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4465" uniqueCount="1605">
   <si>
     <t>Ngày</t>
   </si>
@@ -4865,6 +4865,12 @@
   </si>
   <si>
     <t>99;70 (101)</t>
+  </si>
+  <si>
+    <t>HS nộp lại</t>
+  </si>
+  <si>
+    <t>180;150</t>
   </si>
 </sst>
 </file>
@@ -5728,13 +5734,13 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="1" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -6100,8 +6106,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:Q2009"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A343" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H365" sqref="H365"/>
+    <sheetView tabSelected="1" topLeftCell="A244" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F273" sqref="F273"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -14625,43 +14631,46 @@
       </c>
       <c r="P202" s="71"/>
     </row>
-    <row r="203" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A203" s="81">
+    <row r="203" spans="1:17" s="139" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A203" s="104">
         <v>202</v>
       </c>
-      <c r="B203" s="13">
+      <c r="B203" s="105">
         <v>20</v>
       </c>
-      <c r="C203" s="13">
+      <c r="C203" s="105">
         <v>2</v>
       </c>
-      <c r="D203" s="13">
+      <c r="D203" s="105">
         <v>2024</v>
       </c>
-      <c r="E203" s="2" t="s">
+      <c r="E203" s="106" t="s">
         <v>1195</v>
       </c>
-      <c r="F203" s="21" t="s">
+      <c r="F203" s="109" t="s">
         <v>444</v>
       </c>
-      <c r="G203" s="147"/>
-      <c r="H203" s="133"/>
-      <c r="I203" s="13" t="s">
+      <c r="G203" s="148"/>
+      <c r="H203" s="134"/>
+      <c r="I203" s="105" t="s">
         <v>4</v>
       </c>
-      <c r="J203" s="14" t="s">
+      <c r="J203" s="108" t="s">
         <v>1248</v>
       </c>
       <c r="K203" s="112">
         <v>45376</v>
       </c>
-      <c r="L203" s="69" t="s">
+      <c r="L203" s="107" t="s">
         <v>1294</v>
       </c>
-      <c r="M203" s="114"/>
-      <c r="N203" s="71"/>
-      <c r="O203" s="71"/>
-      <c r="P203" s="71"/>
+      <c r="M203" s="113"/>
+      <c r="N203" s="110"/>
+      <c r="O203" s="110"/>
+      <c r="P203" s="110" t="s">
+        <v>846</v>
+      </c>
+      <c r="Q203" s="138"/>
     </row>
     <row r="204" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A204" s="104">
@@ -14744,119 +14753,128 @@
       </c>
       <c r="Q205" s="138"/>
     </row>
-    <row r="206" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A206" s="81">
+    <row r="206" spans="1:17" s="139" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A206" s="104">
         <v>205</v>
       </c>
-      <c r="B206" s="13">
+      <c r="B206" s="105">
         <v>20</v>
       </c>
-      <c r="C206" s="13">
+      <c r="C206" s="105">
         <v>2</v>
       </c>
-      <c r="D206" s="13">
+      <c r="D206" s="105">
         <v>2024</v>
       </c>
-      <c r="E206" s="2" t="s">
+      <c r="E206" s="106" t="s">
         <v>1198</v>
       </c>
-      <c r="F206" s="21" t="s">
+      <c r="F206" s="109" t="s">
         <v>14</v>
       </c>
-      <c r="G206" s="147"/>
-      <c r="H206" s="133"/>
-      <c r="I206" s="13" t="s">
+      <c r="G206" s="148"/>
+      <c r="H206" s="134"/>
+      <c r="I206" s="105" t="s">
         <v>4</v>
       </c>
-      <c r="J206" s="14" t="s">
+      <c r="J206" s="108" t="s">
         <v>1251</v>
       </c>
       <c r="K206" s="112">
         <v>45383</v>
       </c>
-      <c r="L206" s="69" t="s">
+      <c r="L206" s="107" t="s">
         <v>1294</v>
       </c>
-      <c r="M206" s="114"/>
-      <c r="N206" s="71"/>
-      <c r="O206" s="71"/>
-      <c r="P206" s="71"/>
-    </row>
-    <row r="207" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A207" s="81">
+      <c r="M206" s="113"/>
+      <c r="N206" s="110"/>
+      <c r="O206" s="110"/>
+      <c r="P206" s="110" t="s">
+        <v>846</v>
+      </c>
+      <c r="Q206" s="138"/>
+    </row>
+    <row r="207" spans="1:17" s="139" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A207" s="104">
         <v>206</v>
       </c>
-      <c r="B207" s="13">
+      <c r="B207" s="105">
         <v>20</v>
       </c>
-      <c r="C207" s="13">
+      <c r="C207" s="105">
         <v>2</v>
       </c>
-      <c r="D207" s="13">
+      <c r="D207" s="105">
         <v>2024</v>
       </c>
-      <c r="E207" s="2" t="s">
+      <c r="E207" s="106" t="s">
         <v>1199</v>
       </c>
-      <c r="F207" s="21" t="s">
+      <c r="F207" s="109" t="s">
         <v>14</v>
       </c>
-      <c r="G207" s="147"/>
-      <c r="H207" s="133"/>
-      <c r="I207" s="13" t="s">
+      <c r="G207" s="148"/>
+      <c r="H207" s="134"/>
+      <c r="I207" s="105" t="s">
         <v>4</v>
       </c>
-      <c r="J207" s="14" t="s">
+      <c r="J207" s="108" t="s">
         <v>1252</v>
       </c>
       <c r="K207" s="112">
         <v>45383</v>
       </c>
-      <c r="L207" s="69" t="s">
+      <c r="L207" s="107" t="s">
         <v>1294</v>
       </c>
-      <c r="M207" s="114"/>
-      <c r="N207" s="71"/>
-      <c r="O207" s="71"/>
-      <c r="P207" s="71"/>
-    </row>
-    <row r="208" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A208" s="81">
+      <c r="M207" s="113"/>
+      <c r="N207" s="110"/>
+      <c r="O207" s="110"/>
+      <c r="P207" s="110" t="s">
+        <v>846</v>
+      </c>
+      <c r="Q207" s="138"/>
+    </row>
+    <row r="208" spans="1:17" s="139" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A208" s="104">
         <v>207</v>
       </c>
-      <c r="B208" s="13">
+      <c r="B208" s="105">
         <v>21</v>
       </c>
-      <c r="C208" s="13">
+      <c r="C208" s="105">
         <v>2</v>
       </c>
-      <c r="D208" s="13">
+      <c r="D208" s="105">
         <v>2024</v>
       </c>
-      <c r="E208" s="2" t="s">
+      <c r="E208" s="106" t="s">
         <v>1200</v>
       </c>
-      <c r="F208" s="21" t="s">
+      <c r="F208" s="109" t="s">
         <v>444</v>
       </c>
-      <c r="G208" s="147"/>
-      <c r="H208" s="133"/>
-      <c r="I208" s="13" t="s">
+      <c r="G208" s="148"/>
+      <c r="H208" s="134"/>
+      <c r="I208" s="105" t="s">
         <v>123</v>
       </c>
-      <c r="J208" s="14" t="s">
+      <c r="J208" s="108" t="s">
         <v>1253</v>
       </c>
       <c r="K208" s="112">
         <v>45377</v>
       </c>
-      <c r="L208" s="69" t="s">
+      <c r="L208" s="107" t="s">
         <v>1294</v>
       </c>
-      <c r="M208" s="114"/>
-      <c r="N208" s="71"/>
-      <c r="O208" s="71"/>
-      <c r="P208" s="71"/>
+      <c r="M208" s="113"/>
+      <c r="N208" s="110"/>
+      <c r="O208" s="110"/>
+      <c r="P208" s="110" t="s">
+        <v>846</v>
+      </c>
+      <c r="Q208" s="138"/>
     </row>
     <row r="209" spans="1:17" s="139" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A209" s="104">
@@ -15741,43 +15759,46 @@
       </c>
       <c r="P229" s="71"/>
     </row>
-    <row r="230" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A230" s="81">
+    <row r="230" spans="1:17" s="139" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A230" s="104">
         <v>229</v>
       </c>
-      <c r="B230" s="13">
+      <c r="B230" s="105">
         <v>26</v>
       </c>
-      <c r="C230" s="13">
+      <c r="C230" s="105">
         <v>2</v>
       </c>
-      <c r="D230" s="13">
+      <c r="D230" s="105">
         <v>2024</v>
       </c>
-      <c r="E230" s="2" t="s">
+      <c r="E230" s="106" t="s">
         <v>53</v>
       </c>
-      <c r="F230" s="21" t="s">
+      <c r="F230" s="109" t="s">
         <v>444</v>
       </c>
-      <c r="G230" s="147"/>
-      <c r="H230" s="133"/>
-      <c r="I230" s="13" t="s">
+      <c r="G230" s="148"/>
+      <c r="H230" s="134"/>
+      <c r="I230" s="105" t="s">
         <v>4</v>
       </c>
-      <c r="J230" s="14" t="s">
+      <c r="J230" s="108" t="s">
         <v>1268</v>
       </c>
       <c r="K230" s="112">
         <v>45380</v>
       </c>
-      <c r="L230" s="69" t="s">
+      <c r="L230" s="107" t="s">
         <v>1294</v>
       </c>
-      <c r="M230" s="114"/>
-      <c r="N230" s="71"/>
-      <c r="O230" s="71"/>
-      <c r="P230" s="71"/>
+      <c r="M230" s="113"/>
+      <c r="N230" s="110"/>
+      <c r="O230" s="110"/>
+      <c r="P230" s="110" t="s">
+        <v>846</v>
+      </c>
+      <c r="Q230" s="138"/>
     </row>
     <row r="231" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A231" s="81">
@@ -15855,43 +15876,46 @@
       <c r="O232" s="71"/>
       <c r="P232" s="71"/>
     </row>
-    <row r="233" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A233" s="81">
+    <row r="233" spans="1:17" s="139" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A233" s="104">
         <v>232</v>
       </c>
-      <c r="B233" s="13">
+      <c r="B233" s="105">
         <v>26</v>
       </c>
-      <c r="C233" s="13">
+      <c r="C233" s="105">
         <v>2</v>
       </c>
-      <c r="D233" s="13">
+      <c r="D233" s="105">
         <v>2024</v>
       </c>
-      <c r="E233" s="2" t="s">
+      <c r="E233" s="106" t="s">
         <v>1219</v>
       </c>
-      <c r="F233" s="21" t="s">
+      <c r="F233" s="109" t="s">
         <v>444</v>
       </c>
-      <c r="G233" s="147"/>
-      <c r="H233" s="133"/>
-      <c r="I233" s="13" t="s">
+      <c r="G233" s="148"/>
+      <c r="H233" s="134"/>
+      <c r="I233" s="105" t="s">
         <v>4</v>
       </c>
-      <c r="J233" s="14" t="s">
+      <c r="J233" s="108" t="s">
         <v>1271</v>
       </c>
       <c r="K233" s="112">
         <v>45380</v>
       </c>
-      <c r="L233" s="69" t="s">
+      <c r="L233" s="107" t="s">
         <v>1294</v>
       </c>
-      <c r="M233" s="114"/>
-      <c r="N233" s="71"/>
-      <c r="O233" s="71"/>
-      <c r="P233" s="71"/>
+      <c r="M233" s="113"/>
+      <c r="N233" s="110"/>
+      <c r="O233" s="110"/>
+      <c r="P233" s="110" t="s">
+        <v>846</v>
+      </c>
+      <c r="Q233" s="138"/>
     </row>
     <row r="234" spans="1:17" s="139" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A234" s="104">
@@ -16336,10 +16360,10 @@
       <c r="F244" s="155" t="s">
         <v>1402</v>
       </c>
-      <c r="G244" s="197" t="s">
+      <c r="G244" s="195" t="s">
         <v>1599</v>
       </c>
-      <c r="H244" s="197" t="s">
+      <c r="H244" s="195" t="s">
         <v>1600</v>
       </c>
       <c r="I244" s="1" t="s">
@@ -17248,43 +17272,46 @@
       </c>
       <c r="Q266" s="123"/>
     </row>
-    <row r="267" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A267" s="81">
+    <row r="267" spans="1:17" s="139" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A267" s="104">
         <v>266</v>
       </c>
-      <c r="B267" s="13">
+      <c r="B267" s="105">
         <v>4</v>
       </c>
-      <c r="C267" s="13">
+      <c r="C267" s="105">
         <v>3</v>
       </c>
-      <c r="D267" s="13">
+      <c r="D267" s="105">
         <v>2024</v>
       </c>
-      <c r="E267" s="2" t="s">
+      <c r="E267" s="106" t="s">
         <v>1307</v>
       </c>
-      <c r="F267" s="21" t="s">
+      <c r="F267" s="109" t="s">
         <v>444</v>
       </c>
-      <c r="G267" s="147"/>
-      <c r="H267" s="133"/>
-      <c r="I267" s="13" t="s">
+      <c r="G267" s="148"/>
+      <c r="H267" s="134"/>
+      <c r="I267" s="105" t="s">
         <v>10</v>
       </c>
-      <c r="J267" s="14" t="s">
+      <c r="J267" s="108" t="s">
         <v>1358</v>
       </c>
       <c r="K267" s="109">
         <v>45387</v>
       </c>
-      <c r="L267" s="69" t="s">
+      <c r="L267" s="107" t="s">
         <v>1295</v>
       </c>
-      <c r="M267" s="114"/>
-      <c r="N267" s="71"/>
-      <c r="O267" s="71"/>
-      <c r="P267" s="71"/>
+      <c r="M267" s="113"/>
+      <c r="N267" s="110"/>
+      <c r="O267" s="110"/>
+      <c r="P267" s="110" t="s">
+        <v>846</v>
+      </c>
+      <c r="Q267" s="138"/>
     </row>
     <row r="268" spans="1:17" s="124" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A268" s="104">
@@ -17855,8 +17882,12 @@
       <c r="F282" s="21" t="s">
         <v>444</v>
       </c>
-      <c r="G282" s="147"/>
-      <c r="H282" s="133"/>
+      <c r="G282" s="147">
+        <v>2</v>
+      </c>
+      <c r="H282" s="147">
+        <v>209</v>
+      </c>
       <c r="I282" s="13" t="s">
         <v>73</v>
       </c>
@@ -17869,9 +17900,15 @@
       <c r="L282" s="69" t="s">
         <v>1297</v>
       </c>
-      <c r="M282" s="114"/>
-      <c r="N282" s="71"/>
-      <c r="O282" s="71"/>
+      <c r="M282" s="114">
+        <v>45385</v>
+      </c>
+      <c r="N282" s="71">
+        <v>4</v>
+      </c>
+      <c r="O282" s="71">
+        <v>1</v>
+      </c>
       <c r="P282" s="71"/>
     </row>
     <row r="283" spans="1:17" s="139" customFormat="1" x14ac:dyDescent="0.25">
@@ -23692,7 +23729,7 @@
         <v>45421</v>
       </c>
       <c r="L428" s="69" t="s">
-        <v>1297</v>
+        <v>1295</v>
       </c>
       <c r="M428" s="114"/>
       <c r="N428" s="71"/>
@@ -23718,8 +23755,12 @@
       <c r="F429" s="163" t="s">
         <v>444</v>
       </c>
-      <c r="G429" s="71"/>
-      <c r="H429" s="69"/>
+      <c r="G429" s="71">
+        <v>11</v>
+      </c>
+      <c r="H429" s="69">
+        <v>265</v>
+      </c>
       <c r="I429" s="13" t="s">
         <v>993</v>
       </c>
@@ -23730,11 +23771,17 @@
         <v>45415</v>
       </c>
       <c r="L429" s="69" t="s">
-        <v>1297</v>
-      </c>
-      <c r="M429" s="114"/>
-      <c r="N429" s="71"/>
-      <c r="O429" s="71"/>
+        <v>1295</v>
+      </c>
+      <c r="M429" s="114">
+        <v>45385</v>
+      </c>
+      <c r="N429" s="71">
+        <v>4</v>
+      </c>
+      <c r="O429" s="71">
+        <v>1</v>
+      </c>
       <c r="P429" s="71"/>
     </row>
     <row r="430" spans="1:16" x14ac:dyDescent="0.25">
@@ -24279,15 +24326,29 @@
       <c r="C443" s="73"/>
       <c r="D443" s="73"/>
       <c r="E443" s="74"/>
-      <c r="F443" s="81"/>
-      <c r="G443" s="71"/>
-      <c r="H443" s="69"/>
+      <c r="F443" s="163" t="s">
+        <v>444</v>
+      </c>
+      <c r="G443" s="71">
+        <v>14</v>
+      </c>
+      <c r="H443" s="69">
+        <v>321</v>
+      </c>
       <c r="I443" s="69"/>
       <c r="J443" s="76"/>
-      <c r="L443" s="69"/>
-      <c r="M443" s="114"/>
-      <c r="N443" s="71"/>
-      <c r="O443" s="71"/>
+      <c r="L443" s="69" t="s">
+        <v>1295</v>
+      </c>
+      <c r="M443" s="114">
+        <v>45385</v>
+      </c>
+      <c r="N443" s="71">
+        <v>4</v>
+      </c>
+      <c r="O443" s="71">
+        <v>1</v>
+      </c>
       <c r="P443" s="71"/>
     </row>
     <row r="444" spans="1:16" x14ac:dyDescent="0.25">
@@ -25196,16 +25257,32 @@
       <c r="C490" s="73"/>
       <c r="D490" s="73"/>
       <c r="E490" s="74"/>
-      <c r="F490" s="81"/>
-      <c r="G490" s="71"/>
-      <c r="H490" s="69"/>
+      <c r="F490" s="81" t="s">
+        <v>444</v>
+      </c>
+      <c r="G490" s="71">
+        <v>10</v>
+      </c>
+      <c r="H490" s="69">
+        <v>252</v>
+      </c>
       <c r="I490" s="69"/>
       <c r="J490" s="76"/>
-      <c r="L490" s="69"/>
-      <c r="M490" s="114"/>
-      <c r="N490" s="71"/>
-      <c r="O490" s="71"/>
-      <c r="P490" s="69"/>
+      <c r="L490" s="70" t="s">
+        <v>1295</v>
+      </c>
+      <c r="M490" s="114">
+        <v>45385</v>
+      </c>
+      <c r="N490" s="71">
+        <v>4</v>
+      </c>
+      <c r="O490" s="71">
+        <v>1</v>
+      </c>
+      <c r="P490" s="69" t="s">
+        <v>1603</v>
+      </c>
     </row>
     <row r="491" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A491" s="81">
@@ -25215,16 +25292,32 @@
       <c r="C491" s="73"/>
       <c r="D491" s="73"/>
       <c r="E491" s="74"/>
-      <c r="F491" s="81"/>
-      <c r="G491" s="71"/>
-      <c r="H491" s="69"/>
+      <c r="F491" s="81" t="s">
+        <v>444</v>
+      </c>
+      <c r="G491" s="71">
+        <v>30</v>
+      </c>
+      <c r="H491" s="69">
+        <v>107</v>
+      </c>
       <c r="I491" s="69"/>
       <c r="J491" s="76"/>
-      <c r="L491" s="69"/>
-      <c r="M491" s="114"/>
-      <c r="N491" s="71"/>
-      <c r="O491" s="71"/>
-      <c r="P491" s="69"/>
+      <c r="L491" s="70" t="s">
+        <v>1295</v>
+      </c>
+      <c r="M491" s="114">
+        <v>45385</v>
+      </c>
+      <c r="N491" s="71">
+        <v>4</v>
+      </c>
+      <c r="O491" s="71">
+        <v>1</v>
+      </c>
+      <c r="P491" s="69" t="s">
+        <v>1603</v>
+      </c>
     </row>
     <row r="492" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A492" s="81">
@@ -25234,16 +25327,32 @@
       <c r="C492" s="73"/>
       <c r="D492" s="73"/>
       <c r="E492" s="74"/>
-      <c r="F492" s="81"/>
-      <c r="G492" s="71"/>
-      <c r="H492" s="69"/>
+      <c r="F492" s="81" t="s">
+        <v>444</v>
+      </c>
+      <c r="G492" s="71">
+        <v>30</v>
+      </c>
+      <c r="H492" s="69">
+        <v>131</v>
+      </c>
       <c r="I492" s="69"/>
       <c r="J492" s="76"/>
-      <c r="L492" s="69"/>
-      <c r="M492" s="114"/>
-      <c r="N492" s="71"/>
-      <c r="O492" s="71"/>
-      <c r="P492" s="71"/>
+      <c r="L492" s="70" t="s">
+        <v>1295</v>
+      </c>
+      <c r="M492" s="114">
+        <v>45385</v>
+      </c>
+      <c r="N492" s="71">
+        <v>4</v>
+      </c>
+      <c r="O492" s="71">
+        <v>1</v>
+      </c>
+      <c r="P492" s="69" t="s">
+        <v>1603</v>
+      </c>
     </row>
     <row r="493" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A493" s="81">
@@ -25253,16 +25362,32 @@
       <c r="C493" s="73"/>
       <c r="D493" s="73"/>
       <c r="E493" s="74"/>
-      <c r="F493" s="81"/>
-      <c r="G493" s="71"/>
-      <c r="H493" s="69"/>
+      <c r="F493" s="81" t="s">
+        <v>444</v>
+      </c>
+      <c r="G493" s="71">
+        <v>30</v>
+      </c>
+      <c r="H493" s="69">
+        <v>201</v>
+      </c>
       <c r="I493" s="69"/>
       <c r="J493" s="76"/>
-      <c r="L493" s="69"/>
-      <c r="M493" s="114"/>
-      <c r="N493" s="71"/>
-      <c r="O493" s="71"/>
-      <c r="P493" s="71"/>
+      <c r="L493" s="70" t="s">
+        <v>1295</v>
+      </c>
+      <c r="M493" s="114">
+        <v>45385</v>
+      </c>
+      <c r="N493" s="71">
+        <v>4</v>
+      </c>
+      <c r="O493" s="71">
+        <v>1</v>
+      </c>
+      <c r="P493" s="69" t="s">
+        <v>1603</v>
+      </c>
     </row>
     <row r="494" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A494" s="81">
@@ -25272,16 +25397,32 @@
       <c r="C494" s="73"/>
       <c r="D494" s="73"/>
       <c r="E494" s="74"/>
-      <c r="F494" s="81"/>
-      <c r="G494" s="71"/>
-      <c r="H494" s="69"/>
+      <c r="F494" s="81" t="s">
+        <v>444</v>
+      </c>
+      <c r="G494" s="71">
+        <v>30</v>
+      </c>
+      <c r="H494" s="69" t="s">
+        <v>1604</v>
+      </c>
       <c r="I494" s="69"/>
       <c r="J494" s="76"/>
-      <c r="L494" s="69"/>
-      <c r="M494" s="114"/>
-      <c r="N494" s="71"/>
-      <c r="O494" s="71"/>
-      <c r="P494" s="71"/>
+      <c r="L494" s="70" t="s">
+        <v>1295</v>
+      </c>
+      <c r="M494" s="114">
+        <v>45385</v>
+      </c>
+      <c r="N494" s="71">
+        <v>4</v>
+      </c>
+      <c r="O494" s="71">
+        <v>1</v>
+      </c>
+      <c r="P494" s="69" t="s">
+        <v>1603</v>
+      </c>
     </row>
     <row r="495" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A495" s="81">
@@ -25291,16 +25432,32 @@
       <c r="C495" s="73"/>
       <c r="D495" s="73"/>
       <c r="E495" s="74"/>
-      <c r="F495" s="81"/>
-      <c r="G495" s="71"/>
-      <c r="H495" s="69"/>
+      <c r="F495" s="81" t="s">
+        <v>444</v>
+      </c>
+      <c r="G495" s="71">
+        <v>39</v>
+      </c>
+      <c r="H495" s="69">
+        <v>187</v>
+      </c>
       <c r="I495" s="69"/>
       <c r="J495" s="76"/>
-      <c r="L495" s="69"/>
-      <c r="M495" s="114"/>
-      <c r="N495" s="71"/>
-      <c r="O495" s="71"/>
-      <c r="P495" s="69"/>
+      <c r="L495" s="70" t="s">
+        <v>1295</v>
+      </c>
+      <c r="M495" s="114">
+        <v>45385</v>
+      </c>
+      <c r="N495" s="71">
+        <v>4</v>
+      </c>
+      <c r="O495" s="71">
+        <v>1</v>
+      </c>
+      <c r="P495" s="69" t="s">
+        <v>1603</v>
+      </c>
     </row>
     <row r="496" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A496" s="81">
@@ -53769,13 +53926,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="195" t="s">
+      <c r="A1" s="196" t="s">
         <v>647</v>
       </c>
-      <c r="B1" s="195"/>
-      <c r="C1" s="195"/>
-      <c r="D1" s="195"/>
-      <c r="E1" s="195"/>
+      <c r="B1" s="196"/>
+      <c r="C1" s="196"/>
+      <c r="D1" s="196"/>
+      <c r="E1" s="196"/>
     </row>
     <row r="2" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="17" t="s">
@@ -56207,7 +56364,7 @@
       <c r="J13" s="35" t="s">
         <v>656</v>
       </c>
-      <c r="K13" s="196" t="s">
+      <c r="K13" s="197" t="s">
         <v>756</v>
       </c>
     </row>
@@ -56242,7 +56399,7 @@
       <c r="J14" s="35" t="s">
         <v>656</v>
       </c>
-      <c r="K14" s="196"/>
+      <c r="K14" s="197"/>
     </row>
     <row r="15" spans="1:11" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A15" s="31">
@@ -56275,7 +56432,7 @@
       <c r="J15" s="35" t="s">
         <v>656</v>
       </c>
-      <c r="K15" s="196"/>
+      <c r="K15" s="197"/>
     </row>
     <row r="16" spans="1:11" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A16" s="31">
@@ -56308,7 +56465,7 @@
       <c r="J16" s="35" t="s">
         <v>656</v>
       </c>
-      <c r="K16" s="196"/>
+      <c r="K16" s="197"/>
     </row>
     <row r="17" spans="1:11" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A17" s="31">
@@ -56341,7 +56498,7 @@
       <c r="J17" s="35" t="s">
         <v>656</v>
       </c>
-      <c r="K17" s="196"/>
+      <c r="K17" s="197"/>
     </row>
     <row r="18" spans="1:11" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A18" s="31">
@@ -56374,7 +56531,7 @@
       <c r="J18" s="35" t="s">
         <v>656</v>
       </c>
-      <c r="K18" s="196"/>
+      <c r="K18" s="197"/>
     </row>
     <row r="19" spans="1:11" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A19" s="31">
@@ -56407,7 +56564,7 @@
       <c r="J19" s="35" t="s">
         <v>656</v>
       </c>
-      <c r="K19" s="196"/>
+      <c r="K19" s="197"/>
     </row>
     <row r="20" spans="1:11" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A20" s="31">
@@ -56440,7 +56597,7 @@
       <c r="J20" s="35" t="s">
         <v>656</v>
       </c>
-      <c r="K20" s="196"/>
+      <c r="K20" s="197"/>
     </row>
     <row r="21" spans="1:11" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A21" s="31">
@@ -56473,7 +56630,7 @@
       <c r="J21" s="35" t="s">
         <v>656</v>
       </c>
-      <c r="K21" s="196"/>
+      <c r="K21" s="197"/>
     </row>
     <row r="22" spans="1:11" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A22" s="31">
@@ -56506,7 +56663,7 @@
       <c r="J22" s="35" t="s">
         <v>656</v>
       </c>
-      <c r="K22" s="196"/>
+      <c r="K22" s="197"/>
     </row>
     <row r="23" spans="1:11" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A23" s="31">
@@ -56539,7 +56696,7 @@
       <c r="J23" s="35" t="s">
         <v>656</v>
       </c>
-      <c r="K23" s="196"/>
+      <c r="K23" s="197"/>
     </row>
     <row r="24" spans="1:11" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A24" s="31">
@@ -56572,7 +56729,7 @@
       <c r="J24" s="35" t="s">
         <v>656</v>
       </c>
-      <c r="K24" s="196"/>
+      <c r="K24" s="197"/>
     </row>
     <row r="25" spans="1:11" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A25" s="31">
@@ -56605,7 +56762,7 @@
       <c r="J25" s="35" t="s">
         <v>656</v>
       </c>
-      <c r="K25" s="196"/>
+      <c r="K25" s="197"/>
     </row>
     <row r="26" spans="1:11" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A26" s="31">
@@ -56638,7 +56795,7 @@
       <c r="J26" s="35" t="s">
         <v>656</v>
       </c>
-      <c r="K26" s="196"/>
+      <c r="K26" s="197"/>
     </row>
     <row r="27" spans="1:11" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A27" s="31">
@@ -56671,7 +56828,7 @@
       <c r="J27" s="35" t="s">
         <v>656</v>
       </c>
-      <c r="K27" s="196"/>
+      <c r="K27" s="197"/>
     </row>
     <row r="28" spans="1:11" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A28" s="31">
@@ -56704,7 +56861,7 @@
       <c r="J28" s="35" t="s">
         <v>656</v>
       </c>
-      <c r="K28" s="196"/>
+      <c r="K28" s="197"/>
     </row>
     <row r="29" spans="1:11" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A29" s="31">
@@ -56737,7 +56894,7 @@
       <c r="J29" s="35" t="s">
         <v>656</v>
       </c>
-      <c r="K29" s="196"/>
+      <c r="K29" s="197"/>
     </row>
     <row r="30" spans="1:11" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A30" s="31">
@@ -56770,7 +56927,7 @@
       <c r="J30" s="35" t="s">
         <v>656</v>
       </c>
-      <c r="K30" s="196"/>
+      <c r="K30" s="197"/>
     </row>
     <row r="31" spans="1:11" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A31" s="31">
@@ -56803,7 +56960,7 @@
       <c r="J31" s="35" t="s">
         <v>656</v>
       </c>
-      <c r="K31" s="196"/>
+      <c r="K31" s="197"/>
     </row>
     <row r="32" spans="1:11" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A32" s="31">
@@ -56836,7 +56993,7 @@
       <c r="J32" s="35" t="s">
         <v>656</v>
       </c>
-      <c r="K32" s="196"/>
+      <c r="K32" s="197"/>
     </row>
     <row r="33" spans="1:11" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A33" s="31">
@@ -56869,7 +57026,7 @@
       <c r="J33" s="35" t="s">
         <v>656</v>
       </c>
-      <c r="K33" s="196"/>
+      <c r="K33" s="197"/>
     </row>
     <row r="34" spans="1:11" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A34" s="31">
@@ -56902,7 +57059,7 @@
       <c r="J34" s="35" t="s">
         <v>656</v>
       </c>
-      <c r="K34" s="196"/>
+      <c r="K34" s="197"/>
     </row>
     <row r="35" spans="1:11" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A35" s="31">
@@ -56935,7 +57092,7 @@
       <c r="J35" s="35" t="s">
         <v>656</v>
       </c>
-      <c r="K35" s="196"/>
+      <c r="K35" s="197"/>
     </row>
     <row r="36" spans="1:11" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A36" s="31">
@@ -56968,7 +57125,7 @@
       <c r="J36" s="35" t="s">
         <v>656</v>
       </c>
-      <c r="K36" s="196"/>
+      <c r="K36" s="197"/>
     </row>
     <row r="37" spans="1:11" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A37" s="31">
@@ -57001,7 +57158,7 @@
       <c r="J37" s="35" t="s">
         <v>656</v>
       </c>
-      <c r="K37" s="196"/>
+      <c r="K37" s="197"/>
     </row>
     <row r="38" spans="1:11" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A38" s="31">
@@ -57034,7 +57191,7 @@
       <c r="J38" s="35" t="s">
         <v>656</v>
       </c>
-      <c r="K38" s="196"/>
+      <c r="K38" s="197"/>
     </row>
     <row r="39" spans="1:11" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A39" s="31">
@@ -57067,7 +57224,7 @@
       <c r="J39" s="35" t="s">
         <v>656</v>
       </c>
-      <c r="K39" s="196"/>
+      <c r="K39" s="197"/>
     </row>
     <row r="40" spans="1:11" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A40" s="31">
@@ -57100,7 +57257,7 @@
       <c r="J40" s="35" t="s">
         <v>656</v>
       </c>
-      <c r="K40" s="196"/>
+      <c r="K40" s="197"/>
     </row>
     <row r="41" spans="1:11" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A41" s="31">
@@ -57133,7 +57290,7 @@
       <c r="J41" s="35" t="s">
         <v>656</v>
       </c>
-      <c r="K41" s="196"/>
+      <c r="K41" s="197"/>
     </row>
     <row r="42" spans="1:11" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A42" s="31">
@@ -57166,7 +57323,7 @@
       <c r="J42" s="35" t="s">
         <v>656</v>
       </c>
-      <c r="K42" s="196"/>
+      <c r="K42" s="197"/>
     </row>
     <row r="43" spans="1:11" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A43" s="31">
@@ -57199,7 +57356,7 @@
       <c r="J43" s="35" t="s">
         <v>656</v>
       </c>
-      <c r="K43" s="196"/>
+      <c r="K43" s="197"/>
     </row>
     <row r="44" spans="1:11" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A44" s="31">
@@ -57232,7 +57389,7 @@
       <c r="J44" s="35" t="s">
         <v>656</v>
       </c>
-      <c r="K44" s="196"/>
+      <c r="K44" s="197"/>
     </row>
     <row r="45" spans="1:11" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A45" s="31">
@@ -57265,7 +57422,7 @@
       <c r="J45" s="35" t="s">
         <v>656</v>
       </c>
-      <c r="K45" s="196"/>
+      <c r="K45" s="197"/>
     </row>
     <row r="46" spans="1:11" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A46" s="31">
@@ -57298,7 +57455,7 @@
       <c r="J46" s="35" t="s">
         <v>656</v>
       </c>
-      <c r="K46" s="196"/>
+      <c r="K46" s="197"/>
     </row>
     <row r="47" spans="1:11" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A47" s="31">
@@ -57331,7 +57488,7 @@
       <c r="J47" s="35" t="s">
         <v>656</v>
       </c>
-      <c r="K47" s="196"/>
+      <c r="K47" s="197"/>
     </row>
     <row r="48" spans="1:11" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A48" s="31">
@@ -57364,7 +57521,7 @@
       <c r="J48" s="35" t="s">
         <v>656</v>
       </c>
-      <c r="K48" s="196"/>
+      <c r="K48" s="197"/>
     </row>
     <row r="49" spans="1:11" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A49" s="31">
@@ -57397,7 +57554,7 @@
       <c r="J49" s="35" t="s">
         <v>656</v>
       </c>
-      <c r="K49" s="196"/>
+      <c r="K49" s="197"/>
     </row>
     <row r="50" spans="1:11" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A50" s="31">
@@ -57430,7 +57587,7 @@
       <c r="J50" s="35" t="s">
         <v>656</v>
       </c>
-      <c r="K50" s="196"/>
+      <c r="K50" s="197"/>
     </row>
     <row r="51" spans="1:11" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A51" s="31">
@@ -57463,7 +57620,7 @@
       <c r="J51" s="35" t="s">
         <v>656</v>
       </c>
-      <c r="K51" s="196"/>
+      <c r="K51" s="197"/>
     </row>
     <row r="52" spans="1:11" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A52" s="31">
@@ -57496,7 +57653,7 @@
       <c r="J52" s="35" t="s">
         <v>656</v>
       </c>
-      <c r="K52" s="196"/>
+      <c r="K52" s="197"/>
     </row>
     <row r="53" spans="1:11" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A53" s="31">
@@ -57529,7 +57686,7 @@
       <c r="J53" s="35" t="s">
         <v>656</v>
       </c>
-      <c r="K53" s="196"/>
+      <c r="K53" s="197"/>
     </row>
     <row r="54" spans="1:11" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A54" s="31">
@@ -57562,7 +57719,7 @@
       <c r="J54" s="35" t="s">
         <v>656</v>
       </c>
-      <c r="K54" s="196"/>
+      <c r="K54" s="197"/>
     </row>
     <row r="55" spans="1:11" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A55" s="31">
@@ -57595,7 +57752,7 @@
       <c r="J55" s="35" t="s">
         <v>656</v>
       </c>
-      <c r="K55" s="196"/>
+      <c r="K55" s="197"/>
     </row>
     <row r="56" spans="1:11" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A56" s="31">
@@ -57628,7 +57785,7 @@
       <c r="J56" s="35" t="s">
         <v>656</v>
       </c>
-      <c r="K56" s="196"/>
+      <c r="K56" s="197"/>
     </row>
     <row r="57" spans="1:11" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A57" s="31">
@@ -57661,7 +57818,7 @@
       <c r="J57" s="35" t="s">
         <v>656</v>
       </c>
-      <c r="K57" s="196"/>
+      <c r="K57" s="197"/>
     </row>
     <row r="58" spans="1:11" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A58" s="31">
@@ -57694,7 +57851,7 @@
       <c r="J58" s="35" t="s">
         <v>656</v>
       </c>
-      <c r="K58" s="196"/>
+      <c r="K58" s="197"/>
     </row>
     <row r="59" spans="1:11" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A59" s="31">
@@ -57727,7 +57884,7 @@
       <c r="J59" s="35" t="s">
         <v>656</v>
       </c>
-      <c r="K59" s="196"/>
+      <c r="K59" s="197"/>
     </row>
     <row r="60" spans="1:11" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A60" s="31">
@@ -57760,7 +57917,7 @@
       <c r="J60" s="35" t="s">
         <v>656</v>
       </c>
-      <c r="K60" s="196"/>
+      <c r="K60" s="197"/>
     </row>
     <row r="61" spans="1:11" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A61" s="31">
@@ -57793,7 +57950,7 @@
       <c r="J61" s="35" t="s">
         <v>656</v>
       </c>
-      <c r="K61" s="196"/>
+      <c r="K61" s="197"/>
     </row>
     <row r="62" spans="1:11" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A62" s="31">
@@ -57826,7 +57983,7 @@
       <c r="J62" s="35" t="s">
         <v>656</v>
       </c>
-      <c r="K62" s="196"/>
+      <c r="K62" s="197"/>
     </row>
     <row r="63" spans="1:11" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A63" s="31">
@@ -57859,7 +58016,7 @@
       <c r="J63" s="35" t="s">
         <v>656</v>
       </c>
-      <c r="K63" s="196"/>
+      <c r="K63" s="197"/>
     </row>
     <row r="64" spans="1:11" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A64" s="31">
@@ -57892,7 +58049,7 @@
       <c r="J64" s="35" t="s">
         <v>656</v>
       </c>
-      <c r="K64" s="196"/>
+      <c r="K64" s="197"/>
     </row>
     <row r="65" spans="1:11" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A65" s="31">
@@ -57925,7 +58082,7 @@
       <c r="J65" s="35" t="s">
         <v>656</v>
       </c>
-      <c r="K65" s="196"/>
+      <c r="K65" s="197"/>
     </row>
     <row r="66" spans="1:11" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A66" s="31">
@@ -57958,7 +58115,7 @@
       <c r="J66" s="35" t="s">
         <v>656</v>
       </c>
-      <c r="K66" s="196"/>
+      <c r="K66" s="197"/>
     </row>
     <row r="67" spans="1:11" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A67" s="25">
@@ -58385,7 +58542,7 @@
       <c r="J79" s="35" t="s">
         <v>656</v>
       </c>
-      <c r="K79" s="196" t="s">
+      <c r="K79" s="197" t="s">
         <v>756</v>
       </c>
     </row>
@@ -58420,7 +58577,7 @@
       <c r="J80" s="35" t="s">
         <v>656</v>
       </c>
-      <c r="K80" s="196"/>
+      <c r="K80" s="197"/>
     </row>
     <row r="81" spans="1:11" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A81" s="31">
@@ -58453,7 +58610,7 @@
       <c r="J81" s="35" t="s">
         <v>656</v>
       </c>
-      <c r="K81" s="196"/>
+      <c r="K81" s="197"/>
     </row>
     <row r="82" spans="1:11" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A82" s="31">
@@ -58486,7 +58643,7 @@
       <c r="J82" s="35" t="s">
         <v>656</v>
       </c>
-      <c r="K82" s="196"/>
+      <c r="K82" s="197"/>
     </row>
     <row r="83" spans="1:11" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A83" s="31">
@@ -58519,7 +58676,7 @@
       <c r="J83" s="35" t="s">
         <v>656</v>
       </c>
-      <c r="K83" s="196"/>
+      <c r="K83" s="197"/>
     </row>
     <row r="84" spans="1:11" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A84" s="31">
@@ -58552,7 +58709,7 @@
       <c r="J84" s="35" t="s">
         <v>656</v>
       </c>
-      <c r="K84" s="196"/>
+      <c r="K84" s="197"/>
     </row>
     <row r="85" spans="1:11" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A85" s="1">
@@ -58585,7 +58742,7 @@
       <c r="J85" s="22" t="s">
         <v>777</v>
       </c>
-      <c r="K85" s="196"/>
+      <c r="K85" s="197"/>
     </row>
     <row r="86" spans="1:11" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A86" s="31">

--- a/TUAN/HOSO2024-BPKT.xlsx
+++ b/TUAN/HOSO2024-BPKT.xlsx
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4465" uniqueCount="1605">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4466" uniqueCount="1606">
   <si>
     <t>Ngày</t>
   </si>
@@ -4871,6 +4871,9 @@
   </si>
   <si>
     <t>180;150</t>
+  </si>
+  <si>
+    <t>51 (371;372)</t>
   </si>
 </sst>
 </file>
@@ -6106,8 +6109,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:Q2009"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A244" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F273" sqref="F273"/>
+    <sheetView tabSelected="1" topLeftCell="A88" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="K249" sqref="K249"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -17818,7 +17821,7 @@
         <v>45391</v>
       </c>
       <c r="L280" s="69" t="s">
-        <v>1297</v>
+        <v>1298</v>
       </c>
       <c r="M280" s="114"/>
       <c r="N280" s="71"/>
@@ -19056,10 +19059,14 @@
         <v>1340</v>
       </c>
       <c r="F312" s="21" t="s">
-        <v>444</v>
-      </c>
-      <c r="G312" s="147"/>
-      <c r="H312" s="133"/>
+        <v>14</v>
+      </c>
+      <c r="G312" s="147">
+        <v>85</v>
+      </c>
+      <c r="H312" s="133" t="s">
+        <v>1605</v>
+      </c>
       <c r="I312" s="13" t="s">
         <v>4</v>
       </c>
@@ -19072,9 +19079,15 @@
       <c r="L312" s="69" t="s">
         <v>1297</v>
       </c>
-      <c r="M312" s="114"/>
-      <c r="N312" s="71"/>
-      <c r="O312" s="71"/>
+      <c r="M312" s="114">
+        <v>45385</v>
+      </c>
+      <c r="N312" s="71">
+        <v>4</v>
+      </c>
+      <c r="O312" s="71">
+        <v>2</v>
+      </c>
       <c r="P312" s="71"/>
     </row>
     <row r="313" spans="1:17" x14ac:dyDescent="0.25">

--- a/TUAN/HOSO2024-BPKT.xlsx
+++ b/TUAN/HOSO2024-BPKT.xlsx
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4466" uniqueCount="1606">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4764" uniqueCount="1680">
   <si>
     <t>Ngày</t>
   </si>
@@ -4589,9 +4589,6 @@
     <t>114 (481;482;483;484)</t>
   </si>
   <si>
-    <t>Trả hồ sơ (Cấp đổi dự án)</t>
-  </si>
-  <si>
     <t>359 (1023;1024;1025;1026;1027)</t>
   </si>
   <si>
@@ -4874,16 +4871,242 @@
   </si>
   <si>
     <t>51 (371;372)</t>
+  </si>
+  <si>
+    <t>.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nguyễn Hữu Truyền </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Trần Thị Hồng Liên </t>
+  </si>
+  <si>
+    <t>Văn Đức Tiến</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lê Quang Lực </t>
+  </si>
+  <si>
+    <t>Trần Thị Nguyệt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hoàng Đình Minh Phong </t>
+  </si>
+  <si>
+    <t>Nguyễn Thị Liên</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Võ Thành </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Trương Đình Hùng </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nguyễn Tri Phong </t>
+  </si>
+  <si>
+    <t>Hoàng Thị Ngọc Thảo</t>
+  </si>
+  <si>
+    <t>Nguyễn Quang Anh</t>
+  </si>
+  <si>
+    <t>Hồ Thị Lư</t>
+  </si>
+  <si>
+    <t>Trần Văn Đông</t>
+  </si>
+  <si>
+    <t>Phan Thị Thiềm</t>
+  </si>
+  <si>
+    <t>Ngô Thái Bưởi</t>
+  </si>
+  <si>
+    <t>Nguyễn Ngọc Hiển</t>
+  </si>
+  <si>
+    <t>Trần Văn Chót</t>
+  </si>
+  <si>
+    <t>Trần Thị Kiều</t>
+  </si>
+  <si>
+    <t>Nguyễn Anh Sơn</t>
+  </si>
+  <si>
+    <t>Nguyễn Đình Thi</t>
+  </si>
+  <si>
+    <t>Nguyễn Công Thanh</t>
+  </si>
+  <si>
+    <t>Lê Khánh Bằng</t>
+  </si>
+  <si>
+    <t>Nguyễn Ngoc Nam</t>
+  </si>
+  <si>
+    <t>Lê Văn Minh</t>
+  </si>
+  <si>
+    <t>Lê Quang Phúc</t>
+  </si>
+  <si>
+    <t>Nguyễn Hữu Phó</t>
+  </si>
+  <si>
+    <t>Vy Xuân Thương</t>
+  </si>
+  <si>
+    <t>Nguyễn Thị Kiều</t>
+  </si>
+  <si>
+    <t>Dương Thị Thu</t>
+  </si>
+  <si>
+    <t>Nguyễn Hữu Đức</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Vương Khánh Tiến </t>
+  </si>
+  <si>
+    <t>Trần Thị Tài</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nguyễn Thị Trúc </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nguyễn Đức Biểu </t>
+  </si>
+  <si>
+    <t>Hoàng Thị Oanh</t>
+  </si>
+  <si>
+    <t>Hồ Văn Thinh</t>
+  </si>
+  <si>
+    <t>Lê Thị Huế</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Vũ Văn Thìn </t>
+  </si>
+  <si>
+    <t>Nguyễn Thành Đạt</t>
+  </si>
+  <si>
+    <t>0348973735</t>
+  </si>
+  <si>
+    <t>0839654257</t>
+  </si>
+  <si>
+    <t>0905880859</t>
+  </si>
+  <si>
+    <t>0977244174</t>
+  </si>
+  <si>
+    <t>0917474827</t>
+  </si>
+  <si>
+    <t>0354868690</t>
+  </si>
+  <si>
+    <t>0964098757-0972062433</t>
+  </si>
+  <si>
+    <t>0946334182</t>
+  </si>
+  <si>
+    <t>0916107123</t>
+  </si>
+  <si>
+    <t>0965257278</t>
+  </si>
+  <si>
+    <t>0849557345</t>
+  </si>
+  <si>
+    <t>0328168331</t>
+  </si>
+  <si>
+    <t>0963783757</t>
+  </si>
+  <si>
+    <t>0934999509</t>
+  </si>
+  <si>
+    <t>0914785777</t>
+  </si>
+  <si>
+    <t>0905760999</t>
+  </si>
+  <si>
+    <t>0362401333</t>
+  </si>
+  <si>
+    <t>0988800234</t>
+  </si>
+  <si>
+    <t>0946723159</t>
+  </si>
+  <si>
+    <t>0962485123</t>
+  </si>
+  <si>
+    <t>0914023567</t>
+  </si>
+  <si>
+    <t>0343090721</t>
+  </si>
+  <si>
+    <t>0867874357</t>
+  </si>
+  <si>
+    <t>0905330770</t>
+  </si>
+  <si>
+    <t>0982024234</t>
+  </si>
+  <si>
+    <t>0773559205</t>
+  </si>
+  <si>
+    <t>0394666549</t>
+  </si>
+  <si>
+    <t>0377769244</t>
+  </si>
+  <si>
+    <t>0869797034</t>
+  </si>
+  <si>
+    <t>0342359570</t>
+  </si>
+  <si>
+    <t>0867354139</t>
+  </si>
+  <si>
+    <t>0974137111</t>
+  </si>
+  <si>
+    <t>0812204789</t>
+  </si>
+  <si>
+    <t>0786656257</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="dd/mm/yyyy;@"/>
+    <numFmt numFmtId="165" formatCode="[$-1010000]d/m/yyyy;@"/>
   </numFmts>
-  <fonts count="23" x14ac:knownFonts="1">
+  <fonts count="24" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -5025,6 +5248,12 @@
     <font>
       <sz val="11"/>
       <color rgb="FF081C36"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF3300"/>
       <name val="Times New Roman"/>
       <family val="1"/>
     </font>
@@ -5213,7 +5442,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="198">
+  <cellXfs count="201">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -5746,11 +5975,44 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="164" fontId="23" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="5">
+  <dxfs count="8">
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFF3300"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -6109,8 +6371,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:Q2009"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A88" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="K249" sqref="K249"/>
+    <sheetView tabSelected="1" topLeftCell="A448" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="M473" sqref="M472:M473"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -15410,7 +15672,9 @@
       <c r="M221" s="114"/>
       <c r="N221" s="71"/>
       <c r="O221" s="71"/>
-      <c r="P221" s="71"/>
+      <c r="P221" s="110" t="s">
+        <v>846</v>
+      </c>
     </row>
     <row r="222" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A222" s="81">
@@ -15839,7 +16103,9 @@
       <c r="M231" s="114"/>
       <c r="N231" s="71"/>
       <c r="O231" s="71"/>
-      <c r="P231" s="71"/>
+      <c r="P231" s="110" t="s">
+        <v>846</v>
+      </c>
     </row>
     <row r="232" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A232" s="81">
@@ -15997,7 +16263,9 @@
       <c r="M235" s="114"/>
       <c r="N235" s="71"/>
       <c r="O235" s="71"/>
-      <c r="P235" s="71"/>
+      <c r="P235" s="110" t="s">
+        <v>846</v>
+      </c>
     </row>
     <row r="236" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A236" s="81">
@@ -16364,10 +16632,10 @@
         <v>1402</v>
       </c>
       <c r="G244" s="195" t="s">
+        <v>1598</v>
+      </c>
+      <c r="H244" s="195" t="s">
         <v>1599</v>
-      </c>
-      <c r="H244" s="195" t="s">
-        <v>1600</v>
       </c>
       <c r="I244" s="1" t="s">
         <v>996</v>
@@ -16416,7 +16684,7 @@
         <v>7</v>
       </c>
       <c r="H245" s="147" t="s">
-        <v>1512</v>
+        <v>1511</v>
       </c>
       <c r="I245" s="13" t="s">
         <v>5</v>
@@ -16790,7 +17058,9 @@
       <c r="M254" s="114"/>
       <c r="N254" s="71"/>
       <c r="O254" s="71"/>
-      <c r="P254" s="71"/>
+      <c r="P254" s="110" t="s">
+        <v>846</v>
+      </c>
     </row>
     <row r="255" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A255" s="81">
@@ -16828,7 +17098,9 @@
       <c r="M255" s="114"/>
       <c r="N255" s="71"/>
       <c r="O255" s="71"/>
-      <c r="P255" s="71"/>
+      <c r="P255" s="110" t="s">
+        <v>846</v>
+      </c>
     </row>
     <row r="256" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A256" s="81">
@@ -16866,7 +17138,9 @@
       <c r="M256" s="114"/>
       <c r="N256" s="71"/>
       <c r="O256" s="71"/>
-      <c r="P256" s="69"/>
+      <c r="P256" s="110" t="s">
+        <v>846</v>
+      </c>
     </row>
     <row r="257" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A257" s="81">
@@ -16943,19 +17217,21 @@
       <c r="J258" s="108" t="s">
         <v>1290</v>
       </c>
-      <c r="K258" s="112">
+      <c r="K258" s="198">
         <v>45386</v>
       </c>
       <c r="L258" s="107" t="s">
         <v>1294</v>
       </c>
-      <c r="M258" s="113"/>
+      <c r="M258" s="113" t="s">
+        <v>1605</v>
+      </c>
       <c r="N258" s="110"/>
       <c r="O258" s="110"/>
       <c r="P258" s="110" t="s">
-        <v>1511</v>
-      </c>
-      <c r="Q258" s="138"/>
+        <v>846</v>
+      </c>
+      <c r="Q258" s="110"/>
     </row>
     <row r="259" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A259" s="81">
@@ -16993,7 +17269,9 @@
       <c r="M259" s="114"/>
       <c r="N259" s="71"/>
       <c r="O259" s="71"/>
-      <c r="P259" s="71"/>
+      <c r="P259" s="110" t="s">
+        <v>846</v>
+      </c>
     </row>
     <row r="260" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A260" s="81">
@@ -17031,7 +17309,9 @@
       <c r="M260" s="114"/>
       <c r="N260" s="71"/>
       <c r="O260" s="71"/>
-      <c r="P260" s="71"/>
+      <c r="P260" s="110" t="s">
+        <v>846</v>
+      </c>
     </row>
     <row r="261" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A261" s="81">
@@ -17106,13 +17386,15 @@
       <c r="L262" s="107" t="s">
         <v>1295</v>
       </c>
-      <c r="M262" s="113"/>
+      <c r="M262" s="113" t="s">
+        <v>1605</v>
+      </c>
       <c r="N262" s="110"/>
       <c r="O262" s="110"/>
       <c r="P262" s="110" t="s">
-        <v>1511</v>
-      </c>
-      <c r="Q262" s="138"/>
+        <v>846</v>
+      </c>
+      <c r="Q262" s="110"/>
     </row>
     <row r="263" spans="1:17" s="124" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A263" s="104">
@@ -18589,7 +18871,7 @@
         <v>10</v>
       </c>
       <c r="H300" s="133" t="s">
-        <v>1597</v>
+        <v>1596</v>
       </c>
       <c r="I300" s="13" t="s">
         <v>73</v>
@@ -19065,7 +19347,7 @@
         <v>85</v>
       </c>
       <c r="H312" s="133" t="s">
-        <v>1605</v>
+        <v>1604</v>
       </c>
       <c r="I312" s="13" t="s">
         <v>4</v>
@@ -21927,7 +22209,7 @@
         <v>2024</v>
       </c>
       <c r="E382" s="2" t="s">
-        <v>1513</v>
+        <v>1512</v>
       </c>
       <c r="F382" s="163" t="s">
         <v>444</v>
@@ -21938,7 +22220,7 @@
         <v>1034</v>
       </c>
       <c r="J382" s="14" t="s">
-        <v>1557</v>
+        <v>1556</v>
       </c>
       <c r="K382" s="163">
         <v>45408</v>
@@ -21965,7 +22247,7 @@
         <v>2024</v>
       </c>
       <c r="E383" s="2" t="s">
-        <v>1514</v>
+        <v>1513</v>
       </c>
       <c r="F383" s="163" t="s">
         <v>444</v>
@@ -21976,7 +22258,7 @@
         <v>996</v>
       </c>
       <c r="J383" s="14" t="s">
-        <v>1558</v>
+        <v>1557</v>
       </c>
       <c r="K383" s="163">
         <v>45408</v>
@@ -22003,7 +22285,7 @@
         <v>2024</v>
       </c>
       <c r="E384" s="2" t="s">
-        <v>1515</v>
+        <v>1514</v>
       </c>
       <c r="F384" s="163" t="s">
         <v>444</v>
@@ -22014,7 +22296,7 @@
         <v>996</v>
       </c>
       <c r="J384" s="14" t="s">
-        <v>1559</v>
+        <v>1558</v>
       </c>
       <c r="K384" s="163">
         <v>45408</v>
@@ -22041,7 +22323,7 @@
         <v>2024</v>
       </c>
       <c r="E385" s="2" t="s">
-        <v>1516</v>
+        <v>1515</v>
       </c>
       <c r="F385" s="163" t="s">
         <v>444</v>
@@ -22052,7 +22334,7 @@
         <v>5</v>
       </c>
       <c r="J385" s="14" t="s">
-        <v>1560</v>
+        <v>1559</v>
       </c>
       <c r="K385" s="163">
         <v>45408</v>
@@ -22079,7 +22361,7 @@
         <v>2024</v>
       </c>
       <c r="E386" s="2" t="s">
-        <v>1517</v>
+        <v>1516</v>
       </c>
       <c r="F386" s="163" t="s">
         <v>444</v>
@@ -22090,7 +22372,7 @@
         <v>996</v>
       </c>
       <c r="J386" s="14" t="s">
-        <v>1561</v>
+        <v>1560</v>
       </c>
       <c r="K386" s="163">
         <v>45408</v>
@@ -22117,7 +22399,7 @@
         <v>2024</v>
       </c>
       <c r="E387" s="103" t="s">
-        <v>1518</v>
+        <v>1517</v>
       </c>
       <c r="F387" s="163" t="s">
         <v>444</v>
@@ -22128,7 +22410,7 @@
         <v>4</v>
       </c>
       <c r="J387" s="14" t="s">
-        <v>1562</v>
+        <v>1561</v>
       </c>
       <c r="K387" s="163">
         <v>45408</v>
@@ -22155,7 +22437,7 @@
         <v>2024</v>
       </c>
       <c r="E388" s="103" t="s">
-        <v>1519</v>
+        <v>1518</v>
       </c>
       <c r="F388" s="163" t="s">
         <v>444</v>
@@ -22170,7 +22452,7 @@
         <v>996</v>
       </c>
       <c r="J388" s="14" t="s">
-        <v>1563</v>
+        <v>1562</v>
       </c>
       <c r="K388" s="163">
         <v>45411</v>
@@ -22203,7 +22485,7 @@
         <v>2024</v>
       </c>
       <c r="E389" s="2" t="s">
-        <v>1520</v>
+        <v>1519</v>
       </c>
       <c r="F389" s="163" t="s">
         <v>444</v>
@@ -22218,7 +22500,7 @@
         <v>996</v>
       </c>
       <c r="J389" s="14" t="s">
-        <v>1564</v>
+        <v>1563</v>
       </c>
       <c r="K389" s="163">
         <v>45411</v>
@@ -22251,7 +22533,7 @@
         <v>2024</v>
       </c>
       <c r="E390" s="2" t="s">
-        <v>1521</v>
+        <v>1520</v>
       </c>
       <c r="F390" s="163" t="s">
         <v>444</v>
@@ -22262,7 +22544,7 @@
         <v>4</v>
       </c>
       <c r="J390" s="14" t="s">
-        <v>1565</v>
+        <v>1564</v>
       </c>
       <c r="K390" s="163">
         <v>45411</v>
@@ -22289,7 +22571,7 @@
         <v>2024</v>
       </c>
       <c r="E391" s="2" t="s">
-        <v>1522</v>
+        <v>1521</v>
       </c>
       <c r="F391" s="163" t="s">
         <v>444</v>
@@ -22300,7 +22582,7 @@
         <v>35</v>
       </c>
       <c r="J391" s="14" t="s">
-        <v>1566</v>
+        <v>1565</v>
       </c>
       <c r="K391" s="163">
         <v>45411</v>
@@ -22327,7 +22609,7 @@
         <v>2024</v>
       </c>
       <c r="E392" s="2" t="s">
-        <v>1523</v>
+        <v>1522</v>
       </c>
       <c r="F392" s="163" t="s">
         <v>444</v>
@@ -22338,7 +22620,7 @@
         <v>1034</v>
       </c>
       <c r="J392" s="14" t="s">
-        <v>1567</v>
+        <v>1566</v>
       </c>
       <c r="K392" s="163">
         <v>45411</v>
@@ -22365,7 +22647,7 @@
         <v>2024</v>
       </c>
       <c r="E393" s="2" t="s">
-        <v>1523</v>
+        <v>1522</v>
       </c>
       <c r="F393" s="163" t="s">
         <v>444</v>
@@ -22376,7 +22658,7 @@
         <v>1034</v>
       </c>
       <c r="J393" s="14" t="s">
-        <v>1567</v>
+        <v>1566</v>
       </c>
       <c r="K393" s="163">
         <v>45411</v>
@@ -22403,7 +22685,7 @@
         <v>2024</v>
       </c>
       <c r="E394" s="2" t="s">
-        <v>1523</v>
+        <v>1522</v>
       </c>
       <c r="F394" s="163" t="s">
         <v>444</v>
@@ -22414,7 +22696,7 @@
         <v>1034</v>
       </c>
       <c r="J394" s="14" t="s">
-        <v>1567</v>
+        <v>1566</v>
       </c>
       <c r="K394" s="163">
         <v>45411</v>
@@ -22441,7 +22723,7 @@
         <v>2024</v>
       </c>
       <c r="E395" s="2" t="s">
-        <v>1524</v>
+        <v>1523</v>
       </c>
       <c r="F395" s="163" t="s">
         <v>444</v>
@@ -22479,7 +22761,7 @@
         <v>2024</v>
       </c>
       <c r="E396" s="2" t="s">
-        <v>1525</v>
+        <v>1524</v>
       </c>
       <c r="F396" s="163" t="s">
         <v>444</v>
@@ -22490,7 +22772,7 @@
         <v>8</v>
       </c>
       <c r="J396" s="14" t="s">
-        <v>1568</v>
+        <v>1567</v>
       </c>
       <c r="K396" s="163">
         <v>45411</v>
@@ -22566,7 +22848,7 @@
         <v>996</v>
       </c>
       <c r="J398" s="14" t="s">
-        <v>1569</v>
+        <v>1568</v>
       </c>
       <c r="K398" s="163">
         <v>45411</v>
@@ -22593,7 +22875,7 @@
         <v>2024</v>
       </c>
       <c r="E399" s="2" t="s">
-        <v>1526</v>
+        <v>1525</v>
       </c>
       <c r="F399" s="163" t="s">
         <v>444</v>
@@ -22604,7 +22886,7 @@
         <v>7</v>
       </c>
       <c r="J399" s="14" t="s">
-        <v>1570</v>
+        <v>1569</v>
       </c>
       <c r="K399" s="163">
         <v>45411</v>
@@ -22669,7 +22951,7 @@
         <v>2024</v>
       </c>
       <c r="E401" s="2" t="s">
-        <v>1527</v>
+        <v>1526</v>
       </c>
       <c r="F401" s="163" t="s">
         <v>444</v>
@@ -22707,7 +22989,7 @@
         <v>2024</v>
       </c>
       <c r="E402" s="103" t="s">
-        <v>1528</v>
+        <v>1527</v>
       </c>
       <c r="F402" s="163" t="s">
         <v>444</v>
@@ -22718,7 +23000,7 @@
         <v>10</v>
       </c>
       <c r="J402" s="14" t="s">
-        <v>1571</v>
+        <v>1570</v>
       </c>
       <c r="K402" s="163">
         <v>45411</v>
@@ -22745,7 +23027,7 @@
         <v>2024</v>
       </c>
       <c r="E403" s="103" t="s">
-        <v>1529</v>
+        <v>1528</v>
       </c>
       <c r="F403" s="163" t="s">
         <v>444</v>
@@ -22756,7 +23038,7 @@
         <v>10</v>
       </c>
       <c r="J403" s="14" t="s">
-        <v>1572</v>
+        <v>1571</v>
       </c>
       <c r="K403" s="163">
         <v>45411</v>
@@ -22794,7 +23076,7 @@
         <v>73</v>
       </c>
       <c r="J404" s="14" t="s">
-        <v>1573</v>
+        <v>1572</v>
       </c>
       <c r="K404" s="163">
         <v>45411</v>
@@ -22821,7 +23103,7 @@
         <v>2024</v>
       </c>
       <c r="E405" s="2" t="s">
-        <v>1530</v>
+        <v>1529</v>
       </c>
       <c r="F405" s="163" t="s">
         <v>444</v>
@@ -22859,7 +23141,7 @@
         <v>2024</v>
       </c>
       <c r="E406" s="103" t="s">
-        <v>1531</v>
+        <v>1530</v>
       </c>
       <c r="F406" s="163" t="s">
         <v>14</v>
@@ -22870,7 +23152,7 @@
         <v>10</v>
       </c>
       <c r="J406" s="14" t="s">
-        <v>1574</v>
+        <v>1573</v>
       </c>
       <c r="K406" s="163">
         <v>45415</v>
@@ -22973,7 +23255,7 @@
         <v>2024</v>
       </c>
       <c r="E409" s="2" t="s">
-        <v>1532</v>
+        <v>1531</v>
       </c>
       <c r="F409" s="163" t="s">
         <v>444</v>
@@ -22984,7 +23266,7 @@
         <v>72</v>
       </c>
       <c r="J409" s="14" t="s">
-        <v>1575</v>
+        <v>1574</v>
       </c>
       <c r="K409" s="163">
         <v>45411</v>
@@ -23011,7 +23293,7 @@
         <v>2024</v>
       </c>
       <c r="E410" s="2" t="s">
-        <v>1533</v>
+        <v>1532</v>
       </c>
       <c r="F410" s="163" t="s">
         <v>14</v>
@@ -23022,7 +23304,7 @@
         <v>993</v>
       </c>
       <c r="J410" s="14" t="s">
-        <v>1576</v>
+        <v>1575</v>
       </c>
       <c r="K410" s="163">
         <v>45415</v>
@@ -23087,7 +23369,7 @@
         <v>2024</v>
       </c>
       <c r="E412" s="2" t="s">
-        <v>1534</v>
+        <v>1533</v>
       </c>
       <c r="F412" s="163" t="s">
         <v>14</v>
@@ -23096,13 +23378,13 @@
         <v>10</v>
       </c>
       <c r="H412" s="69" t="s">
-        <v>1595</v>
+        <v>1594</v>
       </c>
       <c r="I412" s="13" t="s">
         <v>72</v>
       </c>
       <c r="J412" s="14" t="s">
-        <v>1577</v>
+        <v>1576</v>
       </c>
       <c r="K412" s="163">
         <v>45418</v>
@@ -23135,7 +23417,7 @@
         <v>2024</v>
       </c>
       <c r="E413" s="2" t="s">
-        <v>1535</v>
+        <v>1534</v>
       </c>
       <c r="F413" s="163" t="s">
         <v>444</v>
@@ -23150,7 +23432,7 @@
         <v>996</v>
       </c>
       <c r="J413" s="14" t="s">
-        <v>1578</v>
+        <v>1577</v>
       </c>
       <c r="K413" s="163">
         <v>45414</v>
@@ -23183,7 +23465,7 @@
         <v>2024</v>
       </c>
       <c r="E414" s="2" t="s">
-        <v>1536</v>
+        <v>1535</v>
       </c>
       <c r="F414" s="163" t="s">
         <v>444</v>
@@ -23194,7 +23476,7 @@
         <v>996</v>
       </c>
       <c r="J414" s="14" t="s">
-        <v>1579</v>
+        <v>1578</v>
       </c>
       <c r="K414" s="163">
         <v>45414</v>
@@ -23221,7 +23503,7 @@
         <v>2024</v>
       </c>
       <c r="E415" s="2" t="s">
-        <v>1537</v>
+        <v>1536</v>
       </c>
       <c r="F415" s="163" t="s">
         <v>444</v>
@@ -23232,7 +23514,7 @@
         <v>72</v>
       </c>
       <c r="J415" s="14" t="s">
-        <v>1580</v>
+        <v>1579</v>
       </c>
       <c r="K415" s="163">
         <v>45414</v>
@@ -23259,7 +23541,7 @@
         <v>2024</v>
       </c>
       <c r="E416" s="2" t="s">
-        <v>1538</v>
+        <v>1537</v>
       </c>
       <c r="F416" s="163" t="s">
         <v>444</v>
@@ -23297,7 +23579,7 @@
         <v>2024</v>
       </c>
       <c r="E417" s="2" t="s">
-        <v>1538</v>
+        <v>1537</v>
       </c>
       <c r="F417" s="163" t="s">
         <v>444</v>
@@ -23335,7 +23617,7 @@
         <v>2024</v>
       </c>
       <c r="E418" s="2" t="s">
-        <v>1539</v>
+        <v>1538</v>
       </c>
       <c r="F418" s="163" t="s">
         <v>444</v>
@@ -23373,7 +23655,7 @@
         <v>2024</v>
       </c>
       <c r="E419" s="2" t="s">
-        <v>1540</v>
+        <v>1539</v>
       </c>
       <c r="F419" s="163" t="s">
         <v>444</v>
@@ -23497,7 +23779,7 @@
         <v>2024</v>
       </c>
       <c r="E422" s="2" t="s">
-        <v>1541</v>
+        <v>1540</v>
       </c>
       <c r="F422" s="163" t="s">
         <v>444</v>
@@ -23508,7 +23790,7 @@
         <v>4</v>
       </c>
       <c r="J422" s="14" t="s">
-        <v>1581</v>
+        <v>1580</v>
       </c>
       <c r="K422" s="163">
         <v>45415</v>
@@ -23535,10 +23817,10 @@
         <v>2024</v>
       </c>
       <c r="E423" s="2" t="s">
-        <v>1542</v>
+        <v>1541</v>
       </c>
       <c r="F423" s="21" t="s">
-        <v>1556</v>
+        <v>1555</v>
       </c>
       <c r="G423" s="71"/>
       <c r="H423" s="69"/>
@@ -23546,7 +23828,7 @@
         <v>4</v>
       </c>
       <c r="J423" s="14" t="s">
-        <v>1582</v>
+        <v>1581</v>
       </c>
       <c r="K423" s="21">
         <v>45438</v>
@@ -23573,7 +23855,7 @@
         <v>2024</v>
       </c>
       <c r="E424" s="2" t="s">
-        <v>1543</v>
+        <v>1542</v>
       </c>
       <c r="F424" s="163" t="s">
         <v>444</v>
@@ -23611,7 +23893,7 @@
         <v>2024</v>
       </c>
       <c r="E425" s="2" t="s">
-        <v>1543</v>
+        <v>1542</v>
       </c>
       <c r="F425" s="163" t="s">
         <v>444</v>
@@ -23649,7 +23931,7 @@
         <v>2024</v>
       </c>
       <c r="E426" s="2" t="s">
-        <v>1543</v>
+        <v>1542</v>
       </c>
       <c r="F426" s="163" t="s">
         <v>444</v>
@@ -23687,7 +23969,7 @@
         <v>2024</v>
       </c>
       <c r="E427" s="2" t="s">
-        <v>1544</v>
+        <v>1543</v>
       </c>
       <c r="F427" s="163" t="s">
         <v>444</v>
@@ -23698,7 +23980,7 @@
         <v>72</v>
       </c>
       <c r="J427" s="14" t="s">
-        <v>1583</v>
+        <v>1582</v>
       </c>
       <c r="K427" s="163">
         <v>45415</v>
@@ -23725,7 +24007,7 @@
         <v>2024</v>
       </c>
       <c r="E428" s="2" t="s">
-        <v>1545</v>
+        <v>1544</v>
       </c>
       <c r="F428" s="163" t="s">
         <v>14</v>
@@ -23736,7 +24018,7 @@
         <v>6</v>
       </c>
       <c r="J428" s="14" t="s">
-        <v>1584</v>
+        <v>1583</v>
       </c>
       <c r="K428" s="163">
         <v>45421</v>
@@ -23811,7 +24093,7 @@
         <v>2024</v>
       </c>
       <c r="E430" s="2" t="s">
-        <v>1546</v>
+        <v>1545</v>
       </c>
       <c r="F430" s="163" t="s">
         <v>444</v>
@@ -23859,7 +24141,7 @@
         <v>2024</v>
       </c>
       <c r="E431" s="2" t="s">
-        <v>1547</v>
+        <v>1546</v>
       </c>
       <c r="F431" s="163" t="s">
         <v>444</v>
@@ -23907,7 +24189,7 @@
         <v>2024</v>
       </c>
       <c r="E432" s="2" t="s">
-        <v>1548</v>
+        <v>1547</v>
       </c>
       <c r="F432" s="163" t="s">
         <v>444</v>
@@ -23918,7 +24200,7 @@
         <v>1284</v>
       </c>
       <c r="J432" s="14" t="s">
-        <v>1585</v>
+        <v>1584</v>
       </c>
       <c r="K432" s="163">
         <v>45418</v>
@@ -23956,7 +24238,7 @@
         <v>1498</v>
       </c>
       <c r="J433" s="14" t="s">
-        <v>1586</v>
+        <v>1585</v>
       </c>
       <c r="K433" s="163">
         <v>45418</v>
@@ -23983,7 +24265,7 @@
         <v>2024</v>
       </c>
       <c r="E434" s="2" t="s">
-        <v>1549</v>
+        <v>1548</v>
       </c>
       <c r="F434" s="163" t="s">
         <v>444</v>
@@ -23994,7 +24276,7 @@
         <v>4</v>
       </c>
       <c r="J434" s="14" t="s">
-        <v>1587</v>
+        <v>1586</v>
       </c>
       <c r="K434" s="163">
         <v>45418</v>
@@ -24021,7 +24303,7 @@
         <v>2024</v>
       </c>
       <c r="E435" s="2" t="s">
-        <v>1550</v>
+        <v>1549</v>
       </c>
       <c r="F435" s="163" t="s">
         <v>14</v>
@@ -24032,7 +24314,7 @@
         <v>5</v>
       </c>
       <c r="J435" s="14" t="s">
-        <v>1588</v>
+        <v>1587</v>
       </c>
       <c r="K435" s="163">
         <v>45425</v>
@@ -24059,7 +24341,7 @@
         <v>2024</v>
       </c>
       <c r="E436" s="2" t="s">
-        <v>1543</v>
+        <v>1542</v>
       </c>
       <c r="F436" s="163" t="s">
         <v>444</v>
@@ -24070,7 +24352,7 @@
         <v>10</v>
       </c>
       <c r="J436" s="14" t="s">
-        <v>1589</v>
+        <v>1588</v>
       </c>
       <c r="K436" s="163">
         <v>45418</v>
@@ -24097,7 +24379,7 @@
         <v>2024</v>
       </c>
       <c r="E437" s="2" t="s">
-        <v>1551</v>
+        <v>1550</v>
       </c>
       <c r="F437" s="163" t="s">
         <v>444</v>
@@ -24108,7 +24390,7 @@
         <v>4</v>
       </c>
       <c r="J437" s="14" t="s">
-        <v>1590</v>
+        <v>1589</v>
       </c>
       <c r="K437" s="163">
         <v>45418</v>
@@ -24144,7 +24426,7 @@
         <v>6</v>
       </c>
       <c r="H438" s="69" t="s">
-        <v>1601</v>
+        <v>1600</v>
       </c>
       <c r="I438" s="13" t="s">
         <v>993</v>
@@ -24183,7 +24465,7 @@
         <v>2024</v>
       </c>
       <c r="E439" s="2" t="s">
-        <v>1552</v>
+        <v>1551</v>
       </c>
       <c r="F439" s="163" t="s">
         <v>1136</v>
@@ -24192,13 +24474,13 @@
         <v>6</v>
       </c>
       <c r="H439" s="69" t="s">
-        <v>1602</v>
+        <v>1601</v>
       </c>
       <c r="I439" s="13" t="s">
         <v>993</v>
       </c>
       <c r="J439" s="14" t="s">
-        <v>1591</v>
+        <v>1590</v>
       </c>
       <c r="K439" s="163">
         <v>45418</v>
@@ -24231,7 +24513,7 @@
         <v>2024</v>
       </c>
       <c r="E440" s="103" t="s">
-        <v>1553</v>
+        <v>1552</v>
       </c>
       <c r="F440" s="163" t="s">
         <v>444</v>
@@ -24242,7 +24524,7 @@
         <v>4</v>
       </c>
       <c r="J440" s="14" t="s">
-        <v>1592</v>
+        <v>1591</v>
       </c>
       <c r="K440" s="163">
         <v>45418</v>
@@ -24269,7 +24551,7 @@
         <v>2024</v>
       </c>
       <c r="E441" s="2" t="s">
-        <v>1554</v>
+        <v>1553</v>
       </c>
       <c r="F441" s="163" t="s">
         <v>444</v>
@@ -24280,7 +24562,7 @@
         <v>996</v>
       </c>
       <c r="J441" s="14" t="s">
-        <v>1593</v>
+        <v>1592</v>
       </c>
       <c r="K441" s="163">
         <v>45418</v>
@@ -24307,7 +24589,7 @@
         <v>2024</v>
       </c>
       <c r="E442" s="103" t="s">
-        <v>1555</v>
+        <v>1554</v>
       </c>
       <c r="F442" s="163" t="s">
         <v>444</v>
@@ -24318,7 +24600,7 @@
         <v>5</v>
       </c>
       <c r="J442" s="14" t="s">
-        <v>1594</v>
+        <v>1593</v>
       </c>
       <c r="K442" s="163">
         <v>45419</v>
@@ -24335,10 +24617,18 @@
       <c r="A443" s="81">
         <v>442</v>
       </c>
-      <c r="B443" s="73"/>
-      <c r="C443" s="73"/>
-      <c r="D443" s="73"/>
-      <c r="E443" s="74"/>
+      <c r="B443" s="13">
+        <v>1</v>
+      </c>
+      <c r="C443" s="13">
+        <v>4</v>
+      </c>
+      <c r="D443" s="13">
+        <v>2024</v>
+      </c>
+      <c r="E443" s="2" t="s">
+        <v>1606</v>
+      </c>
       <c r="F443" s="163" t="s">
         <v>444</v>
       </c>
@@ -24348,8 +24638,15 @@
       <c r="H443" s="69">
         <v>321</v>
       </c>
-      <c r="I443" s="69"/>
-      <c r="J443" s="76"/>
+      <c r="I443" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="J443" s="14" t="s">
+        <v>1051</v>
+      </c>
+      <c r="K443" s="199">
+        <v>45419</v>
+      </c>
       <c r="L443" s="69" t="s">
         <v>1295</v>
       </c>
@@ -24368,16 +24665,35 @@
       <c r="A444" s="81">
         <v>443</v>
       </c>
-      <c r="B444" s="73"/>
-      <c r="C444" s="73"/>
-      <c r="D444" s="73"/>
-      <c r="E444" s="74"/>
-      <c r="F444" s="81"/>
+      <c r="B444" s="13">
+        <v>1</v>
+      </c>
+      <c r="C444" s="13">
+        <v>4</v>
+      </c>
+      <c r="D444" s="13">
+        <v>2024</v>
+      </c>
+      <c r="E444" s="2" t="s">
+        <v>1607</v>
+      </c>
+      <c r="F444" s="163" t="s">
+        <v>444</v>
+      </c>
       <c r="G444" s="71"/>
       <c r="H444" s="69"/>
-      <c r="I444" s="69"/>
-      <c r="J444" s="76"/>
-      <c r="L444" s="69"/>
+      <c r="I444" s="13" t="s">
+        <v>128</v>
+      </c>
+      <c r="J444" s="14" t="s">
+        <v>1646</v>
+      </c>
+      <c r="K444" s="199">
+        <v>45419</v>
+      </c>
+      <c r="L444" s="69" t="s">
+        <v>1297</v>
+      </c>
       <c r="M444" s="114"/>
       <c r="N444" s="71"/>
       <c r="O444" s="71"/>
@@ -24387,16 +24703,35 @@
       <c r="A445" s="81">
         <v>444</v>
       </c>
-      <c r="B445" s="73"/>
-      <c r="C445" s="73"/>
-      <c r="D445" s="73"/>
-      <c r="E445" s="74"/>
-      <c r="F445" s="81"/>
+      <c r="B445" s="13">
+        <v>1</v>
+      </c>
+      <c r="C445" s="13">
+        <v>4</v>
+      </c>
+      <c r="D445" s="13">
+        <v>2024</v>
+      </c>
+      <c r="E445" s="2" t="s">
+        <v>1608</v>
+      </c>
+      <c r="F445" s="163" t="s">
+        <v>444</v>
+      </c>
       <c r="G445" s="71"/>
       <c r="H445" s="69"/>
-      <c r="I445" s="69"/>
-      <c r="J445" s="76"/>
-      <c r="L445" s="69"/>
+      <c r="I445" s="13" t="s">
+        <v>996</v>
+      </c>
+      <c r="J445" s="14" t="s">
+        <v>1053</v>
+      </c>
+      <c r="K445" s="199">
+        <v>45419</v>
+      </c>
+      <c r="L445" s="69" t="s">
+        <v>1297</v>
+      </c>
       <c r="M445" s="114"/>
       <c r="N445" s="71"/>
       <c r="O445" s="71"/>
@@ -24406,16 +24741,35 @@
       <c r="A446" s="81">
         <v>445</v>
       </c>
-      <c r="B446" s="73"/>
-      <c r="C446" s="73"/>
-      <c r="D446" s="73"/>
-      <c r="E446" s="74"/>
-      <c r="F446" s="81"/>
+      <c r="B446" s="13">
+        <v>1</v>
+      </c>
+      <c r="C446" s="13">
+        <v>4</v>
+      </c>
+      <c r="D446" s="13">
+        <v>2024</v>
+      </c>
+      <c r="E446" s="2" t="s">
+        <v>1609</v>
+      </c>
+      <c r="F446" s="163" t="s">
+        <v>14</v>
+      </c>
       <c r="G446" s="71"/>
       <c r="H446" s="69"/>
-      <c r="I446" s="69"/>
-      <c r="J446" s="76"/>
-      <c r="L446" s="69"/>
+      <c r="I446" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="J446" s="14" t="s">
+        <v>1647</v>
+      </c>
+      <c r="K446" s="199">
+        <v>45426</v>
+      </c>
+      <c r="L446" s="69" t="s">
+        <v>1297</v>
+      </c>
       <c r="M446" s="114"/>
       <c r="N446" s="71"/>
       <c r="O446" s="71"/>
@@ -24425,16 +24779,35 @@
       <c r="A447" s="81">
         <v>446</v>
       </c>
-      <c r="B447" s="73"/>
-      <c r="C447" s="73"/>
-      <c r="D447" s="73"/>
-      <c r="E447" s="74"/>
-      <c r="F447" s="81"/>
+      <c r="B447" s="13">
+        <v>1</v>
+      </c>
+      <c r="C447" s="13">
+        <v>4</v>
+      </c>
+      <c r="D447" s="13">
+        <v>2024</v>
+      </c>
+      <c r="E447" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="F447" s="163" t="s">
+        <v>444</v>
+      </c>
       <c r="G447" s="71"/>
       <c r="H447" s="69"/>
-      <c r="I447" s="69"/>
-      <c r="J447" s="76"/>
-      <c r="L447" s="69"/>
+      <c r="I447" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="J447" s="14" t="s">
+        <v>1648</v>
+      </c>
+      <c r="K447" s="199">
+        <v>45419</v>
+      </c>
+      <c r="L447" s="69" t="s">
+        <v>1297</v>
+      </c>
       <c r="M447" s="114"/>
       <c r="N447" s="71"/>
       <c r="O447" s="71"/>
@@ -24444,16 +24817,35 @@
       <c r="A448" s="81">
         <v>447</v>
       </c>
-      <c r="B448" s="73"/>
-      <c r="C448" s="73"/>
-      <c r="D448" s="73"/>
-      <c r="E448" s="74"/>
-      <c r="F448" s="81"/>
+      <c r="B448" s="13">
+        <v>1</v>
+      </c>
+      <c r="C448" s="13">
+        <v>4</v>
+      </c>
+      <c r="D448" s="13">
+        <v>2024</v>
+      </c>
+      <c r="E448" s="2" t="s">
+        <v>563</v>
+      </c>
+      <c r="F448" s="163" t="s">
+        <v>444</v>
+      </c>
       <c r="G448" s="71"/>
       <c r="H448" s="69"/>
-      <c r="I448" s="69"/>
-      <c r="J448" s="76"/>
-      <c r="L448" s="69"/>
+      <c r="I448" s="13" t="s">
+        <v>996</v>
+      </c>
+      <c r="J448" s="14" t="s">
+        <v>1649</v>
+      </c>
+      <c r="K448" s="199">
+        <v>45419</v>
+      </c>
+      <c r="L448" s="69" t="s">
+        <v>1297</v>
+      </c>
       <c r="M448" s="114"/>
       <c r="N448" s="71"/>
       <c r="O448" s="71"/>
@@ -24463,16 +24855,35 @@
       <c r="A449" s="81">
         <v>448</v>
       </c>
-      <c r="B449" s="73"/>
-      <c r="C449" s="73"/>
-      <c r="D449" s="73"/>
-      <c r="E449" s="74"/>
-      <c r="F449" s="81"/>
+      <c r="B449" s="13">
+        <v>1</v>
+      </c>
+      <c r="C449" s="13">
+        <v>4</v>
+      </c>
+      <c r="D449" s="13">
+        <v>2024</v>
+      </c>
+      <c r="E449" s="2" t="s">
+        <v>1610</v>
+      </c>
+      <c r="F449" s="163" t="s">
+        <v>444</v>
+      </c>
       <c r="G449" s="71"/>
       <c r="H449" s="69"/>
-      <c r="I449" s="69"/>
-      <c r="J449" s="76"/>
-      <c r="L449" s="69"/>
+      <c r="I449" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="J449" s="14" t="s">
+        <v>1650</v>
+      </c>
+      <c r="K449" s="199">
+        <v>45419</v>
+      </c>
+      <c r="L449" s="69" t="s">
+        <v>1297</v>
+      </c>
       <c r="M449" s="114"/>
       <c r="N449" s="71"/>
       <c r="O449" s="71"/>
@@ -24482,16 +24893,35 @@
       <c r="A450" s="81">
         <v>449</v>
       </c>
-      <c r="B450" s="73"/>
-      <c r="C450" s="73"/>
-      <c r="D450" s="73"/>
-      <c r="E450" s="74"/>
-      <c r="F450" s="81"/>
+      <c r="B450" s="13">
+        <v>1</v>
+      </c>
+      <c r="C450" s="13">
+        <v>4</v>
+      </c>
+      <c r="D450" s="13">
+        <v>2024</v>
+      </c>
+      <c r="E450" s="2" t="s">
+        <v>1611</v>
+      </c>
+      <c r="F450" s="163" t="s">
+        <v>444</v>
+      </c>
       <c r="G450" s="71"/>
       <c r="H450" s="69"/>
-      <c r="I450" s="69"/>
-      <c r="J450" s="76"/>
-      <c r="L450" s="69"/>
+      <c r="I450" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="J450" s="14" t="s">
+        <v>1023</v>
+      </c>
+      <c r="K450" s="199">
+        <v>45419</v>
+      </c>
+      <c r="L450" s="69" t="s">
+        <v>1297</v>
+      </c>
       <c r="M450" s="114"/>
       <c r="N450" s="71"/>
       <c r="O450" s="71"/>
@@ -24501,16 +24931,35 @@
       <c r="A451" s="81">
         <v>450</v>
       </c>
-      <c r="B451" s="73"/>
-      <c r="C451" s="73"/>
-      <c r="D451" s="73"/>
-      <c r="E451" s="74"/>
-      <c r="F451" s="81"/>
+      <c r="B451" s="13">
+        <v>1</v>
+      </c>
+      <c r="C451" s="13">
+        <v>4</v>
+      </c>
+      <c r="D451" s="13">
+        <v>2024</v>
+      </c>
+      <c r="E451" s="2" t="s">
+        <v>1612</v>
+      </c>
+      <c r="F451" s="163" t="s">
+        <v>14</v>
+      </c>
       <c r="G451" s="71"/>
       <c r="H451" s="69"/>
-      <c r="I451" s="69"/>
-      <c r="J451" s="76"/>
-      <c r="L451" s="69"/>
+      <c r="I451" s="13" t="s">
+        <v>993</v>
+      </c>
+      <c r="J451" s="14" t="s">
+        <v>1651</v>
+      </c>
+      <c r="K451" s="199">
+        <v>45426</v>
+      </c>
+      <c r="L451" s="69" t="s">
+        <v>1298</v>
+      </c>
       <c r="M451" s="114"/>
       <c r="N451" s="71"/>
       <c r="O451" s="71"/>
@@ -24520,16 +24969,35 @@
       <c r="A452" s="81">
         <v>451</v>
       </c>
-      <c r="B452" s="73"/>
-      <c r="C452" s="73"/>
-      <c r="D452" s="73"/>
-      <c r="E452" s="74"/>
-      <c r="F452" s="81"/>
+      <c r="B452" s="13">
+        <v>1</v>
+      </c>
+      <c r="C452" s="13">
+        <v>4</v>
+      </c>
+      <c r="D452" s="13">
+        <v>2024</v>
+      </c>
+      <c r="E452" s="103" t="s">
+        <v>1613</v>
+      </c>
+      <c r="F452" s="163" t="s">
+        <v>444</v>
+      </c>
       <c r="G452" s="71"/>
       <c r="H452" s="69"/>
-      <c r="I452" s="69"/>
-      <c r="J452" s="76"/>
-      <c r="L452" s="69"/>
+      <c r="I452" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="J452" s="14" t="s">
+        <v>1083</v>
+      </c>
+      <c r="K452" s="199">
+        <v>45419</v>
+      </c>
+      <c r="L452" s="69" t="s">
+        <v>1298</v>
+      </c>
       <c r="M452" s="114"/>
       <c r="N452" s="71"/>
       <c r="O452" s="71"/>
@@ -24539,16 +25007,35 @@
       <c r="A453" s="81">
         <v>452</v>
       </c>
-      <c r="B453" s="73"/>
-      <c r="C453" s="73"/>
-      <c r="D453" s="73"/>
-      <c r="E453" s="74"/>
-      <c r="F453" s="81"/>
+      <c r="B453" s="13">
+        <v>2</v>
+      </c>
+      <c r="C453" s="13">
+        <v>4</v>
+      </c>
+      <c r="D453" s="13">
+        <v>2024</v>
+      </c>
+      <c r="E453" s="2" t="s">
+        <v>1614</v>
+      </c>
+      <c r="F453" s="163" t="s">
+        <v>444</v>
+      </c>
       <c r="G453" s="71"/>
       <c r="H453" s="69"/>
-      <c r="I453" s="69"/>
-      <c r="J453" s="76"/>
-      <c r="L453" s="69"/>
+      <c r="I453" s="13" t="s">
+        <v>72</v>
+      </c>
+      <c r="J453" s="14" t="s">
+        <v>1045</v>
+      </c>
+      <c r="K453" s="199">
+        <v>45420</v>
+      </c>
+      <c r="L453" s="69" t="s">
+        <v>1298</v>
+      </c>
       <c r="M453" s="114"/>
       <c r="N453" s="71"/>
       <c r="O453" s="71"/>
@@ -24558,16 +25045,35 @@
       <c r="A454" s="81">
         <v>453</v>
       </c>
-      <c r="B454" s="73"/>
-      <c r="C454" s="73"/>
-      <c r="D454" s="73"/>
-      <c r="E454" s="74"/>
-      <c r="F454" s="81"/>
+      <c r="B454" s="13">
+        <v>2</v>
+      </c>
+      <c r="C454" s="13">
+        <v>4</v>
+      </c>
+      <c r="D454" s="13">
+        <v>2024</v>
+      </c>
+      <c r="E454" s="2" t="s">
+        <v>1344</v>
+      </c>
+      <c r="F454" s="163" t="s">
+        <v>444</v>
+      </c>
       <c r="G454" s="71"/>
       <c r="H454" s="69"/>
-      <c r="I454" s="69"/>
-      <c r="J454" s="76"/>
-      <c r="L454" s="69"/>
+      <c r="I454" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="J454" s="14" t="s">
+        <v>1385</v>
+      </c>
+      <c r="K454" s="199">
+        <v>45420</v>
+      </c>
+      <c r="L454" s="69" t="s">
+        <v>1298</v>
+      </c>
       <c r="M454" s="114"/>
       <c r="N454" s="71"/>
       <c r="O454" s="71"/>
@@ -24577,16 +25083,35 @@
       <c r="A455" s="81">
         <v>454</v>
       </c>
-      <c r="B455" s="73"/>
-      <c r="C455" s="73"/>
-      <c r="D455" s="73"/>
-      <c r="E455" s="74"/>
-      <c r="F455" s="81"/>
+      <c r="B455" s="13">
+        <v>2</v>
+      </c>
+      <c r="C455" s="13">
+        <v>4</v>
+      </c>
+      <c r="D455" s="13">
+        <v>2024</v>
+      </c>
+      <c r="E455" s="2" t="s">
+        <v>1344</v>
+      </c>
+      <c r="F455" s="163" t="s">
+        <v>444</v>
+      </c>
       <c r="G455" s="71"/>
       <c r="H455" s="69"/>
-      <c r="I455" s="69"/>
-      <c r="J455" s="76"/>
-      <c r="L455" s="69"/>
+      <c r="I455" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="J455" s="14" t="s">
+        <v>1385</v>
+      </c>
+      <c r="K455" s="199">
+        <v>45420</v>
+      </c>
+      <c r="L455" s="69" t="s">
+        <v>1298</v>
+      </c>
       <c r="M455" s="114"/>
       <c r="N455" s="71"/>
       <c r="O455" s="71"/>
@@ -24596,16 +25121,35 @@
       <c r="A456" s="81">
         <v>455</v>
       </c>
-      <c r="B456" s="73"/>
-      <c r="C456" s="73"/>
-      <c r="D456" s="73"/>
-      <c r="E456" s="74"/>
-      <c r="F456" s="81"/>
+      <c r="B456" s="13">
+        <v>2</v>
+      </c>
+      <c r="C456" s="13">
+        <v>4</v>
+      </c>
+      <c r="D456" s="13">
+        <v>2024</v>
+      </c>
+      <c r="E456" s="2" t="s">
+        <v>1344</v>
+      </c>
+      <c r="F456" s="163" t="s">
+        <v>444</v>
+      </c>
       <c r="G456" s="71"/>
       <c r="H456" s="69"/>
-      <c r="I456" s="69"/>
-      <c r="J456" s="76"/>
-      <c r="L456" s="69"/>
+      <c r="I456" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="J456" s="14" t="s">
+        <v>1385</v>
+      </c>
+      <c r="K456" s="199">
+        <v>45420</v>
+      </c>
+      <c r="L456" s="69" t="s">
+        <v>1298</v>
+      </c>
       <c r="M456" s="114"/>
       <c r="N456" s="71"/>
       <c r="O456" s="71"/>
@@ -24615,16 +25159,35 @@
       <c r="A457" s="81">
         <v>456</v>
       </c>
-      <c r="B457" s="73"/>
-      <c r="C457" s="73"/>
-      <c r="D457" s="73"/>
-      <c r="E457" s="74"/>
-      <c r="F457" s="81"/>
+      <c r="B457" s="13">
+        <v>2</v>
+      </c>
+      <c r="C457" s="13">
+        <v>4</v>
+      </c>
+      <c r="D457" s="13">
+        <v>2024</v>
+      </c>
+      <c r="E457" s="2" t="s">
+        <v>1615</v>
+      </c>
+      <c r="F457" s="163" t="s">
+        <v>444</v>
+      </c>
       <c r="G457" s="71"/>
       <c r="H457" s="69"/>
-      <c r="I457" s="69"/>
-      <c r="J457" s="76"/>
-      <c r="L457" s="69"/>
+      <c r="I457" s="13" t="s">
+        <v>72</v>
+      </c>
+      <c r="J457" s="14" t="s">
+        <v>1652</v>
+      </c>
+      <c r="K457" s="199">
+        <v>45420</v>
+      </c>
+      <c r="L457" s="69" t="s">
+        <v>1298</v>
+      </c>
       <c r="M457" s="114"/>
       <c r="N457" s="71"/>
       <c r="O457" s="71"/>
@@ -24634,12 +25197,20 @@
       <c r="A458" s="81">
         <v>457</v>
       </c>
-      <c r="B458" s="73"/>
-      <c r="C458" s="73"/>
-      <c r="D458" s="73"/>
-      <c r="E458" s="74"/>
+      <c r="B458" s="13">
+        <v>2</v>
+      </c>
+      <c r="C458" s="13">
+        <v>4</v>
+      </c>
+      <c r="D458" s="13">
+        <v>2024</v>
+      </c>
+      <c r="E458" s="2" t="s">
+        <v>1616</v>
+      </c>
       <c r="F458" s="81" t="s">
-        <v>1598</v>
+        <v>1597</v>
       </c>
       <c r="G458" s="71">
         <v>74</v>
@@ -24647,8 +25218,15 @@
       <c r="H458" s="69">
         <v>587</v>
       </c>
-      <c r="I458" s="69"/>
-      <c r="J458" s="76"/>
+      <c r="I458" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="J458" s="14" t="s">
+        <v>1653</v>
+      </c>
+      <c r="K458" s="199">
+        <v>45420</v>
+      </c>
       <c r="L458" s="69" t="s">
         <v>1297</v>
       </c>
@@ -24667,16 +25245,35 @@
       <c r="A459" s="81">
         <v>458</v>
       </c>
-      <c r="B459" s="73"/>
-      <c r="C459" s="73"/>
-      <c r="D459" s="73"/>
-      <c r="E459" s="74"/>
-      <c r="F459" s="81"/>
+      <c r="B459" s="13">
+        <v>2</v>
+      </c>
+      <c r="C459" s="13">
+        <v>4</v>
+      </c>
+      <c r="D459" s="13">
+        <v>2024</v>
+      </c>
+      <c r="E459" s="103" t="s">
+        <v>1617</v>
+      </c>
+      <c r="F459" s="163" t="s">
+        <v>444</v>
+      </c>
       <c r="G459" s="71"/>
       <c r="H459" s="69"/>
-      <c r="I459" s="69"/>
-      <c r="J459" s="76"/>
-      <c r="L459" s="69"/>
+      <c r="I459" s="13" t="s">
+        <v>996</v>
+      </c>
+      <c r="J459" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="K459" s="199">
+        <v>45420</v>
+      </c>
+      <c r="L459" s="69" t="s">
+        <v>1294</v>
+      </c>
       <c r="M459" s="114"/>
       <c r="N459" s="71"/>
       <c r="O459" s="71"/>
@@ -24686,16 +25283,35 @@
       <c r="A460" s="81">
         <v>459</v>
       </c>
-      <c r="B460" s="73"/>
-      <c r="C460" s="73"/>
-      <c r="D460" s="73"/>
-      <c r="E460" s="74"/>
-      <c r="F460" s="81"/>
+      <c r="B460" s="13">
+        <v>2</v>
+      </c>
+      <c r="C460" s="13">
+        <v>4</v>
+      </c>
+      <c r="D460" s="13">
+        <v>2024</v>
+      </c>
+      <c r="E460" s="2" t="s">
+        <v>1618</v>
+      </c>
+      <c r="F460" s="163" t="s">
+        <v>444</v>
+      </c>
       <c r="G460" s="71"/>
       <c r="H460" s="69"/>
-      <c r="I460" s="69"/>
-      <c r="J460" s="76"/>
-      <c r="L460" s="69"/>
+      <c r="I460" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="J460" s="14" t="s">
+        <v>1654</v>
+      </c>
+      <c r="K460" s="199">
+        <v>45420</v>
+      </c>
+      <c r="L460" s="69" t="s">
+        <v>1294</v>
+      </c>
       <c r="M460" s="114"/>
       <c r="N460" s="71"/>
       <c r="O460" s="71"/>
@@ -24705,16 +25321,35 @@
       <c r="A461" s="81">
         <v>460</v>
       </c>
-      <c r="B461" s="73"/>
-      <c r="C461" s="73"/>
-      <c r="D461" s="73"/>
-      <c r="E461" s="74"/>
-      <c r="F461" s="81"/>
+      <c r="B461" s="13">
+        <v>2</v>
+      </c>
+      <c r="C461" s="13">
+        <v>4</v>
+      </c>
+      <c r="D461" s="13">
+        <v>2024</v>
+      </c>
+      <c r="E461" s="2" t="s">
+        <v>349</v>
+      </c>
+      <c r="F461" s="163" t="s">
+        <v>444</v>
+      </c>
       <c r="G461" s="71"/>
       <c r="H461" s="69"/>
-      <c r="I461" s="69"/>
-      <c r="J461" s="76"/>
-      <c r="L461" s="69"/>
+      <c r="I461" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="J461" s="14" t="s">
+        <v>350</v>
+      </c>
+      <c r="K461" s="199">
+        <v>45420</v>
+      </c>
+      <c r="L461" s="69" t="s">
+        <v>1294</v>
+      </c>
       <c r="M461" s="114"/>
       <c r="N461" s="71"/>
       <c r="O461" s="71"/>
@@ -24724,16 +25359,35 @@
       <c r="A462" s="81">
         <v>461</v>
       </c>
-      <c r="B462" s="73"/>
-      <c r="C462" s="73"/>
-      <c r="D462" s="73"/>
-      <c r="E462" s="74"/>
-      <c r="F462" s="81"/>
+      <c r="B462" s="13">
+        <v>2</v>
+      </c>
+      <c r="C462" s="13">
+        <v>4</v>
+      </c>
+      <c r="D462" s="13">
+        <v>2024</v>
+      </c>
+      <c r="E462" s="103" t="s">
+        <v>1619</v>
+      </c>
+      <c r="F462" s="163" t="s">
+        <v>14</v>
+      </c>
       <c r="G462" s="71"/>
       <c r="H462" s="69"/>
-      <c r="I462" s="69"/>
-      <c r="J462" s="76"/>
-      <c r="L462" s="69"/>
+      <c r="I462" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="J462" s="14" t="s">
+        <v>1655</v>
+      </c>
+      <c r="K462" s="199">
+        <v>45427</v>
+      </c>
+      <c r="L462" s="69" t="s">
+        <v>1294</v>
+      </c>
       <c r="M462" s="114"/>
       <c r="N462" s="71"/>
       <c r="O462" s="71"/>
@@ -24743,35 +25397,79 @@
       <c r="A463" s="81">
         <v>462</v>
       </c>
-      <c r="B463" s="73"/>
-      <c r="C463" s="73"/>
-      <c r="D463" s="73"/>
-      <c r="E463" s="74"/>
-      <c r="F463" s="81"/>
+      <c r="B463" s="13">
+        <v>2</v>
+      </c>
+      <c r="C463" s="13">
+        <v>4</v>
+      </c>
+      <c r="D463" s="13">
+        <v>2024</v>
+      </c>
+      <c r="E463" s="2" t="s">
+        <v>1620</v>
+      </c>
+      <c r="F463" s="163" t="s">
+        <v>444</v>
+      </c>
       <c r="G463" s="71"/>
       <c r="H463" s="69"/>
-      <c r="I463" s="69"/>
-      <c r="J463" s="76"/>
-      <c r="L463" s="69"/>
-      <c r="M463" s="114"/>
-      <c r="N463" s="71"/>
-      <c r="O463" s="71"/>
+      <c r="I463" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="J463" s="14" t="s">
+        <v>1656</v>
+      </c>
+      <c r="K463" s="200">
+        <v>45427</v>
+      </c>
+      <c r="L463" s="69" t="s">
+        <v>1294</v>
+      </c>
+      <c r="M463" s="114">
+        <v>45390</v>
+      </c>
+      <c r="N463" s="71">
+        <v>4</v>
+      </c>
+      <c r="O463" s="71">
+        <v>1</v>
+      </c>
       <c r="P463" s="69"/>
     </row>
     <row r="464" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A464" s="81">
         <v>463</v>
       </c>
-      <c r="B464" s="73"/>
-      <c r="C464" s="73"/>
-      <c r="D464" s="73"/>
-      <c r="E464" s="74"/>
-      <c r="F464" s="81"/>
+      <c r="B464" s="13">
+        <v>2</v>
+      </c>
+      <c r="C464" s="13">
+        <v>4</v>
+      </c>
+      <c r="D464" s="13">
+        <v>2024</v>
+      </c>
+      <c r="E464" s="2" t="s">
+        <v>1621</v>
+      </c>
+      <c r="F464" s="163" t="s">
+        <v>444</v>
+      </c>
       <c r="G464" s="71"/>
       <c r="H464" s="69"/>
-      <c r="I464" s="69"/>
-      <c r="J464" s="76"/>
-      <c r="L464" s="69"/>
+      <c r="I464" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="J464" s="14" t="s">
+        <v>1657</v>
+      </c>
+      <c r="K464" s="199">
+        <v>45420</v>
+      </c>
+      <c r="L464" s="69" t="s">
+        <v>1294</v>
+      </c>
       <c r="M464" s="114"/>
       <c r="N464" s="71"/>
       <c r="O464" s="71"/>
@@ -24781,16 +25479,35 @@
       <c r="A465" s="81">
         <v>464</v>
       </c>
-      <c r="B465" s="73"/>
-      <c r="C465" s="73"/>
-      <c r="D465" s="73"/>
-      <c r="E465" s="74"/>
-      <c r="F465" s="81"/>
+      <c r="B465" s="13">
+        <v>2</v>
+      </c>
+      <c r="C465" s="13">
+        <v>4</v>
+      </c>
+      <c r="D465" s="13">
+        <v>2024</v>
+      </c>
+      <c r="E465" s="2" t="s">
+        <v>1622</v>
+      </c>
+      <c r="F465" s="163" t="s">
+        <v>444</v>
+      </c>
       <c r="G465" s="71"/>
       <c r="H465" s="69"/>
-      <c r="I465" s="69"/>
-      <c r="J465" s="76"/>
-      <c r="L465" s="69"/>
+      <c r="I465" s="13" t="s">
+        <v>996</v>
+      </c>
+      <c r="J465" s="14" t="s">
+        <v>1658</v>
+      </c>
+      <c r="K465" s="199">
+        <v>45420</v>
+      </c>
+      <c r="L465" s="69" t="s">
+        <v>1294</v>
+      </c>
       <c r="M465" s="114"/>
       <c r="N465" s="71"/>
       <c r="O465" s="71"/>
@@ -24800,16 +25517,35 @@
       <c r="A466" s="81">
         <v>465</v>
       </c>
-      <c r="B466" s="73"/>
-      <c r="C466" s="73"/>
-      <c r="D466" s="73"/>
-      <c r="E466" s="74"/>
-      <c r="F466" s="81"/>
+      <c r="B466" s="13">
+        <v>2</v>
+      </c>
+      <c r="C466" s="13">
+        <v>4</v>
+      </c>
+      <c r="D466" s="13">
+        <v>2024</v>
+      </c>
+      <c r="E466" s="2" t="s">
+        <v>1623</v>
+      </c>
+      <c r="F466" s="163" t="s">
+        <v>444</v>
+      </c>
       <c r="G466" s="71"/>
       <c r="H466" s="69"/>
-      <c r="I466" s="69"/>
-      <c r="J466" s="76"/>
-      <c r="L466" s="69"/>
+      <c r="I466" s="13" t="s">
+        <v>996</v>
+      </c>
+      <c r="J466" s="14" t="s">
+        <v>1659</v>
+      </c>
+      <c r="K466" s="199">
+        <v>45420</v>
+      </c>
+      <c r="L466" s="69" t="s">
+        <v>1295</v>
+      </c>
       <c r="M466" s="114"/>
       <c r="N466" s="71"/>
       <c r="O466" s="71"/>
@@ -24819,16 +25555,35 @@
       <c r="A467" s="81">
         <v>466</v>
       </c>
-      <c r="B467" s="73"/>
-      <c r="C467" s="73"/>
-      <c r="D467" s="73"/>
-      <c r="E467" s="74"/>
-      <c r="F467" s="81"/>
+      <c r="B467" s="13">
+        <v>2</v>
+      </c>
+      <c r="C467" s="13">
+        <v>4</v>
+      </c>
+      <c r="D467" s="13">
+        <v>2024</v>
+      </c>
+      <c r="E467" s="2" t="s">
+        <v>1624</v>
+      </c>
+      <c r="F467" s="163" t="s">
+        <v>444</v>
+      </c>
       <c r="G467" s="71"/>
       <c r="H467" s="69"/>
-      <c r="I467" s="69"/>
-      <c r="J467" s="76"/>
-      <c r="L467" s="69"/>
+      <c r="I467" s="13" t="s">
+        <v>996</v>
+      </c>
+      <c r="J467" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="K467" s="199">
+        <v>45420</v>
+      </c>
+      <c r="L467" s="69" t="s">
+        <v>1295</v>
+      </c>
       <c r="M467" s="114"/>
       <c r="N467" s="71"/>
       <c r="O467" s="71"/>
@@ -24838,16 +25593,35 @@
       <c r="A468" s="81">
         <v>467</v>
       </c>
-      <c r="B468" s="73"/>
-      <c r="C468" s="73"/>
-      <c r="D468" s="73"/>
-      <c r="E468" s="74"/>
-      <c r="F468" s="81"/>
+      <c r="B468" s="13">
+        <v>2</v>
+      </c>
+      <c r="C468" s="13">
+        <v>4</v>
+      </c>
+      <c r="D468" s="13">
+        <v>2024</v>
+      </c>
+      <c r="E468" s="2" t="s">
+        <v>1625</v>
+      </c>
+      <c r="F468" s="163" t="s">
+        <v>444</v>
+      </c>
       <c r="G468" s="71"/>
       <c r="H468" s="69"/>
-      <c r="I468" s="69"/>
-      <c r="J468" s="76"/>
-      <c r="L468" s="69"/>
+      <c r="I468" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="J468" s="14" t="s">
+        <v>1660</v>
+      </c>
+      <c r="K468" s="199">
+        <v>45420</v>
+      </c>
+      <c r="L468" s="69" t="s">
+        <v>1295</v>
+      </c>
       <c r="M468" s="114"/>
       <c r="N468" s="71"/>
       <c r="O468" s="71"/>
@@ -24857,16 +25631,35 @@
       <c r="A469" s="81">
         <v>468</v>
       </c>
-      <c r="B469" s="73"/>
-      <c r="C469" s="73"/>
-      <c r="D469" s="73"/>
-      <c r="E469" s="74"/>
-      <c r="F469" s="81"/>
+      <c r="B469" s="13">
+        <v>2</v>
+      </c>
+      <c r="C469" s="13">
+        <v>4</v>
+      </c>
+      <c r="D469" s="13">
+        <v>2024</v>
+      </c>
+      <c r="E469" s="2" t="s">
+        <v>557</v>
+      </c>
+      <c r="F469" s="163" t="s">
+        <v>444</v>
+      </c>
       <c r="G469" s="71"/>
       <c r="H469" s="69"/>
-      <c r="I469" s="69"/>
-      <c r="J469" s="76"/>
-      <c r="L469" s="69"/>
+      <c r="I469" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="J469" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="K469" s="199">
+        <v>45420</v>
+      </c>
+      <c r="L469" s="69" t="s">
+        <v>1295</v>
+      </c>
       <c r="M469" s="114"/>
       <c r="N469" s="71"/>
       <c r="O469" s="71"/>
@@ -24876,16 +25669,35 @@
       <c r="A470" s="81">
         <v>469</v>
       </c>
-      <c r="B470" s="73"/>
-      <c r="C470" s="73"/>
-      <c r="D470" s="73"/>
-      <c r="E470" s="74"/>
-      <c r="F470" s="81"/>
+      <c r="B470" s="13">
+        <v>2</v>
+      </c>
+      <c r="C470" s="13">
+        <v>4</v>
+      </c>
+      <c r="D470" s="13">
+        <v>2024</v>
+      </c>
+      <c r="E470" s="2" t="s">
+        <v>1163</v>
+      </c>
+      <c r="F470" s="163" t="s">
+        <v>444</v>
+      </c>
       <c r="G470" s="71"/>
       <c r="H470" s="69"/>
-      <c r="I470" s="69"/>
-      <c r="J470" s="76"/>
-      <c r="L470" s="69"/>
+      <c r="I470" s="13" t="s">
+        <v>996</v>
+      </c>
+      <c r="J470" s="14" t="s">
+        <v>1184</v>
+      </c>
+      <c r="K470" s="199">
+        <v>45420</v>
+      </c>
+      <c r="L470" s="69" t="s">
+        <v>1295</v>
+      </c>
       <c r="M470" s="114"/>
       <c r="N470" s="71"/>
       <c r="O470" s="71"/>
@@ -24895,16 +25707,35 @@
       <c r="A471" s="81">
         <v>470</v>
       </c>
-      <c r="B471" s="73"/>
-      <c r="C471" s="73"/>
-      <c r="D471" s="73"/>
-      <c r="E471" s="74"/>
-      <c r="F471" s="81"/>
+      <c r="B471" s="13">
+        <v>2</v>
+      </c>
+      <c r="C471" s="13">
+        <v>4</v>
+      </c>
+      <c r="D471" s="13">
+        <v>2024</v>
+      </c>
+      <c r="E471" s="2" t="s">
+        <v>852</v>
+      </c>
+      <c r="F471" s="163" t="s">
+        <v>444</v>
+      </c>
       <c r="G471" s="71"/>
       <c r="H471" s="69"/>
-      <c r="I471" s="69"/>
-      <c r="J471" s="76"/>
-      <c r="L471" s="69"/>
+      <c r="I471" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="J471" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="K471" s="199">
+        <v>45420</v>
+      </c>
+      <c r="L471" s="69" t="s">
+        <v>1295</v>
+      </c>
       <c r="M471" s="114"/>
       <c r="N471" s="71"/>
       <c r="O471" s="71"/>
@@ -24914,16 +25745,35 @@
       <c r="A472" s="81">
         <v>471</v>
       </c>
-      <c r="B472" s="73"/>
-      <c r="C472" s="73"/>
-      <c r="D472" s="73"/>
-      <c r="E472" s="74"/>
-      <c r="F472" s="81"/>
+      <c r="B472" s="13">
+        <v>2</v>
+      </c>
+      <c r="C472" s="13">
+        <v>4</v>
+      </c>
+      <c r="D472" s="13">
+        <v>2024</v>
+      </c>
+      <c r="E472" s="2" t="s">
+        <v>1626</v>
+      </c>
+      <c r="F472" s="163" t="s">
+        <v>444</v>
+      </c>
       <c r="G472" s="71"/>
       <c r="H472" s="69"/>
-      <c r="I472" s="69"/>
-      <c r="J472" s="76"/>
-      <c r="L472" s="69"/>
+      <c r="I472" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="J472" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="K472" s="199">
+        <v>45420</v>
+      </c>
+      <c r="L472" s="69" t="s">
+        <v>1295</v>
+      </c>
       <c r="M472" s="114"/>
       <c r="N472" s="71"/>
       <c r="O472" s="71"/>
@@ -24933,16 +25783,35 @@
       <c r="A473" s="81">
         <v>472</v>
       </c>
-      <c r="B473" s="73"/>
-      <c r="C473" s="73"/>
-      <c r="D473" s="73"/>
-      <c r="E473" s="74"/>
-      <c r="F473" s="81"/>
+      <c r="B473" s="13">
+        <v>2</v>
+      </c>
+      <c r="C473" s="13">
+        <v>4</v>
+      </c>
+      <c r="D473" s="13">
+        <v>2024</v>
+      </c>
+      <c r="E473" s="2" t="s">
+        <v>1142</v>
+      </c>
+      <c r="F473" s="163" t="s">
+        <v>444</v>
+      </c>
       <c r="G473" s="71"/>
       <c r="H473" s="69"/>
-      <c r="I473" s="69"/>
-      <c r="J473" s="76"/>
-      <c r="L473" s="69"/>
+      <c r="I473" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="J473" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="K473" s="199">
+        <v>45420</v>
+      </c>
+      <c r="L473" s="69" t="s">
+        <v>1296</v>
+      </c>
       <c r="M473" s="114"/>
       <c r="N473" s="71"/>
       <c r="O473" s="71"/>
@@ -24952,16 +25821,35 @@
       <c r="A474" s="81">
         <v>473</v>
       </c>
-      <c r="B474" s="73"/>
-      <c r="C474" s="73"/>
-      <c r="D474" s="73"/>
-      <c r="E474" s="74"/>
-      <c r="F474" s="81"/>
+      <c r="B474" s="13">
+        <v>2</v>
+      </c>
+      <c r="C474" s="13">
+        <v>4</v>
+      </c>
+      <c r="D474" s="13">
+        <v>2024</v>
+      </c>
+      <c r="E474" s="2" t="s">
+        <v>1627</v>
+      </c>
+      <c r="F474" s="163" t="s">
+        <v>444</v>
+      </c>
       <c r="G474" s="71"/>
       <c r="H474" s="69"/>
-      <c r="I474" s="69"/>
-      <c r="J474" s="76"/>
-      <c r="L474" s="69"/>
+      <c r="I474" s="13" t="s">
+        <v>996</v>
+      </c>
+      <c r="J474" s="14" t="s">
+        <v>1661</v>
+      </c>
+      <c r="K474" s="199">
+        <v>45420</v>
+      </c>
+      <c r="L474" s="69" t="s">
+        <v>1296</v>
+      </c>
       <c r="M474" s="114"/>
       <c r="N474" s="71"/>
       <c r="O474" s="71"/>
@@ -24971,16 +25859,35 @@
       <c r="A475" s="81">
         <v>474</v>
       </c>
-      <c r="B475" s="73"/>
-      <c r="C475" s="73"/>
-      <c r="D475" s="73"/>
-      <c r="E475" s="74"/>
-      <c r="F475" s="81"/>
+      <c r="B475" s="13">
+        <v>2</v>
+      </c>
+      <c r="C475" s="13">
+        <v>4</v>
+      </c>
+      <c r="D475" s="13">
+        <v>2024</v>
+      </c>
+      <c r="E475" s="2" t="s">
+        <v>1628</v>
+      </c>
+      <c r="F475" s="163" t="s">
+        <v>444</v>
+      </c>
       <c r="G475" s="71"/>
       <c r="H475" s="69"/>
-      <c r="I475" s="69"/>
-      <c r="J475" s="76"/>
-      <c r="L475" s="69"/>
+      <c r="I475" s="13" t="s">
+        <v>996</v>
+      </c>
+      <c r="J475" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="K475" s="199">
+        <v>45420</v>
+      </c>
+      <c r="L475" s="69" t="s">
+        <v>1296</v>
+      </c>
       <c r="M475" s="114"/>
       <c r="N475" s="71"/>
       <c r="O475" s="71"/>
@@ -24990,16 +25897,35 @@
       <c r="A476" s="81">
         <v>475</v>
       </c>
-      <c r="B476" s="73"/>
-      <c r="C476" s="73"/>
-      <c r="D476" s="73"/>
-      <c r="E476" s="74"/>
-      <c r="F476" s="81"/>
+      <c r="B476" s="13">
+        <v>2</v>
+      </c>
+      <c r="C476" s="13">
+        <v>4</v>
+      </c>
+      <c r="D476" s="13">
+        <v>2024</v>
+      </c>
+      <c r="E476" s="2" t="s">
+        <v>1629</v>
+      </c>
+      <c r="F476" s="163" t="s">
+        <v>444</v>
+      </c>
       <c r="G476" s="71"/>
       <c r="H476" s="69"/>
-      <c r="I476" s="69"/>
-      <c r="J476" s="76"/>
-      <c r="L476" s="69"/>
+      <c r="I476" s="13" t="s">
+        <v>996</v>
+      </c>
+      <c r="J476" s="14" t="s">
+        <v>1662</v>
+      </c>
+      <c r="K476" s="199">
+        <v>45420</v>
+      </c>
+      <c r="L476" s="69" t="s">
+        <v>1296</v>
+      </c>
       <c r="M476" s="114"/>
       <c r="N476" s="71"/>
       <c r="O476" s="71"/>
@@ -25009,16 +25935,35 @@
       <c r="A477" s="81">
         <v>476</v>
       </c>
-      <c r="B477" s="73"/>
-      <c r="C477" s="73"/>
-      <c r="D477" s="73"/>
-      <c r="E477" s="74"/>
-      <c r="F477" s="81"/>
+      <c r="B477" s="13">
+        <v>2</v>
+      </c>
+      <c r="C477" s="13">
+        <v>4</v>
+      </c>
+      <c r="D477" s="13">
+        <v>2024</v>
+      </c>
+      <c r="E477" s="2" t="s">
+        <v>1630</v>
+      </c>
+      <c r="F477" s="163" t="s">
+        <v>444</v>
+      </c>
       <c r="G477" s="71"/>
       <c r="H477" s="69"/>
-      <c r="I477" s="69"/>
-      <c r="J477" s="76"/>
-      <c r="L477" s="69"/>
+      <c r="I477" s="13" t="s">
+        <v>993</v>
+      </c>
+      <c r="J477" s="14" t="s">
+        <v>1663</v>
+      </c>
+      <c r="K477" s="199">
+        <v>45420</v>
+      </c>
+      <c r="L477" s="69" t="s">
+        <v>1296</v>
+      </c>
       <c r="M477" s="114"/>
       <c r="N477" s="71"/>
       <c r="O477" s="71"/>
@@ -25028,16 +25973,35 @@
       <c r="A478" s="81">
         <v>477</v>
       </c>
-      <c r="B478" s="73"/>
-      <c r="C478" s="73"/>
-      <c r="D478" s="73"/>
-      <c r="E478" s="74"/>
-      <c r="F478" s="81"/>
+      <c r="B478" s="13">
+        <v>3</v>
+      </c>
+      <c r="C478" s="13">
+        <v>4</v>
+      </c>
+      <c r="D478" s="13">
+        <v>2024</v>
+      </c>
+      <c r="E478" s="2" t="s">
+        <v>1631</v>
+      </c>
+      <c r="F478" s="163" t="s">
+        <v>444</v>
+      </c>
       <c r="G478" s="71"/>
       <c r="H478" s="69"/>
-      <c r="I478" s="69"/>
-      <c r="J478" s="76"/>
-      <c r="L478" s="69"/>
+      <c r="I478" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="J478" s="14" t="s">
+        <v>1664</v>
+      </c>
+      <c r="K478" s="199">
+        <v>45421</v>
+      </c>
+      <c r="L478" s="69" t="s">
+        <v>1296</v>
+      </c>
       <c r="M478" s="114"/>
       <c r="N478" s="71"/>
       <c r="O478" s="71"/>
@@ -25047,16 +26011,35 @@
       <c r="A479" s="81">
         <v>478</v>
       </c>
-      <c r="B479" s="73"/>
-      <c r="C479" s="73"/>
-      <c r="D479" s="73"/>
-      <c r="E479" s="74"/>
-      <c r="F479" s="81"/>
+      <c r="B479" s="13">
+        <v>3</v>
+      </c>
+      <c r="C479" s="13">
+        <v>4</v>
+      </c>
+      <c r="D479" s="13">
+        <v>2024</v>
+      </c>
+      <c r="E479" s="2" t="s">
+        <v>1632</v>
+      </c>
+      <c r="F479" s="163" t="s">
+        <v>14</v>
+      </c>
       <c r="G479" s="71"/>
       <c r="H479" s="69"/>
-      <c r="I479" s="69"/>
-      <c r="J479" s="76"/>
-      <c r="L479" s="69"/>
+      <c r="I479" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="J479" s="14" t="s">
+        <v>1665</v>
+      </c>
+      <c r="K479" s="200">
+        <v>45428</v>
+      </c>
+      <c r="L479" s="69" t="s">
+        <v>1297</v>
+      </c>
       <c r="M479" s="114"/>
       <c r="N479" s="71"/>
       <c r="O479" s="71"/>
@@ -25066,16 +26049,35 @@
       <c r="A480" s="81">
         <v>479</v>
       </c>
-      <c r="B480" s="73"/>
-      <c r="C480" s="73"/>
-      <c r="D480" s="73"/>
-      <c r="E480" s="74"/>
-      <c r="F480" s="81"/>
+      <c r="B480" s="13">
+        <v>3</v>
+      </c>
+      <c r="C480" s="13">
+        <v>4</v>
+      </c>
+      <c r="D480" s="13">
+        <v>2024</v>
+      </c>
+      <c r="E480" s="2" t="s">
+        <v>1302</v>
+      </c>
+      <c r="F480" s="163" t="s">
+        <v>444</v>
+      </c>
       <c r="G480" s="71"/>
       <c r="H480" s="69"/>
-      <c r="I480" s="69"/>
-      <c r="J480" s="76"/>
-      <c r="L480" s="69"/>
+      <c r="I480" s="13" t="s">
+        <v>1284</v>
+      </c>
+      <c r="J480" s="14" t="s">
+        <v>1353</v>
+      </c>
+      <c r="K480" s="199">
+        <v>45421</v>
+      </c>
+      <c r="L480" s="69" t="s">
+        <v>1296</v>
+      </c>
       <c r="M480" s="114"/>
       <c r="N480" s="71"/>
       <c r="O480" s="71"/>
@@ -25085,15 +26087,32 @@
       <c r="A481" s="81">
         <v>480</v>
       </c>
-      <c r="B481" s="73"/>
-      <c r="C481" s="73"/>
-      <c r="D481" s="73"/>
-      <c r="E481" s="74"/>
-      <c r="F481" s="81"/>
+      <c r="B481" s="13">
+        <v>3</v>
+      </c>
+      <c r="C481" s="13">
+        <v>4</v>
+      </c>
+      <c r="D481" s="13">
+        <v>2024</v>
+      </c>
+      <c r="E481" s="2" t="s">
+        <v>1633</v>
+      </c>
+      <c r="F481" s="163" t="s">
+        <v>444</v>
+      </c>
       <c r="G481" s="71"/>
       <c r="H481" s="69"/>
-      <c r="I481" s="69"/>
-      <c r="J481" s="76"/>
+      <c r="I481" s="13" t="s">
+        <v>996</v>
+      </c>
+      <c r="J481" s="14" t="s">
+        <v>1666</v>
+      </c>
+      <c r="K481" s="199">
+        <v>45421</v>
+      </c>
       <c r="L481" s="69" t="s">
         <v>1298</v>
       </c>
@@ -25107,23 +26126,42 @@
         <v>1</v>
       </c>
       <c r="P481" s="69" t="s">
-        <v>1596</v>
+        <v>1595</v>
       </c>
     </row>
     <row r="482" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A482" s="81">
         <v>481</v>
       </c>
-      <c r="B482" s="73"/>
-      <c r="C482" s="73"/>
-      <c r="D482" s="73"/>
-      <c r="E482" s="74"/>
-      <c r="F482" s="81"/>
+      <c r="B482" s="13">
+        <v>3</v>
+      </c>
+      <c r="C482" s="13">
+        <v>4</v>
+      </c>
+      <c r="D482" s="13">
+        <v>2024</v>
+      </c>
+      <c r="E482" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="F482" s="163" t="s">
+        <v>444</v>
+      </c>
       <c r="G482" s="71"/>
       <c r="H482" s="69"/>
-      <c r="I482" s="69"/>
-      <c r="J482" s="76"/>
-      <c r="L482" s="69"/>
+      <c r="I482" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="J482" s="14" t="s">
+        <v>42</v>
+      </c>
+      <c r="K482" s="199">
+        <v>45421</v>
+      </c>
+      <c r="L482" s="69" t="s">
+        <v>1297</v>
+      </c>
       <c r="M482" s="114"/>
       <c r="N482" s="71"/>
       <c r="O482" s="71"/>
@@ -25133,16 +26171,35 @@
       <c r="A483" s="81">
         <v>482</v>
       </c>
-      <c r="B483" s="73"/>
-      <c r="C483" s="73"/>
-      <c r="D483" s="73"/>
-      <c r="E483" s="74"/>
-      <c r="F483" s="81"/>
+      <c r="B483" s="13">
+        <v>3</v>
+      </c>
+      <c r="C483" s="13">
+        <v>4</v>
+      </c>
+      <c r="D483" s="13">
+        <v>2024</v>
+      </c>
+      <c r="E483" s="2" t="s">
+        <v>1199</v>
+      </c>
+      <c r="F483" s="163" t="s">
+        <v>444</v>
+      </c>
       <c r="G483" s="71"/>
       <c r="H483" s="69"/>
-      <c r="I483" s="69"/>
-      <c r="J483" s="76"/>
-      <c r="L483" s="69"/>
+      <c r="I483" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="J483" s="14" t="s">
+        <v>1252</v>
+      </c>
+      <c r="K483" s="199">
+        <v>45421</v>
+      </c>
+      <c r="L483" s="69" t="s">
+        <v>1297</v>
+      </c>
       <c r="M483" s="114"/>
       <c r="N483" s="71"/>
       <c r="O483" s="71"/>
@@ -25152,16 +26209,35 @@
       <c r="A484" s="81">
         <v>483</v>
       </c>
-      <c r="B484" s="73"/>
-      <c r="C484" s="73"/>
-      <c r="D484" s="73"/>
-      <c r="E484" s="74"/>
-      <c r="F484" s="81"/>
+      <c r="B484" s="13">
+        <v>3</v>
+      </c>
+      <c r="C484" s="13">
+        <v>4</v>
+      </c>
+      <c r="D484" s="13">
+        <v>2024</v>
+      </c>
+      <c r="E484" s="103" t="s">
+        <v>1634</v>
+      </c>
+      <c r="F484" s="163" t="s">
+        <v>444</v>
+      </c>
       <c r="G484" s="71"/>
       <c r="H484" s="69"/>
-      <c r="I484" s="69"/>
-      <c r="J484" s="76"/>
-      <c r="L484" s="69"/>
+      <c r="I484" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="J484" s="14" t="s">
+        <v>1667</v>
+      </c>
+      <c r="K484" s="199">
+        <v>45421</v>
+      </c>
+      <c r="L484" s="69" t="s">
+        <v>1297</v>
+      </c>
       <c r="M484" s="114"/>
       <c r="N484" s="71"/>
       <c r="O484" s="71"/>
@@ -25171,16 +26247,35 @@
       <c r="A485" s="81">
         <v>484</v>
       </c>
-      <c r="B485" s="73"/>
-      <c r="C485" s="73"/>
-      <c r="D485" s="73"/>
-      <c r="E485" s="74"/>
-      <c r="F485" s="81"/>
+      <c r="B485" s="13">
+        <v>3</v>
+      </c>
+      <c r="C485" s="13">
+        <v>4</v>
+      </c>
+      <c r="D485" s="13">
+        <v>2024</v>
+      </c>
+      <c r="E485" s="2" t="s">
+        <v>392</v>
+      </c>
+      <c r="F485" s="163" t="s">
+        <v>444</v>
+      </c>
       <c r="G485" s="71"/>
       <c r="H485" s="69"/>
-      <c r="I485" s="69"/>
-      <c r="J485" s="76"/>
-      <c r="L485" s="69"/>
+      <c r="I485" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="J485" s="14" t="s">
+        <v>1668</v>
+      </c>
+      <c r="K485" s="199">
+        <v>45421</v>
+      </c>
+      <c r="L485" s="69" t="s">
+        <v>1297</v>
+      </c>
       <c r="M485" s="114"/>
       <c r="N485" s="71"/>
       <c r="O485" s="71"/>
@@ -25190,16 +26285,35 @@
       <c r="A486" s="81">
         <v>485</v>
       </c>
-      <c r="B486" s="73"/>
-      <c r="C486" s="73"/>
-      <c r="D486" s="73"/>
-      <c r="E486" s="74"/>
-      <c r="F486" s="81"/>
+      <c r="B486" s="13">
+        <v>3</v>
+      </c>
+      <c r="C486" s="13">
+        <v>4</v>
+      </c>
+      <c r="D486" s="13">
+        <v>2024</v>
+      </c>
+      <c r="E486" s="2" t="s">
+        <v>1635</v>
+      </c>
+      <c r="F486" s="163" t="s">
+        <v>444</v>
+      </c>
       <c r="G486" s="71"/>
       <c r="H486" s="69"/>
-      <c r="I486" s="69"/>
-      <c r="J486" s="76"/>
-      <c r="L486" s="69"/>
+      <c r="I486" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="J486" s="14" t="s">
+        <v>1666</v>
+      </c>
+      <c r="K486" s="199">
+        <v>45421</v>
+      </c>
+      <c r="L486" s="69" t="s">
+        <v>1297</v>
+      </c>
       <c r="M486" s="114"/>
       <c r="N486" s="71"/>
       <c r="O486" s="71"/>
@@ -25209,16 +26323,35 @@
       <c r="A487" s="81">
         <v>486</v>
       </c>
-      <c r="B487" s="73"/>
-      <c r="C487" s="73"/>
-      <c r="D487" s="73"/>
-      <c r="E487" s="74"/>
-      <c r="F487" s="81"/>
+      <c r="B487" s="13">
+        <v>3</v>
+      </c>
+      <c r="C487" s="13">
+        <v>4</v>
+      </c>
+      <c r="D487" s="13">
+        <v>2024</v>
+      </c>
+      <c r="E487" s="2" t="s">
+        <v>1636</v>
+      </c>
+      <c r="F487" s="163" t="s">
+        <v>444</v>
+      </c>
       <c r="G487" s="71"/>
       <c r="H487" s="69"/>
-      <c r="I487" s="69"/>
-      <c r="J487" s="76"/>
-      <c r="L487" s="69"/>
+      <c r="I487" s="13" t="s">
+        <v>996</v>
+      </c>
+      <c r="J487" s="14" t="s">
+        <v>1669</v>
+      </c>
+      <c r="K487" s="199">
+        <v>45421</v>
+      </c>
+      <c r="L487" s="69" t="s">
+        <v>1297</v>
+      </c>
       <c r="M487" s="114"/>
       <c r="N487" s="71"/>
       <c r="O487" s="71"/>
@@ -25228,16 +26361,35 @@
       <c r="A488" s="81">
         <v>487</v>
       </c>
-      <c r="B488" s="73"/>
-      <c r="C488" s="73"/>
-      <c r="D488" s="73"/>
-      <c r="E488" s="74"/>
-      <c r="F488" s="81"/>
+      <c r="B488" s="13">
+        <v>3</v>
+      </c>
+      <c r="C488" s="13">
+        <v>4</v>
+      </c>
+      <c r="D488" s="13">
+        <v>2024</v>
+      </c>
+      <c r="E488" s="2" t="s">
+        <v>1637</v>
+      </c>
+      <c r="F488" s="163" t="s">
+        <v>444</v>
+      </c>
       <c r="G488" s="71"/>
       <c r="H488" s="69"/>
-      <c r="I488" s="69"/>
-      <c r="J488" s="76"/>
-      <c r="L488" s="69"/>
+      <c r="I488" s="13" t="s">
+        <v>1349</v>
+      </c>
+      <c r="J488" s="14" t="s">
+        <v>1670</v>
+      </c>
+      <c r="K488" s="199">
+        <v>45421</v>
+      </c>
+      <c r="L488" s="69" t="s">
+        <v>1297</v>
+      </c>
       <c r="M488" s="114"/>
       <c r="N488" s="71"/>
       <c r="O488" s="71"/>
@@ -25247,16 +26399,35 @@
       <c r="A489" s="81">
         <v>488</v>
       </c>
-      <c r="B489" s="73"/>
-      <c r="C489" s="73"/>
-      <c r="D489" s="73"/>
-      <c r="E489" s="74"/>
-      <c r="F489" s="81"/>
+      <c r="B489" s="13">
+        <v>3</v>
+      </c>
+      <c r="C489" s="13">
+        <v>4</v>
+      </c>
+      <c r="D489" s="13">
+        <v>2024</v>
+      </c>
+      <c r="E489" s="2" t="s">
+        <v>1638</v>
+      </c>
+      <c r="F489" s="163" t="s">
+        <v>14</v>
+      </c>
       <c r="G489" s="71"/>
       <c r="H489" s="69"/>
-      <c r="I489" s="69"/>
-      <c r="J489" s="76"/>
-      <c r="L489" s="69"/>
+      <c r="I489" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="J489" s="14" t="s">
+        <v>284</v>
+      </c>
+      <c r="K489" s="200">
+        <v>45428</v>
+      </c>
+      <c r="L489" s="69" t="s">
+        <v>1297</v>
+      </c>
       <c r="M489" s="114"/>
       <c r="N489" s="71"/>
       <c r="O489" s="71"/>
@@ -25266,10 +26437,18 @@
       <c r="A490" s="81">
         <v>489</v>
       </c>
-      <c r="B490" s="73"/>
-      <c r="C490" s="73"/>
-      <c r="D490" s="73"/>
-      <c r="E490" s="74"/>
+      <c r="B490" s="13">
+        <v>3</v>
+      </c>
+      <c r="C490" s="13">
+        <v>4</v>
+      </c>
+      <c r="D490" s="13">
+        <v>2024</v>
+      </c>
+      <c r="E490" s="103" t="s">
+        <v>1639</v>
+      </c>
       <c r="F490" s="81" t="s">
         <v>444</v>
       </c>
@@ -25279,8 +26458,15 @@
       <c r="H490" s="69">
         <v>252</v>
       </c>
-      <c r="I490" s="69"/>
-      <c r="J490" s="76"/>
+      <c r="I490" s="13" t="s">
+        <v>993</v>
+      </c>
+      <c r="J490" s="14" t="s">
+        <v>1671</v>
+      </c>
+      <c r="K490" s="199">
+        <v>45421</v>
+      </c>
       <c r="L490" s="70" t="s">
         <v>1295</v>
       </c>
@@ -25294,17 +26480,25 @@
         <v>1</v>
       </c>
       <c r="P490" s="69" t="s">
-        <v>1603</v>
+        <v>1602</v>
       </c>
     </row>
     <row r="491" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A491" s="81">
         <v>490</v>
       </c>
-      <c r="B491" s="73"/>
-      <c r="C491" s="73"/>
-      <c r="D491" s="73"/>
-      <c r="E491" s="74"/>
+      <c r="B491" s="13">
+        <v>3</v>
+      </c>
+      <c r="C491" s="13">
+        <v>4</v>
+      </c>
+      <c r="D491" s="13">
+        <v>2024</v>
+      </c>
+      <c r="E491" s="2" t="s">
+        <v>1640</v>
+      </c>
       <c r="F491" s="81" t="s">
         <v>444</v>
       </c>
@@ -25314,8 +26508,15 @@
       <c r="H491" s="69">
         <v>107</v>
       </c>
-      <c r="I491" s="69"/>
-      <c r="J491" s="76"/>
+      <c r="I491" s="13" t="s">
+        <v>1284</v>
+      </c>
+      <c r="J491" s="14" t="s">
+        <v>1672</v>
+      </c>
+      <c r="K491" s="199">
+        <v>45421</v>
+      </c>
       <c r="L491" s="70" t="s">
         <v>1295</v>
       </c>
@@ -25329,17 +26530,25 @@
         <v>1</v>
       </c>
       <c r="P491" s="69" t="s">
-        <v>1603</v>
+        <v>1602</v>
       </c>
     </row>
     <row r="492" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A492" s="81">
         <v>491</v>
       </c>
-      <c r="B492" s="73"/>
-      <c r="C492" s="73"/>
-      <c r="D492" s="73"/>
-      <c r="E492" s="74"/>
+      <c r="B492" s="13">
+        <v>3</v>
+      </c>
+      <c r="C492" s="13">
+        <v>4</v>
+      </c>
+      <c r="D492" s="13">
+        <v>2024</v>
+      </c>
+      <c r="E492" s="2" t="s">
+        <v>1640</v>
+      </c>
       <c r="F492" s="81" t="s">
         <v>444</v>
       </c>
@@ -25349,8 +26558,15 @@
       <c r="H492" s="69">
         <v>131</v>
       </c>
-      <c r="I492" s="69"/>
-      <c r="J492" s="76"/>
+      <c r="I492" s="13" t="s">
+        <v>1284</v>
+      </c>
+      <c r="J492" s="14" t="s">
+        <v>1672</v>
+      </c>
+      <c r="K492" s="199">
+        <v>45421</v>
+      </c>
       <c r="L492" s="70" t="s">
         <v>1295</v>
       </c>
@@ -25364,17 +26580,25 @@
         <v>1</v>
       </c>
       <c r="P492" s="69" t="s">
-        <v>1603</v>
+        <v>1602</v>
       </c>
     </row>
     <row r="493" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A493" s="81">
         <v>492</v>
       </c>
-      <c r="B493" s="73"/>
-      <c r="C493" s="73"/>
-      <c r="D493" s="73"/>
-      <c r="E493" s="74"/>
+      <c r="B493" s="13">
+        <v>3</v>
+      </c>
+      <c r="C493" s="13">
+        <v>4</v>
+      </c>
+      <c r="D493" s="13">
+        <v>2024</v>
+      </c>
+      <c r="E493" s="2" t="s">
+        <v>1640</v>
+      </c>
       <c r="F493" s="81" t="s">
         <v>444</v>
       </c>
@@ -25384,8 +26608,15 @@
       <c r="H493" s="69">
         <v>201</v>
       </c>
-      <c r="I493" s="69"/>
-      <c r="J493" s="76"/>
+      <c r="I493" s="13" t="s">
+        <v>1284</v>
+      </c>
+      <c r="J493" s="14" t="s">
+        <v>1672</v>
+      </c>
+      <c r="K493" s="199">
+        <v>45421</v>
+      </c>
       <c r="L493" s="70" t="s">
         <v>1295</v>
       </c>
@@ -25399,17 +26630,25 @@
         <v>1</v>
       </c>
       <c r="P493" s="69" t="s">
-        <v>1603</v>
+        <v>1602</v>
       </c>
     </row>
     <row r="494" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A494" s="81">
         <v>493</v>
       </c>
-      <c r="B494" s="73"/>
-      <c r="C494" s="73"/>
-      <c r="D494" s="73"/>
-      <c r="E494" s="74"/>
+      <c r="B494" s="13">
+        <v>3</v>
+      </c>
+      <c r="C494" s="13">
+        <v>4</v>
+      </c>
+      <c r="D494" s="13">
+        <v>2024</v>
+      </c>
+      <c r="E494" s="2" t="s">
+        <v>1640</v>
+      </c>
       <c r="F494" s="81" t="s">
         <v>444</v>
       </c>
@@ -25417,10 +26656,17 @@
         <v>30</v>
       </c>
       <c r="H494" s="69" t="s">
-        <v>1604</v>
-      </c>
-      <c r="I494" s="69"/>
-      <c r="J494" s="76"/>
+        <v>1603</v>
+      </c>
+      <c r="I494" s="13" t="s">
+        <v>1284</v>
+      </c>
+      <c r="J494" s="14" t="s">
+        <v>1672</v>
+      </c>
+      <c r="K494" s="199">
+        <v>45421</v>
+      </c>
       <c r="L494" s="70" t="s">
         <v>1295</v>
       </c>
@@ -25434,17 +26680,25 @@
         <v>1</v>
       </c>
       <c r="P494" s="69" t="s">
-        <v>1603</v>
+        <v>1602</v>
       </c>
     </row>
     <row r="495" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A495" s="81">
         <v>494</v>
       </c>
-      <c r="B495" s="73"/>
-      <c r="C495" s="73"/>
-      <c r="D495" s="73"/>
-      <c r="E495" s="74"/>
+      <c r="B495" s="13">
+        <v>3</v>
+      </c>
+      <c r="C495" s="13">
+        <v>4</v>
+      </c>
+      <c r="D495" s="13">
+        <v>2024</v>
+      </c>
+      <c r="E495" s="2" t="s">
+        <v>1640</v>
+      </c>
       <c r="F495" s="81" t="s">
         <v>444</v>
       </c>
@@ -25454,8 +26708,15 @@
       <c r="H495" s="69">
         <v>187</v>
       </c>
-      <c r="I495" s="69"/>
-      <c r="J495" s="76"/>
+      <c r="I495" s="13" t="s">
+        <v>1284</v>
+      </c>
+      <c r="J495" s="14" t="s">
+        <v>1672</v>
+      </c>
+      <c r="K495" s="199">
+        <v>45421</v>
+      </c>
       <c r="L495" s="70" t="s">
         <v>1295</v>
       </c>
@@ -25469,23 +26730,42 @@
         <v>1</v>
       </c>
       <c r="P495" s="69" t="s">
-        <v>1603</v>
+        <v>1602</v>
       </c>
     </row>
     <row r="496" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A496" s="81">
         <v>495</v>
       </c>
-      <c r="B496" s="73"/>
-      <c r="C496" s="73"/>
-      <c r="D496" s="73"/>
-      <c r="E496" s="74"/>
-      <c r="F496" s="81"/>
+      <c r="B496" s="13">
+        <v>4</v>
+      </c>
+      <c r="C496" s="13">
+        <v>4</v>
+      </c>
+      <c r="D496" s="13">
+        <v>2024</v>
+      </c>
+      <c r="E496" s="2" t="s">
+        <v>1641</v>
+      </c>
+      <c r="F496" s="163" t="s">
+        <v>444</v>
+      </c>
       <c r="G496" s="71"/>
       <c r="H496" s="69"/>
-      <c r="I496" s="69"/>
-      <c r="J496" s="76"/>
-      <c r="L496" s="69"/>
+      <c r="I496" s="13" t="s">
+        <v>72</v>
+      </c>
+      <c r="J496" s="14" t="s">
+        <v>1673</v>
+      </c>
+      <c r="K496" s="199">
+        <v>45422</v>
+      </c>
+      <c r="L496" s="69" t="s">
+        <v>1298</v>
+      </c>
       <c r="M496" s="114"/>
       <c r="N496" s="71"/>
       <c r="O496" s="71"/>
@@ -25495,16 +26775,35 @@
       <c r="A497" s="81">
         <v>496</v>
       </c>
-      <c r="B497" s="73"/>
-      <c r="C497" s="73"/>
-      <c r="D497" s="73"/>
-      <c r="E497" s="74"/>
-      <c r="F497" s="81"/>
+      <c r="B497" s="13">
+        <v>4</v>
+      </c>
+      <c r="C497" s="13">
+        <v>4</v>
+      </c>
+      <c r="D497" s="13">
+        <v>2024</v>
+      </c>
+      <c r="E497" s="2" t="s">
+        <v>1642</v>
+      </c>
+      <c r="F497" s="163" t="s">
+        <v>14</v>
+      </c>
       <c r="G497" s="71"/>
       <c r="H497" s="69"/>
-      <c r="I497" s="69"/>
-      <c r="J497" s="76"/>
-      <c r="L497" s="69"/>
+      <c r="I497" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="J497" s="14" t="s">
+        <v>1674</v>
+      </c>
+      <c r="K497" s="200">
+        <v>45429</v>
+      </c>
+      <c r="L497" s="69" t="s">
+        <v>1298</v>
+      </c>
       <c r="M497" s="114"/>
       <c r="N497" s="71"/>
       <c r="O497" s="71"/>
@@ -25514,16 +26813,35 @@
       <c r="A498" s="81">
         <v>497</v>
       </c>
-      <c r="B498" s="73"/>
-      <c r="C498" s="73"/>
-      <c r="D498" s="73"/>
-      <c r="E498" s="74"/>
-      <c r="F498" s="81"/>
+      <c r="B498" s="13">
+        <v>4</v>
+      </c>
+      <c r="C498" s="13">
+        <v>4</v>
+      </c>
+      <c r="D498" s="13">
+        <v>2024</v>
+      </c>
+      <c r="E498" s="2" t="s">
+        <v>1642</v>
+      </c>
+      <c r="F498" s="163" t="s">
+        <v>14</v>
+      </c>
       <c r="G498" s="71"/>
       <c r="H498" s="69"/>
-      <c r="I498" s="69"/>
-      <c r="J498" s="76"/>
-      <c r="L498" s="69"/>
+      <c r="I498" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="J498" s="14" t="s">
+        <v>1674</v>
+      </c>
+      <c r="K498" s="200">
+        <v>45429</v>
+      </c>
+      <c r="L498" s="69" t="s">
+        <v>1298</v>
+      </c>
       <c r="M498" s="114"/>
       <c r="N498" s="71"/>
       <c r="O498" s="71"/>
@@ -25533,16 +26851,35 @@
       <c r="A499" s="81">
         <v>498</v>
       </c>
-      <c r="B499" s="73"/>
-      <c r="C499" s="73"/>
-      <c r="D499" s="73"/>
-      <c r="E499" s="74"/>
-      <c r="F499" s="81"/>
+      <c r="B499" s="13">
+        <v>4</v>
+      </c>
+      <c r="C499" s="13">
+        <v>4</v>
+      </c>
+      <c r="D499" s="13">
+        <v>2024</v>
+      </c>
+      <c r="E499" s="2" t="s">
+        <v>1643</v>
+      </c>
+      <c r="F499" s="163" t="s">
+        <v>444</v>
+      </c>
       <c r="G499" s="71"/>
       <c r="H499" s="69"/>
-      <c r="I499" s="69"/>
-      <c r="J499" s="76"/>
-      <c r="L499" s="69"/>
+      <c r="I499" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="J499" s="14" t="s">
+        <v>1675</v>
+      </c>
+      <c r="K499" s="199">
+        <v>45422</v>
+      </c>
+      <c r="L499" s="69" t="s">
+        <v>1298</v>
+      </c>
       <c r="M499" s="114"/>
       <c r="N499" s="71"/>
       <c r="O499" s="71"/>
@@ -25552,35 +26889,79 @@
       <c r="A500" s="81">
         <v>499</v>
       </c>
-      <c r="B500" s="73"/>
-      <c r="C500" s="73"/>
-      <c r="D500" s="73"/>
-      <c r="E500" s="74"/>
-      <c r="F500" s="81"/>
+      <c r="B500" s="13">
+        <v>4</v>
+      </c>
+      <c r="C500" s="13">
+        <v>4</v>
+      </c>
+      <c r="D500" s="13">
+        <v>2024</v>
+      </c>
+      <c r="E500" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="F500" s="163" t="s">
+        <v>1597</v>
+      </c>
       <c r="G500" s="71"/>
       <c r="H500" s="69"/>
-      <c r="I500" s="69"/>
-      <c r="J500" s="76"/>
-      <c r="L500" s="69"/>
-      <c r="M500" s="114"/>
-      <c r="N500" s="71"/>
-      <c r="O500" s="71"/>
+      <c r="I500" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="J500" s="14" t="s">
+        <v>1676</v>
+      </c>
+      <c r="K500" s="199">
+        <v>45422</v>
+      </c>
+      <c r="L500" s="69" t="s">
+        <v>1294</v>
+      </c>
+      <c r="M500" s="114">
+        <v>45390</v>
+      </c>
+      <c r="N500" s="71">
+        <v>4</v>
+      </c>
+      <c r="O500" s="71">
+        <v>1</v>
+      </c>
       <c r="P500" s="71"/>
     </row>
     <row r="501" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A501" s="81">
         <v>500</v>
       </c>
-      <c r="B501" s="73"/>
-      <c r="C501" s="73"/>
-      <c r="D501" s="73"/>
-      <c r="E501" s="74"/>
-      <c r="F501" s="81"/>
+      <c r="B501" s="13">
+        <v>5</v>
+      </c>
+      <c r="C501" s="13">
+        <v>4</v>
+      </c>
+      <c r="D501" s="13">
+        <v>2024</v>
+      </c>
+      <c r="E501" s="2" t="s">
+        <v>1644</v>
+      </c>
+      <c r="F501" s="163" t="s">
+        <v>14</v>
+      </c>
       <c r="G501" s="71"/>
       <c r="H501" s="69"/>
-      <c r="I501" s="69"/>
-      <c r="J501" s="76"/>
-      <c r="L501" s="69"/>
+      <c r="I501" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="J501" s="14" t="s">
+        <v>1677</v>
+      </c>
+      <c r="K501" s="200">
+        <v>45432</v>
+      </c>
+      <c r="L501" s="69" t="s">
+        <v>1298</v>
+      </c>
       <c r="M501" s="114"/>
       <c r="N501" s="71"/>
       <c r="O501" s="71"/>
@@ -25590,16 +26971,35 @@
       <c r="A502" s="81">
         <v>501</v>
       </c>
-      <c r="B502" s="73"/>
-      <c r="C502" s="73"/>
-      <c r="D502" s="73"/>
-      <c r="E502" s="74"/>
-      <c r="F502" s="81"/>
+      <c r="B502" s="13">
+        <v>8</v>
+      </c>
+      <c r="C502" s="13">
+        <v>4</v>
+      </c>
+      <c r="D502" s="13">
+        <v>2024</v>
+      </c>
+      <c r="E502" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="F502" s="163" t="s">
+        <v>14</v>
+      </c>
       <c r="G502" s="71"/>
       <c r="H502" s="69"/>
-      <c r="I502" s="69"/>
-      <c r="J502" s="76"/>
-      <c r="L502" s="69"/>
+      <c r="I502" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="J502" s="14" t="s">
+        <v>1678</v>
+      </c>
+      <c r="K502" s="200">
+        <v>45433</v>
+      </c>
+      <c r="L502" s="69" t="s">
+        <v>1298</v>
+      </c>
       <c r="M502" s="114"/>
       <c r="N502" s="71"/>
       <c r="O502" s="71"/>
@@ -25609,16 +27009,35 @@
       <c r="A503" s="81">
         <v>502</v>
       </c>
-      <c r="B503" s="73"/>
-      <c r="C503" s="73"/>
-      <c r="D503" s="73"/>
-      <c r="E503" s="74"/>
-      <c r="F503" s="81"/>
+      <c r="B503" s="13">
+        <v>8</v>
+      </c>
+      <c r="C503" s="13">
+        <v>4</v>
+      </c>
+      <c r="D503" s="13">
+        <v>2024</v>
+      </c>
+      <c r="E503" s="2" t="s">
+        <v>1645</v>
+      </c>
+      <c r="F503" s="163" t="s">
+        <v>444</v>
+      </c>
       <c r="G503" s="71"/>
       <c r="H503" s="69"/>
-      <c r="I503" s="69"/>
-      <c r="J503" s="76"/>
-      <c r="L503" s="69"/>
+      <c r="I503" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="J503" s="14" t="s">
+        <v>1679</v>
+      </c>
+      <c r="K503" s="199">
+        <v>45425</v>
+      </c>
+      <c r="L503" s="69" t="s">
+        <v>1298</v>
+      </c>
       <c r="M503" s="114"/>
       <c r="N503" s="71"/>
       <c r="O503" s="71"/>
@@ -52810,23 +54229,34 @@
   </sheetData>
   <autoFilter ref="A1:P1529"/>
   <phoneticPr fontId="5" type="noConversion"/>
-  <conditionalFormatting sqref="K2:K1048576">
-    <cfRule type="expression" dxfId="4" priority="7" stopIfTrue="1">
+  <conditionalFormatting sqref="K2:K257 K259:K261 K263:K1048576">
+    <cfRule type="expression" dxfId="7" priority="7" stopIfTrue="1">
       <formula>$M2&lt;&gt;""</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="3" priority="8" stopIfTrue="1">
+    <cfRule type="expression" dxfId="6" priority="8" stopIfTrue="1">
       <formula>$P2="Trả hồ sơ"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="2" priority="10" stopIfTrue="1">
+    <cfRule type="expression" dxfId="5" priority="10" stopIfTrue="1">
       <formula>VALUE(TODAY()-$K2)&gt;-1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K1:K1048576">
-    <cfRule type="expression" dxfId="1" priority="1">
+    <cfRule type="expression" dxfId="4" priority="1">
       <formula>VALUE(TODAY()-$K1)=-6</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="0" priority="3" stopIfTrue="1">
+    <cfRule type="expression" dxfId="3" priority="3" stopIfTrue="1">
       <formula>VALUE(TODAY()-$K1)=-3</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K258 K262">
+    <cfRule type="expression" dxfId="2" priority="14" stopIfTrue="1">
+      <formula>$M258&lt;&gt;""</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="1" priority="15" stopIfTrue="1">
+      <formula>$Q258="Trả hồ sơ"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="0" priority="16" stopIfTrue="1">
+      <formula>VALUE(TODAY()-$K258)&gt;-1</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/TUAN/HOSO2024-BPKT.xlsx
+++ b/TUAN/HOSO2024-BPKT.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27425"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr showObjects="none" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\GitHub\SOMUCKE\TUAN\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\1.GITHUB\SOMUCKE\TUAN\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3AAA4C37-0B23-4115-9A44-353EA566434E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21600" windowHeight="12780" tabRatio="384" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21600" windowHeight="12780" tabRatio="384" firstSheet="1" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="foxz" sheetId="6" state="veryHidden" r:id="rId1"/>
@@ -30,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4466" uniqueCount="1606">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4480" uniqueCount="1607">
   <si>
     <t>Ngày</t>
   </si>
@@ -4865,12 +4864,15 @@
   </si>
   <si>
     <t>51 (371;372)</t>
+  </si>
+  <si>
+    <t>.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="dd/mm/yyyy;@"/>
   </numFmts>
@@ -5722,9 +5724,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Office 2007 - 2010">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -5762,9 +5764,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office 2007 - 2010">
+    <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -5799,7 +5801,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -5834,7 +5836,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office 2007 - 2010">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -6007,7 +6009,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -6019,12 +6021,12 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:Q2009"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A426" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="K249" sqref="K249"/>
+    <sheetView tabSelected="1" topLeftCell="A246" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="P254" sqref="P254:P256"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -12813,7 +12815,7 @@
         <v>438</v>
       </c>
     </row>
-    <row r="162" spans="1:17" s="146" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:17" s="146" customFormat="1" ht="90" x14ac:dyDescent="0.25">
       <c r="A162" s="81">
         <v>161</v>
       </c>
@@ -12988,7 +12990,7 @@
       </c>
       <c r="P165" s="70"/>
     </row>
-    <row r="166" spans="1:17" s="146" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:17" s="146" customFormat="1" ht="90" x14ac:dyDescent="0.25">
       <c r="A166" s="81">
         <v>165</v>
       </c>
@@ -14918,7 +14920,9 @@
       <c r="M211" s="107"/>
       <c r="N211" s="70"/>
       <c r="O211" s="70"/>
-      <c r="P211" s="70"/>
+      <c r="P211" s="103" t="s">
+        <v>846</v>
+      </c>
     </row>
     <row r="212" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A212" s="97">
@@ -15324,7 +15328,9 @@
       <c r="M221" s="107"/>
       <c r="N221" s="70"/>
       <c r="O221" s="70"/>
-      <c r="P221" s="70"/>
+      <c r="P221" s="103" t="s">
+        <v>846</v>
+      </c>
     </row>
     <row r="222" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A222" s="80">
@@ -15753,7 +15759,9 @@
       <c r="M231" s="107"/>
       <c r="N231" s="70"/>
       <c r="O231" s="70"/>
-      <c r="P231" s="70"/>
+      <c r="P231" s="103" t="s">
+        <v>846</v>
+      </c>
     </row>
     <row r="232" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A232" s="80">
@@ -15911,7 +15919,9 @@
       <c r="M235" s="107"/>
       <c r="N235" s="70"/>
       <c r="O235" s="70"/>
-      <c r="P235" s="70"/>
+      <c r="P235" s="103" t="s">
+        <v>846</v>
+      </c>
     </row>
     <row r="236" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A236" s="80">
@@ -16258,7 +16268,7 @@
       </c>
       <c r="Q243" s="128"/>
     </row>
-    <row r="244" spans="1:17" s="146" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:17" s="146" customFormat="1" ht="75" x14ac:dyDescent="0.25">
       <c r="A244" s="80">
         <v>243</v>
       </c>
@@ -16514,7 +16524,9 @@
       <c r="M249" s="107"/>
       <c r="N249" s="70"/>
       <c r="O249" s="70"/>
-      <c r="P249" s="70"/>
+      <c r="P249" s="103" t="s">
+        <v>846</v>
+      </c>
     </row>
     <row r="250" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A250" s="80">
@@ -16628,7 +16640,9 @@
       <c r="M252" s="107"/>
       <c r="N252" s="70"/>
       <c r="O252" s="70"/>
-      <c r="P252" s="70"/>
+      <c r="P252" s="103" t="s">
+        <v>846</v>
+      </c>
     </row>
     <row r="253" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A253" s="80">
@@ -16704,7 +16718,9 @@
       <c r="M254" s="107"/>
       <c r="N254" s="70"/>
       <c r="O254" s="70"/>
-      <c r="P254" s="70"/>
+      <c r="P254" s="103" t="s">
+        <v>846</v>
+      </c>
     </row>
     <row r="255" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A255" s="80">
@@ -16742,7 +16758,9 @@
       <c r="M255" s="107"/>
       <c r="N255" s="70"/>
       <c r="O255" s="70"/>
-      <c r="P255" s="70"/>
+      <c r="P255" s="103" t="s">
+        <v>846</v>
+      </c>
     </row>
     <row r="256" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A256" s="80">
@@ -16780,7 +16798,9 @@
       <c r="M256" s="107"/>
       <c r="N256" s="70"/>
       <c r="O256" s="70"/>
-      <c r="P256" s="68"/>
+      <c r="P256" s="103" t="s">
+        <v>846</v>
+      </c>
     </row>
     <row r="257" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A257" s="80">
@@ -16863,7 +16883,9 @@
       <c r="L258" s="100" t="s">
         <v>1294</v>
       </c>
-      <c r="M258" s="106"/>
+      <c r="M258" s="106" t="s">
+        <v>1606</v>
+      </c>
       <c r="N258" s="103"/>
       <c r="O258" s="103"/>
       <c r="P258" s="103" t="s">
@@ -16907,7 +16929,9 @@
       <c r="M259" s="107"/>
       <c r="N259" s="70"/>
       <c r="O259" s="70"/>
-      <c r="P259" s="70"/>
+      <c r="P259" s="103" t="s">
+        <v>846</v>
+      </c>
     </row>
     <row r="260" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A260" s="80">
@@ -16945,7 +16969,9 @@
       <c r="M260" s="107"/>
       <c r="N260" s="70"/>
       <c r="O260" s="70"/>
-      <c r="P260" s="70"/>
+      <c r="P260" s="103" t="s">
+        <v>846</v>
+      </c>
     </row>
     <row r="261" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A261" s="80">
@@ -17020,7 +17046,9 @@
       <c r="L262" s="100" t="s">
         <v>1295</v>
       </c>
-      <c r="M262" s="106"/>
+      <c r="M262" s="106" t="s">
+        <v>1606</v>
+      </c>
       <c r="N262" s="103"/>
       <c r="O262" s="103"/>
       <c r="P262" s="103" t="s">
@@ -17460,7 +17488,7 @@
         <v>45390</v>
       </c>
       <c r="L273" s="68" t="s">
-        <v>1296</v>
+        <v>1298</v>
       </c>
       <c r="M273" s="107"/>
       <c r="N273" s="70"/>
@@ -17498,7 +17526,7 @@
         <v>45390</v>
       </c>
       <c r="L274" s="68" t="s">
-        <v>1296</v>
+        <v>1298</v>
       </c>
       <c r="M274" s="107"/>
       <c r="N274" s="70"/>
@@ -19334,7 +19362,9 @@
       <c r="M320" s="107"/>
       <c r="N320" s="70"/>
       <c r="O320" s="70"/>
-      <c r="P320" s="70"/>
+      <c r="P320" s="103" t="s">
+        <v>846</v>
+      </c>
     </row>
     <row r="321" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A321" s="80">
@@ -19744,7 +19774,7 @@
       </c>
       <c r="P329" s="70"/>
     </row>
-    <row r="330" spans="1:17" s="146" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="330" spans="1:17" s="146" customFormat="1" ht="105" x14ac:dyDescent="0.25">
       <c r="A330" s="94">
         <v>329</v>
       </c>
@@ -20377,7 +20407,7 @@
       <c r="O345" s="70"/>
       <c r="P345" s="70"/>
     </row>
-    <row r="346" spans="1:17" s="146" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="346" spans="1:17" s="146" customFormat="1" ht="90" x14ac:dyDescent="0.25">
       <c r="A346" s="80">
         <v>345</v>
       </c>
@@ -20426,7 +20456,7 @@
       <c r="P346" s="70"/>
       <c r="Q346" s="145"/>
     </row>
-    <row r="347" spans="1:17" s="146" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="347" spans="1:17" s="146" customFormat="1" ht="90" x14ac:dyDescent="0.25">
       <c r="A347" s="80">
         <v>346</v>
       </c>
@@ -52695,7 +52725,7 @@
       <c r="L2009" s="68"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:P1529" xr:uid="{00000000-0009-0000-0000-000001000000}"/>
+  <autoFilter ref="A1:P1529"/>
   <phoneticPr fontId="5" type="noConversion"/>
   <conditionalFormatting sqref="K1:K1048576">
     <cfRule type="expression" dxfId="4" priority="1">
@@ -52722,7 +52752,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K62"/>
   <sheetViews>
     <sheetView topLeftCell="A34" workbookViewId="0">
@@ -53809,7 +53839,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E118"/>
   <sheetViews>
     <sheetView topLeftCell="A103" workbookViewId="0">
@@ -55806,7 +55836,7 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="E1:E118" xr:uid="{00000000-0009-0000-0000-000003000000}"/>
+  <autoFilter ref="E1:E118"/>
   <mergeCells count="1">
     <mergeCell ref="A1:E1"/>
   </mergeCells>
@@ -55816,7 +55846,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K133"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -60229,7 +60259,7 @@
       <c r="K133" s="22"/>
     </row>
   </sheetData>
-  <autoFilter ref="J1:J133" xr:uid="{00000000-0009-0000-0000-000004000000}"/>
+  <autoFilter ref="J1:J133"/>
   <mergeCells count="2">
     <mergeCell ref="K13:K66"/>
     <mergeCell ref="K79:K85"/>
@@ -60240,7 +60270,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M147"/>
   <sheetViews>
     <sheetView topLeftCell="A34" workbookViewId="0">

--- a/TUAN/HOSO2024-BPKT.xlsx
+++ b/TUAN/HOSO2024-BPKT.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr showObjects="none" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\A COPPY\HO SO BO PHAN KY THUAT\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Github\SOMUCKE\TUAN\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -26,7 +26,7 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Tong!$A$1:$P$1529</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">Trung!$J$1:$J$133</definedName>
   </definedNames>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
@@ -5138,7 +5138,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="dd/mm/yyyy;@"/>
   </numFmts>
